--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C712F622-B61F-414D-9838-6B7A90DA5DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BED0521-4810-4408-9766-FAA783F9D65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1045">
   <si>
     <t>List No.</t>
   </si>
@@ -2386,15 +2386,9 @@
     <t>かわ</t>
   </si>
   <si>
-    <t>川岸（かわぎし）／川瀬（かわせ）</t>
-  </si>
-  <si>
     <t>セン</t>
   </si>
   <si>
-    <t>河川（かせん）／山川（やまかわ）</t>
-  </si>
-  <si>
     <t>伝</t>
   </si>
   <si>
@@ -2437,9 +2431,6 @@
     <t>まど</t>
   </si>
   <si>
-    <t>窓口（まどぐち）／窓枠（まだわく）</t>
-  </si>
-  <si>
     <t>窓外（そうがい）</t>
   </si>
   <si>
@@ -2677,9 +2668,6 @@
     <t>ショウ／ジュウ</t>
   </si>
   <si>
-    <t>従属（じゅうぞく）／従容（しょうよう）</t>
-  </si>
-  <si>
     <t>粗</t>
   </si>
   <si>
@@ -2702,6 +2690,471 @@
   </si>
   <si>
     <t>促音（そくおん）／督促（とくそく）</t>
+  </si>
+  <si>
+    <t>川岸（かわぎし）／川瀬（かわせ）／山川（やまかわ）</t>
+  </si>
+  <si>
+    <t>河川（かせん）</t>
+  </si>
+  <si>
+    <t>窓口（まどぐち）／窓枠（まどわく）</t>
+  </si>
+  <si>
+    <t>酢</t>
+  </si>
+  <si>
+    <t>酢豚（すぶた）</t>
+  </si>
+  <si>
+    <t>蹴</t>
+  </si>
+  <si>
+    <t>ける</t>
+  </si>
+  <si>
+    <t>蹴る／蹴落とす（けおとす）／蹴返す（けかえす）</t>
+  </si>
+  <si>
+    <t>蹴球（しゅうきゅう）</t>
+  </si>
+  <si>
+    <t>催</t>
+  </si>
+  <si>
+    <t>もよおす</t>
+  </si>
+  <si>
+    <t>歓迎会を催す／ホテルで催しがある</t>
+  </si>
+  <si>
+    <t>催告（さいこく）／催涙ガス（さいるいガス）</t>
+  </si>
+  <si>
+    <t>粋</t>
+  </si>
+  <si>
+    <t>粋人（すいじん）／純粋（じゅんすい）</t>
+  </si>
+  <si>
+    <t>村</t>
+  </si>
+  <si>
+    <t>むら</t>
+  </si>
+  <si>
+    <t>村上（むらかみ）／村八分（むらはちぶ）</t>
+  </si>
+  <si>
+    <t>ソン</t>
+  </si>
+  <si>
+    <t>村民（そんみん）／村落（そんらく）</t>
+  </si>
+  <si>
+    <t>存</t>
+  </si>
+  <si>
+    <t>ソン／ゾン</t>
+  </si>
+  <si>
+    <t>存続（そんぞく）／存じる（ぞんじる）</t>
+  </si>
+  <si>
+    <t>寸</t>
+  </si>
+  <si>
+    <t>スン</t>
+  </si>
+  <si>
+    <t>寸法（すんぽう）／寸前（すんぜん）</t>
+  </si>
+  <si>
+    <t>撮</t>
+  </si>
+  <si>
+    <t>写真を撮る（しゃしんをとる）</t>
+  </si>
+  <si>
+    <t>撮影（さつえい）</t>
+  </si>
+  <si>
+    <t>挫</t>
+  </si>
+  <si>
+    <t>挫く／挫ける（くじける）</t>
+  </si>
+  <si>
+    <t>くじく／くじける</t>
+  </si>
+  <si>
+    <t>ザ</t>
+  </si>
+  <si>
+    <t>挫骨（ざこつ）／挫折（ざせつ）</t>
+  </si>
+  <si>
+    <t>措</t>
+  </si>
+  <si>
+    <t>措辞（そじ）／措置（そち）</t>
+  </si>
+  <si>
+    <t>No.17</t>
+  </si>
+  <si>
+    <t>錯</t>
+  </si>
+  <si>
+    <t>錯誤（さくご）／錯雑（さくざつ）</t>
+  </si>
+  <si>
+    <t>従容（しょうよう）／従属（じゅうぞく）</t>
+  </si>
+  <si>
+    <t>酢酸（さくさん）</t>
+  </si>
+  <si>
+    <t>No.18</t>
+  </si>
+  <si>
+    <t>搭</t>
+  </si>
+  <si>
+    <t>トウ</t>
+  </si>
+  <si>
+    <t>搭載（とうさい）／搭乗（とうじょう）</t>
+  </si>
+  <si>
+    <t>答</t>
+  </si>
+  <si>
+    <t>こたえ／こたえる</t>
+  </si>
+  <si>
+    <t>正しい答えを選びなさい／さむさが身に答える</t>
+  </si>
+  <si>
+    <t>答辞（とうじ）／答礼（とうれい）</t>
+  </si>
+  <si>
+    <t>達</t>
+  </si>
+  <si>
+    <t>タツ</t>
+  </si>
+  <si>
+    <t>達人（たつじん）／速達（そくたつ）／友達（だち）</t>
+  </si>
+  <si>
+    <t>打</t>
+  </si>
+  <si>
+    <t>うつ</t>
+  </si>
+  <si>
+    <t>打つ（うつ）／打ち合わせ／打ち明ける</t>
+  </si>
+  <si>
+    <t>ダ</t>
+  </si>
+  <si>
+    <t>打楽器（だがっき）／打算（ださん）</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>おお／おおいに／おおきい</t>
+  </si>
+  <si>
+    <t>大当たり（おおあたり）／大いに違う／大きい／大筋（おおすじ）</t>
+  </si>
+  <si>
+    <t>タイ／ダイ</t>
+  </si>
+  <si>
+    <t>大使館（たいしかん）／大根（だいこん）</t>
+  </si>
+  <si>
+    <t>逮</t>
+  </si>
+  <si>
+    <t>タイ</t>
+  </si>
+  <si>
+    <t>逮捕（たいほ）／逮捕状（たいほじょう）</t>
+  </si>
+  <si>
+    <t>代</t>
+  </si>
+  <si>
+    <t>かえる／かわる／しろ／よ</t>
+  </si>
+  <si>
+    <t>演説に代える／代わる／飲み代（のみしろ）／佳代子（かよこ）</t>
+  </si>
+  <si>
+    <t>代謝（たいしゃ）／代金（だいきん）</t>
+  </si>
+  <si>
+    <t>待</t>
+  </si>
+  <si>
+    <t>まつ</t>
+  </si>
+  <si>
+    <t>待つ／待った／待ち合い（まちあい）</t>
+  </si>
+  <si>
+    <t>待機（たいき）</t>
+  </si>
+  <si>
+    <t>怠</t>
+  </si>
+  <si>
+    <t>おこたる／なまける</t>
+  </si>
+  <si>
+    <t>怠る／怠ける／怠け者（なまけもの）</t>
+  </si>
+  <si>
+    <t>怠慢（たいまん）</t>
+  </si>
+  <si>
+    <t>帯</t>
+  </si>
+  <si>
+    <t>おび／おびる</t>
+  </si>
+  <si>
+    <t>帯（おび）／重い任務を帯びる（おもいにんむをおびる）</t>
+  </si>
+  <si>
+    <t>携帯（けいたい）／地帯（ちたい）</t>
+  </si>
+  <si>
+    <t>貸</t>
+  </si>
+  <si>
+    <t>かす</t>
+  </si>
+  <si>
+    <t>貸し金（かしきん）／貸し出す（かしだす）</t>
+  </si>
+  <si>
+    <t>貸借（たいしゃく）／賃貸（ちんたい）</t>
+  </si>
+  <si>
+    <t>戴</t>
+  </si>
+  <si>
+    <t>いただく</t>
+  </si>
+  <si>
+    <t>戴く／戴き物</t>
+  </si>
+  <si>
+    <t>戴冠式（たいかんしき）／不倶戴天</t>
+  </si>
+  <si>
+    <t>丹</t>
+  </si>
+  <si>
+    <t>タン</t>
+  </si>
+  <si>
+    <t>丹青（てんせい）／牡丹（ぶたん）</t>
+  </si>
+  <si>
+    <t>担</t>
+  </si>
+  <si>
+    <t>かつぐ／になう</t>
+  </si>
+  <si>
+    <t>彼を会長に担ぐ／みんなの期待を一身に担う</t>
+  </si>
+  <si>
+    <t>担架（たんか）／担保（たんぽ）</t>
+  </si>
+  <si>
+    <t>単</t>
+  </si>
+  <si>
+    <t>単位（たんい）／単に（たんに）</t>
+  </si>
+  <si>
+    <t>胆</t>
+  </si>
+  <si>
+    <t>胆汁（たんじゅう）</t>
+  </si>
+  <si>
+    <t>旦</t>
+  </si>
+  <si>
+    <t>元旦（がんたん）／一旦（いったん）</t>
+  </si>
+  <si>
+    <t>但</t>
+  </si>
+  <si>
+    <t>ただし</t>
+  </si>
+  <si>
+    <t>但し（ただし）／但し書き（ただしがき）</t>
+  </si>
+  <si>
+    <t>淡</t>
+  </si>
+  <si>
+    <t>あわい</t>
+  </si>
+  <si>
+    <t>淡い期待を抱く（あわいきたいをいだく）</t>
+  </si>
+  <si>
+    <t>淡水魚（たんすいぎょ）／淡泊（たんぱく）</t>
+  </si>
+  <si>
+    <t>弾</t>
+  </si>
+  <si>
+    <t>たま／はずむ／ひく</t>
+  </si>
+  <si>
+    <t>ダン</t>
+  </si>
+  <si>
+    <t>弾（たま）／弾む（はずむ）／ピアノを弾く（ひく）</t>
+  </si>
+  <si>
+    <t>弾劾（だんがい）／弾力（だんりょく）</t>
+  </si>
+  <si>
+    <t>誕</t>
+  </si>
+  <si>
+    <t>誕生日（たんじょうび）</t>
+  </si>
+  <si>
+    <t>当</t>
+  </si>
+  <si>
+    <t>あたる／あてる</t>
+  </si>
+  <si>
+    <t>口当たり（くちあたり）／当たる／当てる</t>
+  </si>
+  <si>
+    <t>当番（とうばん）／当人（とうにん）</t>
+  </si>
+  <si>
+    <t>党</t>
+  </si>
+  <si>
+    <t>党員（とういん）／野党（やとう）</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>かたな</t>
+  </si>
+  <si>
+    <t>刀（かたな）</t>
+  </si>
+  <si>
+    <t>刀剣（とうけん）</t>
+  </si>
+  <si>
+    <t>島</t>
+  </si>
+  <si>
+    <t>しま</t>
+  </si>
+  <si>
+    <t>島国（しまぐに）</t>
+  </si>
+  <si>
+    <t>島嶼（とうしょ）／群島（ぐんとう）</t>
+  </si>
+  <si>
+    <t>導</t>
+  </si>
+  <si>
+    <t>先生が学生を導く</t>
+  </si>
+  <si>
+    <t>みちびく</t>
+  </si>
+  <si>
+    <t>ドウ</t>
+  </si>
+  <si>
+    <t>導火線（どうかせん）／魔導士（まどうし）</t>
+  </si>
+  <si>
+    <t>倒</t>
+  </si>
+  <si>
+    <t>たおす／たおれる</t>
+  </si>
+  <si>
+    <t>内閣を倒す（ないかくをたおす）／木が台風で倒れる</t>
+  </si>
+  <si>
+    <t>倒産（とうさん）／倒立（とうりつ）</t>
+  </si>
+  <si>
+    <t>到</t>
+  </si>
+  <si>
+    <t>到達（とうたつ）／周到（しゅうとう）</t>
+  </si>
+  <si>
+    <t>No.19</t>
+  </si>
+  <si>
+    <t>盗</t>
+  </si>
+  <si>
+    <t>ぬすむ</t>
+  </si>
+  <si>
+    <t>盗む／盗み聞き（ぬすみぎき）</t>
+  </si>
+  <si>
+    <t>盗作（とうさく）／強盗（ごうとう）</t>
+  </si>
+  <si>
+    <t>悼</t>
+  </si>
+  <si>
+    <t>いたむ</t>
+  </si>
+  <si>
+    <t>友人の死を悼む（ゆうじんのしをいたむ）</t>
+  </si>
+  <si>
+    <t>悼辞（とうじ）／哀悼（あいとう）</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>みち</t>
+  </si>
+  <si>
+    <t>道（みち）／道案内（みちあんない）／道連れ（みちづれ）</t>
+  </si>
+  <si>
+    <t>トウ／ドウ</t>
+  </si>
+  <si>
+    <t>道具（どうぐ）／茶道（さどう）</t>
   </si>
 </sst>
 </file>
@@ -3041,10 +3494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7168,13 +7621,13 @@
         <v>787</v>
       </c>
       <c r="D206" t="s">
+        <v>890</v>
+      </c>
+      <c r="E206" t="s">
         <v>788</v>
       </c>
-      <c r="E206" t="s">
-        <v>789</v>
-      </c>
       <c r="F206" t="s">
-        <v>790</v>
+        <v>891</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -7182,19 +7635,19 @@
         <v>746</v>
       </c>
       <c r="B207" t="s">
+        <v>789</v>
+      </c>
+      <c r="C207" t="s">
+        <v>790</v>
+      </c>
+      <c r="D207" t="s">
         <v>791</v>
       </c>
-      <c r="C207" t="s">
+      <c r="E207" t="s">
         <v>792</v>
       </c>
-      <c r="D207" t="s">
+      <c r="F207" t="s">
         <v>793</v>
-      </c>
-      <c r="E207" t="s">
-        <v>794</v>
-      </c>
-      <c r="F207" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -7202,19 +7655,19 @@
         <v>746</v>
       </c>
       <c r="B208" t="s">
+        <v>794</v>
+      </c>
+      <c r="C208" t="s">
+        <v>795</v>
+      </c>
+      <c r="D208" t="s">
         <v>796</v>
       </c>
-      <c r="C208" t="s">
+      <c r="E208" t="s">
+        <v>788</v>
+      </c>
+      <c r="F208" t="s">
         <v>797</v>
-      </c>
-      <c r="D208" t="s">
-        <v>798</v>
-      </c>
-      <c r="E208" t="s">
-        <v>789</v>
-      </c>
-      <c r="F208" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -7222,13 +7675,13 @@
         <v>746</v>
       </c>
       <c r="B209" t="s">
+        <v>798</v>
+      </c>
+      <c r="C209" t="s">
+        <v>799</v>
+      </c>
+      <c r="D209" t="s">
         <v>800</v>
-      </c>
-      <c r="C209" t="s">
-        <v>801</v>
-      </c>
-      <c r="D209" t="s">
-        <v>802</v>
       </c>
       <c r="E209" t="s">
         <v>13</v>
@@ -7242,19 +7695,19 @@
         <v>746</v>
       </c>
       <c r="B210" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C210" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D210" t="s">
-        <v>805</v>
+        <v>892</v>
       </c>
       <c r="E210" t="s">
         <v>487</v>
       </c>
       <c r="F210" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -7262,27 +7715,27 @@
         <v>746</v>
       </c>
       <c r="B211" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C211" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D211" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E211" t="s">
         <v>568</v>
       </c>
       <c r="F211" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B212" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
@@ -7294,135 +7747,135 @@
         <v>487</v>
       </c>
       <c r="F212" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>808</v>
+      </c>
+      <c r="B213" t="s">
         <v>811</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
+        <v>812</v>
+      </c>
+      <c r="D213" t="s">
+        <v>813</v>
+      </c>
+      <c r="E213" t="s">
         <v>814</v>
       </c>
-      <c r="C213" t="s">
+      <c r="F213" t="s">
         <v>815</v>
-      </c>
-      <c r="D213" t="s">
-        <v>816</v>
-      </c>
-      <c r="E213" t="s">
-        <v>817</v>
-      </c>
-      <c r="F213" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B214" t="s">
+        <v>816</v>
+      </c>
+      <c r="C214" t="s">
+        <v>817</v>
+      </c>
+      <c r="D214" t="s">
+        <v>818</v>
+      </c>
+      <c r="E214" t="s">
+        <v>814</v>
+      </c>
+      <c r="F214" t="s">
         <v>819</v>
-      </c>
-      <c r="C214" t="s">
-        <v>820</v>
-      </c>
-      <c r="D214" t="s">
-        <v>821</v>
-      </c>
-      <c r="E214" t="s">
-        <v>817</v>
-      </c>
-      <c r="F214" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B215" t="s">
+        <v>820</v>
+      </c>
+      <c r="C215" t="s">
+        <v>821</v>
+      </c>
+      <c r="D215" t="s">
+        <v>822</v>
+      </c>
+      <c r="E215" t="s">
+        <v>814</v>
+      </c>
+      <c r="F215" t="s">
         <v>823</v>
-      </c>
-      <c r="C215" t="s">
-        <v>824</v>
-      </c>
-      <c r="D215" t="s">
-        <v>825</v>
-      </c>
-      <c r="E215" t="s">
-        <v>817</v>
-      </c>
-      <c r="F215" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B216" t="s">
+        <v>824</v>
+      </c>
+      <c r="C216" t="s">
+        <v>825</v>
+      </c>
+      <c r="D216" t="s">
+        <v>826</v>
+      </c>
+      <c r="E216" t="s">
+        <v>814</v>
+      </c>
+      <c r="F216" t="s">
         <v>827</v>
-      </c>
-      <c r="C216" t="s">
-        <v>828</v>
-      </c>
-      <c r="D216" t="s">
-        <v>829</v>
-      </c>
-      <c r="E216" t="s">
-        <v>817</v>
-      </c>
-      <c r="F216" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B217" t="s">
+        <v>828</v>
+      </c>
+      <c r="C217" t="s">
+        <v>829</v>
+      </c>
+      <c r="D217" t="s">
+        <v>830</v>
+      </c>
+      <c r="E217" t="s">
         <v>831</v>
       </c>
-      <c r="C217" t="s">
+      <c r="F217" t="s">
         <v>832</v>
-      </c>
-      <c r="D217" t="s">
-        <v>833</v>
-      </c>
-      <c r="E217" t="s">
-        <v>834</v>
-      </c>
-      <c r="F217" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B218" t="s">
+        <v>833</v>
+      </c>
+      <c r="C218" t="s">
+        <v>834</v>
+      </c>
+      <c r="D218" t="s">
+        <v>835</v>
+      </c>
+      <c r="E218" t="s">
         <v>836</v>
       </c>
-      <c r="C218" t="s">
+      <c r="F218" t="s">
         <v>837</v>
-      </c>
-      <c r="D218" t="s">
-        <v>838</v>
-      </c>
-      <c r="E218" t="s">
-        <v>839</v>
-      </c>
-      <c r="F218" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B219" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
@@ -7431,18 +7884,18 @@
         <v>13</v>
       </c>
       <c r="E219" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F219" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B220" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C220" t="s">
         <v>13</v>
@@ -7454,55 +7907,55 @@
         <v>691</v>
       </c>
       <c r="F220" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B221" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C221" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D221" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E221" t="s">
         <v>674</v>
       </c>
       <c r="F221" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B222" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C222" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D222" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E222" t="s">
         <v>674</v>
       </c>
       <c r="F222" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B223" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -7514,101 +7967,101 @@
         <v>674</v>
       </c>
       <c r="F223" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B224" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C224" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D224" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E224" t="s">
         <v>691</v>
       </c>
       <c r="F224" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B225" t="s">
+        <v>857</v>
+      </c>
+      <c r="C225" t="s">
+        <v>858</v>
+      </c>
+      <c r="D225" t="s">
+        <v>859</v>
+      </c>
+      <c r="E225" t="s">
         <v>860</v>
       </c>
-      <c r="C225" t="s">
+      <c r="F225" t="s">
         <v>861</v>
-      </c>
-      <c r="D225" t="s">
-        <v>862</v>
-      </c>
-      <c r="E225" t="s">
-        <v>863</v>
-      </c>
-      <c r="F225" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B226" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C226" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D226" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E226" t="s">
         <v>691</v>
       </c>
       <c r="F226" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>866</v>
+      </c>
+      <c r="B227" t="s">
+        <v>867</v>
+      </c>
+      <c r="C227" t="s">
+        <v>868</v>
+      </c>
+      <c r="D227" t="s">
         <v>869</v>
-      </c>
-      <c r="B227" t="s">
-        <v>870</v>
-      </c>
-      <c r="C227" t="s">
-        <v>871</v>
-      </c>
-      <c r="D227" t="s">
-        <v>872</v>
       </c>
       <c r="E227" t="s">
         <v>691</v>
       </c>
       <c r="F227" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B228" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C228" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D228" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E228" t="s">
         <v>13</v>
@@ -7619,82 +8072,922 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B229" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C229" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D229" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E229" t="s">
         <v>691</v>
       </c>
       <c r="F229" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B230" t="s">
+        <v>878</v>
+      </c>
+      <c r="C230" t="s">
+        <v>879</v>
+      </c>
+      <c r="D230" t="s">
+        <v>880</v>
+      </c>
+      <c r="E230" t="s">
         <v>881</v>
       </c>
-      <c r="C230" t="s">
-        <v>882</v>
-      </c>
-      <c r="D230" t="s">
-        <v>883</v>
-      </c>
-      <c r="E230" t="s">
-        <v>884</v>
-      </c>
       <c r="F230" t="s">
-        <v>885</v>
+        <v>929</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B231" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C231" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D231" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="E231" t="s">
         <v>776</v>
       </c>
       <c r="F231" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B232" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C232" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D232" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E232" t="s">
         <v>511</v>
       </c>
       <c r="F232" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>866</v>
+      </c>
+      <c r="B233" t="s">
         <v>893</v>
+      </c>
+      <c r="C233" t="s">
+        <v>586</v>
+      </c>
+      <c r="D233" t="s">
+        <v>894</v>
+      </c>
+      <c r="E233" t="s">
+        <v>514</v>
+      </c>
+      <c r="F233" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>866</v>
+      </c>
+      <c r="B234" t="s">
+        <v>895</v>
+      </c>
+      <c r="C234" t="s">
+        <v>896</v>
+      </c>
+      <c r="D234" t="s">
+        <v>897</v>
+      </c>
+      <c r="E234" t="s">
+        <v>742</v>
+      </c>
+      <c r="F234" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>866</v>
+      </c>
+      <c r="B235" t="s">
+        <v>899</v>
+      </c>
+      <c r="C235" t="s">
+        <v>900</v>
+      </c>
+      <c r="D235" t="s">
+        <v>901</v>
+      </c>
+      <c r="E235" t="s">
+        <v>440</v>
+      </c>
+      <c r="F235" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>866</v>
+      </c>
+      <c r="B236" t="s">
+        <v>903</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" t="s">
+        <v>814</v>
+      </c>
+      <c r="F236" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>866</v>
+      </c>
+      <c r="B237" t="s">
+        <v>905</v>
+      </c>
+      <c r="C237" t="s">
+        <v>906</v>
+      </c>
+      <c r="D237" t="s">
+        <v>907</v>
+      </c>
+      <c r="E237" t="s">
+        <v>908</v>
+      </c>
+      <c r="F237" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>866</v>
+      </c>
+      <c r="B238" t="s">
+        <v>910</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" t="s">
+        <v>13</v>
+      </c>
+      <c r="E238" t="s">
+        <v>911</v>
+      </c>
+      <c r="F238" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>866</v>
+      </c>
+      <c r="B239" t="s">
+        <v>913</v>
+      </c>
+      <c r="C239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" t="s">
+        <v>914</v>
+      </c>
+      <c r="F239" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>866</v>
+      </c>
+      <c r="B240" t="s">
+        <v>916</v>
+      </c>
+      <c r="C240" t="s">
+        <v>457</v>
+      </c>
+      <c r="D240" t="s">
+        <v>917</v>
+      </c>
+      <c r="E240" t="s">
+        <v>435</v>
+      </c>
+      <c r="F240" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>866</v>
+      </c>
+      <c r="B241" t="s">
+        <v>919</v>
+      </c>
+      <c r="C241" t="s">
+        <v>921</v>
+      </c>
+      <c r="D241" t="s">
+        <v>920</v>
+      </c>
+      <c r="E241" t="s">
+        <v>922</v>
+      </c>
+      <c r="F241" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>926</v>
+      </c>
+      <c r="B242" t="s">
+        <v>924</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" t="s">
+        <v>776</v>
+      </c>
+      <c r="F242" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>926</v>
+      </c>
+      <c r="B243" t="s">
+        <v>927</v>
+      </c>
+      <c r="C243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" t="s">
+        <v>514</v>
+      </c>
+      <c r="F243" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>926</v>
+      </c>
+      <c r="B244" t="s">
+        <v>932</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244" t="s">
+        <v>933</v>
+      </c>
+      <c r="F244" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>926</v>
+      </c>
+      <c r="B245" t="s">
+        <v>935</v>
+      </c>
+      <c r="C245" t="s">
+        <v>936</v>
+      </c>
+      <c r="D245" t="s">
+        <v>937</v>
+      </c>
+      <c r="E245" t="s">
+        <v>933</v>
+      </c>
+      <c r="F245" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>926</v>
+      </c>
+      <c r="B246" t="s">
+        <v>939</v>
+      </c>
+      <c r="C246" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" t="s">
+        <v>940</v>
+      </c>
+      <c r="F246" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>926</v>
+      </c>
+      <c r="B247" t="s">
+        <v>942</v>
+      </c>
+      <c r="C247" t="s">
+        <v>943</v>
+      </c>
+      <c r="D247" t="s">
+        <v>944</v>
+      </c>
+      <c r="E247" t="s">
+        <v>945</v>
+      </c>
+      <c r="F247" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>926</v>
+      </c>
+      <c r="B248" t="s">
+        <v>947</v>
+      </c>
+      <c r="C248" t="s">
+        <v>948</v>
+      </c>
+      <c r="D248" t="s">
+        <v>949</v>
+      </c>
+      <c r="E248" t="s">
+        <v>950</v>
+      </c>
+      <c r="F248" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>926</v>
+      </c>
+      <c r="B249" t="s">
+        <v>952</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" t="s">
+        <v>13</v>
+      </c>
+      <c r="E249" t="s">
+        <v>953</v>
+      </c>
+      <c r="F249" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>926</v>
+      </c>
+      <c r="B250" t="s">
+        <v>955</v>
+      </c>
+      <c r="C250" t="s">
+        <v>956</v>
+      </c>
+      <c r="D250" t="s">
+        <v>957</v>
+      </c>
+      <c r="E250" t="s">
+        <v>950</v>
+      </c>
+      <c r="F250" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>926</v>
+      </c>
+      <c r="B251" t="s">
+        <v>959</v>
+      </c>
+      <c r="C251" t="s">
+        <v>960</v>
+      </c>
+      <c r="D251" t="s">
+        <v>961</v>
+      </c>
+      <c r="E251" t="s">
+        <v>953</v>
+      </c>
+      <c r="F251" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>926</v>
+      </c>
+      <c r="B252" t="s">
+        <v>963</v>
+      </c>
+      <c r="C252" t="s">
+        <v>964</v>
+      </c>
+      <c r="D252" t="s">
+        <v>965</v>
+      </c>
+      <c r="E252" t="s">
+        <v>953</v>
+      </c>
+      <c r="F252" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>926</v>
+      </c>
+      <c r="B253" t="s">
+        <v>967</v>
+      </c>
+      <c r="C253" t="s">
+        <v>968</v>
+      </c>
+      <c r="D253" t="s">
+        <v>969</v>
+      </c>
+      <c r="E253" t="s">
+        <v>953</v>
+      </c>
+      <c r="F253" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>926</v>
+      </c>
+      <c r="B254" t="s">
+        <v>971</v>
+      </c>
+      <c r="C254" t="s">
+        <v>972</v>
+      </c>
+      <c r="D254" t="s">
+        <v>973</v>
+      </c>
+      <c r="E254" t="s">
+        <v>953</v>
+      </c>
+      <c r="F254" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>926</v>
+      </c>
+      <c r="B255" t="s">
+        <v>975</v>
+      </c>
+      <c r="C255" t="s">
+        <v>976</v>
+      </c>
+      <c r="D255" t="s">
+        <v>977</v>
+      </c>
+      <c r="E255" t="s">
+        <v>953</v>
+      </c>
+      <c r="F255" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>926</v>
+      </c>
+      <c r="B256" t="s">
+        <v>979</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" t="s">
+        <v>980</v>
+      </c>
+      <c r="F256" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>931</v>
+      </c>
+      <c r="B257" t="s">
+        <v>982</v>
+      </c>
+      <c r="C257" t="s">
+        <v>983</v>
+      </c>
+      <c r="D257" t="s">
+        <v>984</v>
+      </c>
+      <c r="E257" t="s">
+        <v>980</v>
+      </c>
+      <c r="F257" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>931</v>
+      </c>
+      <c r="B258" t="s">
+        <v>986</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s">
+        <v>980</v>
+      </c>
+      <c r="F258" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B259" t="s">
+        <v>988</v>
+      </c>
+      <c r="C259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" t="s">
+        <v>980</v>
+      </c>
+      <c r="F259" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>931</v>
+      </c>
+      <c r="B260" t="s">
+        <v>990</v>
+      </c>
+      <c r="C260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" t="s">
+        <v>980</v>
+      </c>
+      <c r="F260" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>931</v>
+      </c>
+      <c r="B261" t="s">
+        <v>992</v>
+      </c>
+      <c r="C261" t="s">
+        <v>993</v>
+      </c>
+      <c r="D261" t="s">
+        <v>994</v>
+      </c>
+      <c r="E261" t="s">
+        <v>13</v>
+      </c>
+      <c r="F261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>931</v>
+      </c>
+      <c r="B262" t="s">
+        <v>995</v>
+      </c>
+      <c r="C262" t="s">
+        <v>996</v>
+      </c>
+      <c r="D262" t="s">
+        <v>997</v>
+      </c>
+      <c r="E262" t="s">
+        <v>980</v>
+      </c>
+      <c r="F262" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>931</v>
+      </c>
+      <c r="B263" t="s">
+        <v>999</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>931</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C264" t="s">
+        <v>13</v>
+      </c>
+      <c r="D264" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" t="s">
+        <v>980</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>931</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E265" t="s">
+        <v>933</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>931</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" t="s">
+        <v>933</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>931</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E267" t="s">
+        <v>933</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>931</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E268" t="s">
+        <v>933</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>931</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>931</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E270" t="s">
+        <v>933</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>931</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" t="s">
+        <v>933</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E272" t="s">
+        <v>933</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E273" t="s">
+        <v>933</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1044</v>
       </c>
     </row>
   </sheetData>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BED0521-4810-4408-9766-FAA783F9D65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55198007-2A71-4013-95DB-AF12284E2F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1155">
   <si>
     <t>List No.</t>
   </si>
@@ -3155,6 +3155,336 @@
   </si>
   <si>
     <t>道具（どうぐ）／茶道（さどう）</t>
+  </si>
+  <si>
+    <t>No.20</t>
+  </si>
+  <si>
+    <t>稲</t>
+  </si>
+  <si>
+    <t>いな／いね</t>
+  </si>
+  <si>
+    <t>稲子（いなご）／稲妻（いなづま）／稲刈り（いねかり）</t>
+  </si>
+  <si>
+    <t>水稲（すいとう）</t>
+  </si>
+  <si>
+    <t>的</t>
+  </si>
+  <si>
+    <t>まと</t>
+  </si>
+  <si>
+    <t>的を狙う（まとをねらう）</t>
+  </si>
+  <si>
+    <t>テキ</t>
+  </si>
+  <si>
+    <t>的確（てきかく）／的中（てきちゅう）</t>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>うる／える</t>
+  </si>
+  <si>
+    <t>得る（うる）／信頼を得る（しんらいをえる）／得体（えたい）</t>
+  </si>
+  <si>
+    <t>トク</t>
+  </si>
+  <si>
+    <t>得意先（とくいさき）／得策（とくさく）</t>
+  </si>
+  <si>
+    <t>徳</t>
+  </si>
+  <si>
+    <t>徳育（とくいく）／道徳（どうとく）</t>
+  </si>
+  <si>
+    <t>灯</t>
+  </si>
+  <si>
+    <t>ひ</t>
+  </si>
+  <si>
+    <t>灯を消す（ひをけす）</t>
+  </si>
+  <si>
+    <t>灯台（とうだい）</t>
+  </si>
+  <si>
+    <t>登</t>
+  </si>
+  <si>
+    <t>のぼる</t>
+  </si>
+  <si>
+    <t>山に登る（やまにのぼる）</t>
+  </si>
+  <si>
+    <t>ト／トウ</t>
+  </si>
+  <si>
+    <t>登山（とざん）／登記（とうき）</t>
+  </si>
+  <si>
+    <t>等</t>
+  </si>
+  <si>
+    <t>ひとしい</t>
+  </si>
+  <si>
+    <t>その行為は犯罪に等しい（そのこういははんざいにひとしい）</t>
+  </si>
+  <si>
+    <t>等価（とうか）／等身大（とうしんだい）</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>ひくい／ひくまる／ひくめる</t>
+  </si>
+  <si>
+    <t>背が低い／音が低まる／温度を低める</t>
+  </si>
+  <si>
+    <t>低位（ていい）／低木（ていぼく）</t>
+  </si>
+  <si>
+    <t>堤</t>
+  </si>
+  <si>
+    <t>つつみ</t>
+  </si>
+  <si>
+    <t>堤を築く（つつみをきずく）</t>
+  </si>
+  <si>
+    <t>堤防（ていぼう）／防波堤（ぼうはてい）</t>
+  </si>
+  <si>
+    <t>滴</t>
+  </si>
+  <si>
+    <t>しずく／したたる</t>
+  </si>
+  <si>
+    <t>滴（しずく）／新緑滴るばかり（しんりょくしたたるばかり）</t>
+  </si>
+  <si>
+    <t>雨滴（うてき）／水滴（すいてき）</t>
+  </si>
+  <si>
+    <t>笛</t>
+  </si>
+  <si>
+    <t>ふえ</t>
+  </si>
+  <si>
+    <t>笛（ふえ）</t>
+  </si>
+  <si>
+    <t>汽笛（きてき）／警笛（けいてき）</t>
+  </si>
+  <si>
+    <t>嫡</t>
+  </si>
+  <si>
+    <t>チャク</t>
+  </si>
+  <si>
+    <t>嫡子（ちゃくし）／嫡流（ちゃくりゅう）</t>
+  </si>
+  <si>
+    <t>敵</t>
+  </si>
+  <si>
+    <t>かたき</t>
+  </si>
+  <si>
+    <t>敵（かたき）</t>
+  </si>
+  <si>
+    <t>敵意（てきい）／宿敵（しゅくてき）</t>
+  </si>
+  <si>
+    <t>邸</t>
+  </si>
+  <si>
+    <t>邸宅（ていたく）／官邸（かんてい）</t>
+  </si>
+  <si>
+    <t>抵</t>
+  </si>
+  <si>
+    <t>抵抗（ていこう）／大抵（たいてい）</t>
+  </si>
+  <si>
+    <t>底</t>
+  </si>
+  <si>
+    <t>そこ</t>
+  </si>
+  <si>
+    <t>底が浅い（そこがあさい）／底上げ（そこあげ）</t>
+  </si>
+  <si>
+    <t>底辺（ていへん）／徹底（てってい）</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>チ／ジ</t>
+  </si>
+  <si>
+    <t>地域（ちいき）／地震（じしん）</t>
+  </si>
+  <si>
+    <t>弟</t>
+  </si>
+  <si>
+    <t>おとうと</t>
+  </si>
+  <si>
+    <t>弟（おとうと）</t>
+  </si>
+  <si>
+    <t>ダイ／テイ／デ</t>
+  </si>
+  <si>
+    <t>兄弟（きょうだい）／門弟（もんてい）／弟子（でし）</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>帝国（ていこく）／皇帝（こうてい）</t>
+  </si>
+  <si>
+    <t>逓</t>
+  </si>
+  <si>
+    <t>逓減（ていげん）／逓送（ていそう）</t>
+  </si>
+  <si>
+    <t>第</t>
+  </si>
+  <si>
+    <t>ダイ</t>
+  </si>
+  <si>
+    <t>第一（だいいち）／第六感（だいろっかん）</t>
+  </si>
+  <si>
+    <t>締</t>
+  </si>
+  <si>
+    <t>しまる／しめる</t>
+  </si>
+  <si>
+    <t>寒さで身が締まる／家計を締める</t>
+  </si>
+  <si>
+    <t>締結（ていけつ）／締約（ていやく）</t>
+  </si>
+  <si>
+    <t>諦</t>
+  </si>
+  <si>
+    <t>あきらめる</t>
+  </si>
+  <si>
+    <t>諦め（あきらめ）／諦める（あきらめる）</t>
+  </si>
+  <si>
+    <t>テイ／タイ</t>
+  </si>
+  <si>
+    <t>諦観（ていかん）／要諦（ようてい）</t>
+  </si>
+  <si>
+    <t>典</t>
+  </si>
+  <si>
+    <t>テン</t>
+  </si>
+  <si>
+    <t>典雅（てんが）／典拠（てんきょ）／辞典（じてん）</t>
+  </si>
+  <si>
+    <t>点</t>
+  </si>
+  <si>
+    <t>点検口（てんけんこう）／点線（てんせん）</t>
+  </si>
+  <si>
+    <t>店</t>
+  </si>
+  <si>
+    <t>みせ</t>
+  </si>
+  <si>
+    <t>店先（みせさき）／店開き（みせびらき）</t>
+  </si>
+  <si>
+    <t>店員（てんいん）／売店（ばいてん）</t>
+  </si>
+  <si>
+    <t>電</t>
+  </si>
+  <si>
+    <t>電圧（でんあつ）／充電（じゅうでん）</t>
+  </si>
+  <si>
+    <t>No.21</t>
+  </si>
+  <si>
+    <t>殿</t>
+  </si>
+  <si>
+    <t>との／どの</t>
+  </si>
+  <si>
+    <t>お殿様（おとのさま）／人事課長殿（じんじかちょうどの）</t>
+  </si>
+  <si>
+    <t>テン／デン</t>
+  </si>
+  <si>
+    <t>殿下（でんか）／宮殿（きゅうでん）</t>
+  </si>
+  <si>
+    <t>彫</t>
+  </si>
+  <si>
+    <t>ほる</t>
+  </si>
+  <si>
+    <t>はんこを彫る（はんこをほる）／彫り物（ほりもの）</t>
+  </si>
+  <si>
+    <t>彫刻（ちょうこく）／彫塑（ちょうそ）</t>
+  </si>
+  <si>
+    <t>弔</t>
+  </si>
+  <si>
+    <t>とむらう</t>
+  </si>
+  <si>
+    <t>亡き人を弔う（なきひとをとむらう）</t>
+  </si>
+  <si>
+    <t>弔慰金（ちょういきん）／弔辞（ちょうじ）</t>
   </si>
 </sst>
 </file>
@@ -3494,10 +3824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="F274" sqref="F274"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="F305" sqref="F305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3507,7 +3837,7 @@
     <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -8990,6 +9320,606 @@
         <v>1044</v>
       </c>
     </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E275" t="s">
+        <v>933</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E279" t="s">
+        <v>933</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E281" t="s">
+        <v>933</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E282" t="s">
+        <v>630</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E283" t="s">
+        <v>630</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" t="s">
+        <v>13</v>
+      </c>
+      <c r="E288" t="s">
+        <v>630</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C289" t="s">
+        <v>13</v>
+      </c>
+      <c r="D289" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" t="s">
+        <v>630</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E290" t="s">
+        <v>630</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C293" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+      <c r="E293" t="s">
+        <v>630</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C294" t="s">
+        <v>13</v>
+      </c>
+      <c r="D294" t="s">
+        <v>13</v>
+      </c>
+      <c r="E294" t="s">
+        <v>630</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C295" t="s">
+        <v>13</v>
+      </c>
+      <c r="D295" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E296" t="s">
+        <v>630</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C298" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C299" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C301" t="s">
+        <v>13</v>
+      </c>
+      <c r="D301" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301" t="s">
+        <v>792</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E303" t="s">
+        <v>556</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E304" t="s">
+        <v>556</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55198007-2A71-4013-95DB-AF12284E2F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B519326-0A3E-4601-B23B-829333BEA255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1205">
   <si>
     <t>List No.</t>
   </si>
@@ -3485,6 +3485,156 @@
   </si>
   <si>
     <t>弔慰金（ちょういきん）／弔辞（ちょうじ）</t>
+  </si>
+  <si>
+    <t>釣</t>
+  </si>
+  <si>
+    <t>つる</t>
+  </si>
+  <si>
+    <t>川で魚を釣る（かわでさかなをつる）／釣り具（つりぐ）</t>
+  </si>
+  <si>
+    <t>釣魚（ちょうぎょ）</t>
+  </si>
+  <si>
+    <t>調</t>
+  </si>
+  <si>
+    <t>しらべる／ととのう／ととのえる</t>
+  </si>
+  <si>
+    <t>原因を調べる／隊列が調う／交渉を調える</t>
+  </si>
+  <si>
+    <t>調印（ちょういん）／調味料（ちょうみりょう）</t>
+  </si>
+  <si>
+    <t>迭</t>
+  </si>
+  <si>
+    <t>更迭（こうてつ）</t>
+  </si>
+  <si>
+    <t>畳</t>
+  </si>
+  <si>
+    <t>たたみ／たたむ</t>
+  </si>
+  <si>
+    <t>畳屋（たたみや）／畳む</t>
+  </si>
+  <si>
+    <t>重畳（ちょうじょう）</t>
+  </si>
+  <si>
+    <t>丁</t>
+  </si>
+  <si>
+    <t>チョウ／テイ</t>
+  </si>
+  <si>
+    <t>丁数（ちょうすう）／丁度（ちょうど）／丁寧（ていねい）</t>
+  </si>
+  <si>
+    <t>町</t>
+  </si>
+  <si>
+    <t>まち</t>
+  </si>
+  <si>
+    <t>町役場（まちやくば）</t>
+  </si>
+  <si>
+    <t>町長（ちょうちょう）</t>
+  </si>
+  <si>
+    <t>頂</t>
+  </si>
+  <si>
+    <t>いただき／いただく</t>
+  </si>
+  <si>
+    <t>頂き（いただき）／頂く（いただく）</t>
+  </si>
+  <si>
+    <t>頂上（ちょうじょう）</t>
+  </si>
+  <si>
+    <t>定</t>
+  </si>
+  <si>
+    <t>さだか／さだまる／さだめる</t>
+  </si>
+  <si>
+    <t>定か（さだか）／反乱が定まった／法律を定める</t>
+  </si>
+  <si>
+    <t>ジョウ／テイ</t>
+  </si>
+  <si>
+    <t>定規（じょうぎ）／定員（ていいん）</t>
+  </si>
+  <si>
+    <t>訂</t>
+  </si>
+  <si>
+    <t>訂正（ていせい）／校訂（こうてい）</t>
+  </si>
+  <si>
+    <t>錠</t>
+  </si>
+  <si>
+    <t>じょう</t>
+  </si>
+  <si>
+    <t>錠（じょう）／錠剤（じょうざい）</t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>ふゆ</t>
+  </si>
+  <si>
+    <t>冬場（ふゆば）</t>
+  </si>
+  <si>
+    <t>冬季（とうき）／冬至（とうじ）</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>あずま／ひがし</t>
+  </si>
+  <si>
+    <t>東屋（あずまや）／東側（ひがしがわ）</t>
+  </si>
+  <si>
+    <t>東亜（とうあ）／東北（とうほく）</t>
+  </si>
+  <si>
+    <t>洞</t>
+  </si>
+  <si>
+    <t>ほら</t>
+  </si>
+  <si>
+    <t>洞（ほら）</t>
+  </si>
+  <si>
+    <t>洞窟（どうくつ）／洞察（どうさつ）</t>
+  </si>
+  <si>
+    <t>胴</t>
+  </si>
+  <si>
+    <t>胴衣（どうい）／胴体（どうたい）／胴震い（どうぶるい）</t>
+  </si>
+  <si>
+    <t>No.22</t>
   </si>
 </sst>
 </file>
@@ -3824,10 +3974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="F305" sqref="F305"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3837,7 +3987,7 @@
     <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -9920,6 +10070,286 @@
         <v>1154</v>
       </c>
     </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E305" t="s">
+        <v>556</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E306" t="s">
+        <v>556</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" t="s">
+        <v>607</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E308" t="s">
+        <v>561</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C309" t="s">
+        <v>13</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E310" t="s">
+        <v>556</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E311" t="s">
+        <v>556</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C313" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" t="s">
+        <v>13</v>
+      </c>
+      <c r="E313" t="s">
+        <v>630</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E314" t="s">
+        <v>13</v>
+      </c>
+      <c r="F314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E315" t="s">
+        <v>933</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E316" t="s">
+        <v>933</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C318" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" t="s">
+        <v>13</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B519326-0A3E-4601-B23B-829333BEA255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9704BF-AA83-47C6-ADC1-624953A05ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1369">
   <si>
     <t>List No.</t>
   </si>
@@ -3635,6 +3635,498 @@
   </si>
   <si>
     <t>No.22</t>
+  </si>
+  <si>
+    <t>凍</t>
+  </si>
+  <si>
+    <t>こおる／こごえる</t>
+  </si>
+  <si>
+    <t>川が凍る（かわがこおる）／手足が凍える（てあしがこごえる）</t>
+  </si>
+  <si>
+    <t>凍結（とうけつ）／凍傷（とうしょう）</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
+    <t>うごかす／うごく</t>
+  </si>
+  <si>
+    <t>動かす／木の葉が風で動く（きのはがかぜでうごく）</t>
+  </si>
+  <si>
+    <t>動員（どういん）／動物園（どうぶつえん）</t>
+  </si>
+  <si>
+    <t>棟</t>
+  </si>
+  <si>
+    <t>むな／むね</t>
+  </si>
+  <si>
+    <t>会議室は別の棟にあります（かいぎしつはべつのむねにあります）</t>
+  </si>
+  <si>
+    <t>棟梁（とうりょう）／病棟（びょうとう）</t>
+  </si>
+  <si>
+    <t>斗</t>
+  </si>
+  <si>
+    <t>ト</t>
+  </si>
+  <si>
+    <t>斗（と）／北斗星（ほくとせい）</t>
+  </si>
+  <si>
+    <t>豆</t>
+  </si>
+  <si>
+    <t>まめ</t>
+  </si>
+  <si>
+    <t>豆知識（まめちしき）／豆油（まめあぶら）</t>
+  </si>
+  <si>
+    <t>ズ／トウ</t>
+  </si>
+  <si>
+    <t>大豆（だいず）／豆腐（とうふ）／豆乳（とうにゅう）</t>
+  </si>
+  <si>
+    <t>痘</t>
+  </si>
+  <si>
+    <t>痘痕（とうこん）／痘瘡（とうそう）</t>
+  </si>
+  <si>
+    <t>闘</t>
+  </si>
+  <si>
+    <t>たたかう</t>
+  </si>
+  <si>
+    <t>貧困と闘う（ひんこんとたたかう）</t>
+  </si>
+  <si>
+    <t>闘争（とうそう）／格闘（かくとう）</t>
+  </si>
+  <si>
+    <t>都</t>
+  </si>
+  <si>
+    <t>みやこ</t>
+  </si>
+  <si>
+    <t>都（みやこ）</t>
+  </si>
+  <si>
+    <t>ツ／ト</t>
+  </si>
+  <si>
+    <t>都合が良い（つごうがよい）／都道府県（とどうふけん）</t>
+  </si>
+  <si>
+    <t>督</t>
+  </si>
+  <si>
+    <t>督促（とくそく）／総督（そうとく）</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>ドク</t>
+  </si>
+  <si>
+    <t>毒液（どくえき）／毒舌（どくぜつ）</t>
+  </si>
+  <si>
+    <t>独</t>
+  </si>
+  <si>
+    <t>ひとり</t>
+  </si>
+  <si>
+    <t>独りで考える（ひとりでかんがえる）／独り占め（しめ）</t>
+  </si>
+  <si>
+    <t>独学（どくがく）／独占（どくせん）</t>
+  </si>
+  <si>
+    <t>読</t>
+  </si>
+  <si>
+    <t>よむ</t>
+  </si>
+  <si>
+    <t>読み書き／書類を読み合わせる（しょるいをよみあわせる）</t>
+  </si>
+  <si>
+    <t>トウ／トク／ドク</t>
+  </si>
+  <si>
+    <t>読点（とうてん）／読本（とくほん）／読者（どくしゃ）</t>
+  </si>
+  <si>
+    <t>篤</t>
+  </si>
+  <si>
+    <t>あつい</t>
+  </si>
+  <si>
+    <t>病気が篤い（びょうきがあつい）</t>
+  </si>
+  <si>
+    <t>篤行（とっこう）／篤信（とくしん）</t>
+  </si>
+  <si>
+    <t>賭</t>
+  </si>
+  <si>
+    <t>かける</t>
+  </si>
+  <si>
+    <t>賭ける／賭け事（かけごと）</t>
+  </si>
+  <si>
+    <t>賭場（とば）／賭博（とばく）</t>
+  </si>
+  <si>
+    <t>No.23</t>
+  </si>
+  <si>
+    <t>No.24</t>
+  </si>
+  <si>
+    <t>度</t>
+  </si>
+  <si>
+    <t>たび</t>
+  </si>
+  <si>
+    <t>度重なる（たびかさなる）／度々（たびたび）</t>
+  </si>
+  <si>
+    <t>タク／ト／ド</t>
+  </si>
+  <si>
+    <t>度合い（どあい）／温度（おんど）</t>
+  </si>
+  <si>
+    <t>渡</t>
+  </si>
+  <si>
+    <t>わたす／わたる</t>
+  </si>
+  <si>
+    <t>大通りを渡す／渡るれぬ川はない／渡し船（わたしぶね）</t>
+  </si>
+  <si>
+    <t>渡航（とこう）／過渡期（かとき）</t>
+  </si>
+  <si>
+    <t>妬</t>
+  </si>
+  <si>
+    <t>ねたましい／ねたむ／やく／やける</t>
+  </si>
+  <si>
+    <t>妬ましい／妬む／妬く／妬ける</t>
+  </si>
+  <si>
+    <t>嫉妬（しっと）</t>
+  </si>
+  <si>
+    <t>端</t>
+  </si>
+  <si>
+    <t>は／はし／はた</t>
+  </si>
+  <si>
+    <t>端（は）／道の端を歩く（みちのはしをあるく）／井戸の端（いど）</t>
+  </si>
+  <si>
+    <t>端午（たんご）／末端（まったん）</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>みじかい</t>
+  </si>
+  <si>
+    <t>時計は針の長いほうは分をさし、短いほうは時をさす</t>
+  </si>
+  <si>
+    <t>短音（たんおん）／長短（ちょうたん）</t>
+  </si>
+  <si>
+    <t>段</t>
+  </si>
+  <si>
+    <t>いざという段になると／段ボール／段違い（だんちがい）</t>
+  </si>
+  <si>
+    <t>断</t>
+  </si>
+  <si>
+    <t>ことわる／たつ</t>
+  </si>
+  <si>
+    <t>断る／絆を断（裁）つ（きずなをたつ）</t>
+  </si>
+  <si>
+    <t>罪を断じる／断交（だんこう）／断絶（だんぜつ）</t>
+  </si>
+  <si>
+    <t>鍛</t>
+  </si>
+  <si>
+    <t>きたえる／かじ</t>
+  </si>
+  <si>
+    <t>腕を鍛える（うでをきたえる）／鍛冶屋（かじや）</t>
+  </si>
+  <si>
+    <t>鍛造（たんぞう）</t>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
+    <t>うずたかい</t>
+  </si>
+  <si>
+    <t>堆い</t>
+  </si>
+  <si>
+    <t>堆積（たいせき）／堆肥（たいひ）</t>
+  </si>
+  <si>
+    <t>対</t>
+  </si>
+  <si>
+    <t>タイ／ツイ</t>
+  </si>
+  <si>
+    <t>対案（たいあん）／対応（たいおう）／一対（いっつい）</t>
+  </si>
+  <si>
+    <t>隊</t>
+  </si>
+  <si>
+    <t>隊員（たいいん）／部隊（ぶたい）</t>
+  </si>
+  <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>たて</t>
+  </si>
+  <si>
+    <t>盾にする</t>
+  </si>
+  <si>
+    <t>矛盾（むじゅん）</t>
+  </si>
+  <si>
+    <t>鈍</t>
+  </si>
+  <si>
+    <t>にぶい／にぶる</t>
+  </si>
+  <si>
+    <t>頭が鈍い（あたまがにぶい）／視覚が鈍る（しかくがにぶる）</t>
+  </si>
+  <si>
+    <t>ドン</t>
+  </si>
+  <si>
+    <t>鈍角（どんかく）／愚鈍（ぐどん）</t>
+  </si>
+  <si>
+    <t>頓</t>
+  </si>
+  <si>
+    <t>とみに</t>
+  </si>
+  <si>
+    <t>トン</t>
+  </si>
+  <si>
+    <t>頓に（とみに）</t>
+  </si>
+  <si>
+    <t>頓狂（とんきょう）／頓珍漢（とんちんかん）</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>おおい</t>
+  </si>
+  <si>
+    <t>多い（おおい）</t>
+  </si>
+  <si>
+    <t>タ</t>
+  </si>
+  <si>
+    <t>多言（たげん）／多彩（たさい）</t>
+  </si>
+  <si>
+    <t>奪</t>
+  </si>
+  <si>
+    <t>うばう</t>
+  </si>
+  <si>
+    <t>発言権を奪う（はつげんけんをうばう）</t>
+  </si>
+  <si>
+    <t>ダツ</t>
+  </si>
+  <si>
+    <t>奪回（だっかい）／奪取（だっしゅ）</t>
+  </si>
+  <si>
+    <t>堕</t>
+  </si>
+  <si>
+    <t>堕する／堕胎（だたい）／堕落（だらく）</t>
+  </si>
+  <si>
+    <t>惰</t>
+  </si>
+  <si>
+    <t>惰弱（だじゃく）／惰眠（だみん）</t>
+  </si>
+  <si>
+    <t>駄</t>
+  </si>
+  <si>
+    <t>駄犬（だけん）／駄弁（だべん）／駄目（だめ）</t>
+  </si>
+  <si>
+    <t>額</t>
+  </si>
+  <si>
+    <t>ひたい</t>
+  </si>
+  <si>
+    <t>猫の額（ねこのひたい）</t>
+  </si>
+  <si>
+    <t>ガク</t>
+  </si>
+  <si>
+    <t>額面（がくめん）／金額（きんがく）／総額（そうがく）</t>
+  </si>
+  <si>
+    <t>厄</t>
+  </si>
+  <si>
+    <t>ヤク</t>
+  </si>
+  <si>
+    <t>厄落とし（やくおとし）／厄難（やくなん）</t>
+  </si>
+  <si>
+    <t>悪</t>
+  </si>
+  <si>
+    <t>わるい</t>
+  </si>
+  <si>
+    <t>アク／オ</t>
+  </si>
+  <si>
+    <t>景気が悪い（けいきがわるい）／悪気（わるぎ）</t>
+  </si>
+  <si>
+    <t>悪意（あくい）／罪悪（ざいあく）／好悪（こうお）</t>
+  </si>
+  <si>
+    <t>餓</t>
+  </si>
+  <si>
+    <t>ガ</t>
+  </si>
+  <si>
+    <t>餓鬼（がき）／飢餓（きが）</t>
+  </si>
+  <si>
+    <t>顎</t>
+  </si>
+  <si>
+    <t>あご</t>
+  </si>
+  <si>
+    <t>顎（あご）</t>
+  </si>
+  <si>
+    <t>上顎（じょうがく）／下顎（かがく）</t>
+  </si>
+  <si>
+    <t>恩</t>
+  </si>
+  <si>
+    <t>オン</t>
+  </si>
+  <si>
+    <t>恩愛（おんあい）／恩赦（おんしゃ）</t>
+  </si>
+  <si>
+    <t>児</t>
+  </si>
+  <si>
+    <t>ジ／ニ</t>
+  </si>
+  <si>
+    <t>児戯（じぎ）／児童（じどう）／小児科（しょうにか）</t>
+  </si>
+  <si>
+    <t>耳</t>
+  </si>
+  <si>
+    <t>みみ</t>
+  </si>
+  <si>
+    <t>耳に入れる（みみにいれる）／耳学問（みみがくもん）</t>
+  </si>
+  <si>
+    <t>耳鼻科（じびか）／耳目（じもく）</t>
+  </si>
+  <si>
+    <t>餌</t>
+  </si>
+  <si>
+    <t>え／えさ</t>
+  </si>
+  <si>
+    <t>餌食（えじき）／餌付け（えづけ）／餌（えさ）</t>
+  </si>
+  <si>
+    <t>食餌（しょくじ）</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>ふた／ふたつ</t>
+  </si>
+  <si>
+    <t>二つ／二日酔い（ふつかよい）</t>
+  </si>
+  <si>
+    <t>ニ</t>
+  </si>
+  <si>
+    <t>二酸化炭素（にさんかたんそ）</t>
   </si>
 </sst>
 </file>
@@ -3974,10 +4466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F318"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C319" sqref="C319"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="A361" sqref="A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3986,7 +4478,7 @@
     <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10350,6 +10842,866 @@
         <v>1203</v>
       </c>
     </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E319" t="s">
+        <v>933</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E321" t="s">
+        <v>933</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C324" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" t="s">
+        <v>13</v>
+      </c>
+      <c r="E324" t="s">
+        <v>933</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E325" t="s">
+        <v>933</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C327" t="s">
+        <v>13</v>
+      </c>
+      <c r="D327" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C328" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" t="s">
+        <v>13</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E336" t="s">
+        <v>980</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E337" t="s">
+        <v>980</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C338" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" t="s">
+        <v>13</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E340" t="s">
+        <v>980</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E341" t="s">
+        <v>953</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C342" t="s">
+        <v>13</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D343" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" t="s">
+        <v>953</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E344" t="s">
+        <v>839</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C349" t="s">
+        <v>13</v>
+      </c>
+      <c r="D349" t="s">
+        <v>13</v>
+      </c>
+      <c r="E349" t="s">
+        <v>945</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" t="s">
+        <v>13</v>
+      </c>
+      <c r="E350" t="s">
+        <v>945</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C351" t="s">
+        <v>13</v>
+      </c>
+      <c r="D351" t="s">
+        <v>13</v>
+      </c>
+      <c r="E351" t="s">
+        <v>945</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C353" t="s">
+        <v>13</v>
+      </c>
+      <c r="D353" t="s">
+        <v>13</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C355" t="s">
+        <v>13</v>
+      </c>
+      <c r="D355" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C357" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357" t="s">
+        <v>13</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C358" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" t="s">
+        <v>13</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E359" t="s">
+        <v>674</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E360" t="s">
+        <v>674</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C475EBF6-B7D3-410F-87EA-C230A1914EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92285BF4-433F-4833-B463-EA9DA66D9C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="1592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1647">
   <si>
     <t>List No.</t>
   </si>
@@ -4796,6 +4796,171 @@
   </si>
   <si>
     <t>No.2</t>
+  </si>
+  <si>
+    <t>敷</t>
+  </si>
+  <si>
+    <t>しく</t>
+  </si>
+  <si>
+    <t>座布団を敷く（ざぶとんをしく）／敷金（しききん）</t>
+  </si>
+  <si>
+    <t>敷設（ふせつ）＝布設</t>
+  </si>
+  <si>
+    <t>膚</t>
+  </si>
+  <si>
+    <t>はだ</t>
+  </si>
+  <si>
+    <t>膚（はだ）＝肌</t>
+  </si>
+  <si>
+    <t>皮膚（ひふ）／完膚（かんぷ）</t>
+  </si>
+  <si>
+    <t>払</t>
+  </si>
+  <si>
+    <t>はらう</t>
+  </si>
+  <si>
+    <t>敬意を払う（けいいをはらう）／払い込む（はらいこむ）</t>
+  </si>
+  <si>
+    <t>払暁（ふつぎょう）／払拭（ふっしょく）</t>
+  </si>
+  <si>
+    <t>伏</t>
+  </si>
+  <si>
+    <t>ふす／ふせる</t>
+  </si>
+  <si>
+    <t>草に伏す（くさにふす）／目を伏せる（めをふせる）</t>
+  </si>
+  <si>
+    <t>フク</t>
+  </si>
+  <si>
+    <t>権力に伏する／伏線（ふくせん）／潜伏（せんぷく）</t>
+  </si>
+  <si>
+    <t>扶</t>
+  </si>
+  <si>
+    <t>扶育（ふいく）／扶持（ふち）</t>
+  </si>
+  <si>
+    <t>服</t>
+  </si>
+  <si>
+    <t>服罪（ふくざい）／服地（ふくじ）／服する</t>
+  </si>
+  <si>
+    <t>浮</t>
+  </si>
+  <si>
+    <t>うかぶ／うかげる／うかれる／うく</t>
+  </si>
+  <si>
+    <t>浮かぶ／記憶に浮かべる／浮かれて歌う／歯が浮く</t>
+  </si>
+  <si>
+    <t>浮腫（ふしゅ）／浮薄（ふはく）／浮力（ふりょく）</t>
+  </si>
+  <si>
+    <t>符</t>
+  </si>
+  <si>
+    <t>符号（ふごう）／符丁（ふちょう）</t>
+  </si>
+  <si>
+    <t>幅</t>
+  </si>
+  <si>
+    <t>はば</t>
+  </si>
+  <si>
+    <t>幅広い（はばひろい）／幅がきく</t>
+  </si>
+  <si>
+    <t>幅員（ふくいん）／画幅（がふく）</t>
+  </si>
+  <si>
+    <t>福</t>
+  </si>
+  <si>
+    <t>福祉（ふくし）／祝福（しゅくふく）</t>
+  </si>
+  <si>
+    <t>府</t>
+  </si>
+  <si>
+    <t>府県（ふけん）／幕府（ばくふ）</t>
+  </si>
+  <si>
+    <t>釜</t>
+  </si>
+  <si>
+    <t>かま</t>
+  </si>
+  <si>
+    <t>釜飯（かまめし）／釜茹で（かまゆで）／茶釜（ちゃがま）</t>
+  </si>
+  <si>
+    <t>腐</t>
+  </si>
+  <si>
+    <t>くさらす／くさる／くされる</t>
+  </si>
+  <si>
+    <t>気を腐らす／牛乳が腐った（る）／腐れて勢力</t>
+  </si>
+  <si>
+    <t>腐朽（ふきゅう）／腐心（ふしん）／腐乱（ふらん）</t>
+  </si>
+  <si>
+    <t>縛</t>
+  </si>
+  <si>
+    <t>しばる</t>
+  </si>
+  <si>
+    <t>荷物を縄で縛る（にもつをなわでしばる）</t>
+  </si>
+  <si>
+    <t>No.30</t>
+  </si>
+  <si>
+    <t>父</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>父親（ちちおや）</t>
+  </si>
+  <si>
+    <t>岳父（がくふ）／祖父（そふ）</t>
+  </si>
+  <si>
+    <t>緊縛（きんばく）／束縛（そくばく）</t>
+  </si>
+  <si>
+    <t>付</t>
+  </si>
+  <si>
+    <t>つく／つける</t>
+  </si>
+  <si>
+    <t>泥がズボンに付く／棚を付ける</t>
+  </si>
+  <si>
+    <t>付加（ふか）／付図（ふず）</t>
   </si>
 </sst>
 </file>
@@ -5143,10 +5308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F422"/>
+  <dimension ref="A1:F438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13599,6 +13764,326 @@
         <v>1587</v>
       </c>
     </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E423" t="s">
+        <v>408</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E424" t="s">
+        <v>408</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F426" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C427" t="s">
+        <v>12</v>
+      </c>
+      <c r="D427" t="s">
+        <v>12</v>
+      </c>
+      <c r="E427" t="s">
+        <v>408</v>
+      </c>
+      <c r="F427" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C428" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" t="s">
+        <v>12</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E429" t="s">
+        <v>408</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C430" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430" t="s">
+        <v>12</v>
+      </c>
+      <c r="E430" t="s">
+        <v>408</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C432" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" t="s">
+        <v>12</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F432" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C433" t="s">
+        <v>12</v>
+      </c>
+      <c r="D433" t="s">
+        <v>12</v>
+      </c>
+      <c r="E433" t="s">
+        <v>408</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E434" t="s">
+        <v>408</v>
+      </c>
+      <c r="F434" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E435" t="s">
+        <v>408</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E436" t="s">
+        <v>191</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E437" t="s">
+        <v>408</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E438" t="s">
+        <v>408</v>
+      </c>
+      <c r="F438" t="s">
+        <v>1646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DD4516-5270-4182-A9EF-58C79162B33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF90280-2C54-4D7F-A22F-E29F412BBDD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLContents" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="2109">
   <si>
     <t>List No.</t>
   </si>
@@ -4789,9 +4789,6 @@
     <t>No.29</t>
   </si>
   <si>
-    <t>No.001</t>
-  </si>
-  <si>
     <t>No.1</t>
   </si>
   <si>
@@ -5924,13 +5921,439 @@
   </si>
   <si>
     <t>広域（こういき）／広漠（こうばく）</t>
+  </si>
+  <si>
+    <t>No.36</t>
+  </si>
+  <si>
+    <t>No.37</t>
+  </si>
+  <si>
+    <t>No.38</t>
+  </si>
+  <si>
+    <t>帰</t>
+  </si>
+  <si>
+    <t>キ</t>
+  </si>
+  <si>
+    <t>郷里に帰す（きょうりにかえす）／家に帰る（いえにかえる）</t>
+  </si>
+  <si>
+    <t>帰順（きじゅん）／帰納法（きのうほう）</t>
+  </si>
+  <si>
+    <t>規</t>
+  </si>
+  <si>
+    <t>規格（きかく）／規律（きりつ）</t>
+  </si>
+  <si>
+    <t>亀</t>
+  </si>
+  <si>
+    <t>かめ</t>
+  </si>
+  <si>
+    <t>亀田（かめだ）</t>
+  </si>
+  <si>
+    <t>亀甲（きっこう）／亀頭（きとう）</t>
+  </si>
+  <si>
+    <t>軌</t>
+  </si>
+  <si>
+    <t>軌跡（きせき）／軌道（きどう）</t>
+  </si>
+  <si>
+    <t>鬼</t>
+  </si>
+  <si>
+    <t>おに</t>
+  </si>
+  <si>
+    <t>鬼（おに）</t>
+  </si>
+  <si>
+    <t>鬼才（きさい）／鬼神（きじん）／鬼畜（きちく）</t>
+  </si>
+  <si>
+    <t>貴</t>
+  </si>
+  <si>
+    <t>たっとい／たっとぶ／とうとい／とうとぶ</t>
+  </si>
+  <si>
+    <t>貴いお方／親を貴ぶ／貴い教訓／名誉を貴ぶ</t>
+  </si>
+  <si>
+    <t>貴人（きじん）／貴重（きちょう）／富貴（ふうき）</t>
+  </si>
+  <si>
+    <t>郭</t>
+  </si>
+  <si>
+    <t>城郭（じょうかく）／輪郭（りんかく）</t>
+  </si>
+  <si>
+    <t>鍋</t>
+  </si>
+  <si>
+    <t>なべ</t>
+  </si>
+  <si>
+    <t>鍋蓋（なべぶた）／鍋底（なべぞこ）／鍋料理（なべりょうり）</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>国（くに）</t>
+  </si>
+  <si>
+    <t>国営（こくえい）／国家（こっか）／国歌（こっか）</t>
+  </si>
+  <si>
+    <t>果</t>
+  </si>
+  <si>
+    <t>はたす／はて／はてる</t>
+  </si>
+  <si>
+    <t>責任を果たす／果てのない話／息が果てる</t>
+  </si>
+  <si>
+    <t>果敢（かかん）／果実（かじつ）</t>
+  </si>
+  <si>
+    <t>菓</t>
+  </si>
+  <si>
+    <t>菓子（かし）／茶菓（さか／ちゃか）</t>
+  </si>
+  <si>
+    <t>過</t>
+  </si>
+  <si>
+    <t>あやまち／あやまつ／すぎる／すごす</t>
+  </si>
+  <si>
+    <t>過ち／過す／過ぎる／楽しい夏休み過ごす</t>
+  </si>
+  <si>
+    <t>過失（かしつ）／過渡期（かとき）／罪過（ざいか）</t>
+  </si>
+  <si>
+    <t>骸</t>
+  </si>
+  <si>
+    <t>むくろ</t>
+  </si>
+  <si>
+    <t>骸（むくろ）</t>
+  </si>
+  <si>
+    <t>骸骨（がいこつ）／遺骸（いがい）</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>うみ</t>
+  </si>
+  <si>
+    <t>海辺（うみべ）</t>
+  </si>
+  <si>
+    <t>海賊（かいぞく）／海洋（かいよう）</t>
+  </si>
+  <si>
+    <t>害</t>
+  </si>
+  <si>
+    <t>害する／害悪（がいあく）／危害（きがい）／害虫（がいちゅう）</t>
+  </si>
+  <si>
+    <t>含</t>
+  </si>
+  <si>
+    <t>ふくむ／ふくめる</t>
+  </si>
+  <si>
+    <t>恨みを含む（うらみをふくむ）／スポンジに水を含める（みずをふくめる）</t>
+  </si>
+  <si>
+    <t>含羞（がんしゅう）／含蓄（がんちく）／包含（ほうがん）</t>
+  </si>
+  <si>
+    <t>寒</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>寒い（さむい）／寒気（さむけ）</t>
+  </si>
+  <si>
+    <t>寒色（かんしょく）／寒帯（かんたい）</t>
+  </si>
+  <si>
+    <t>韓</t>
+  </si>
+  <si>
+    <t>韓国（かんこく）／日韓（にっかん）</t>
+  </si>
+  <si>
+    <t>汗</t>
+  </si>
+  <si>
+    <t>あせ</t>
+  </si>
+  <si>
+    <t>汗臭い（あせくさい）／汗ばむ（あせばむ）／汗水（あせみず）</t>
+  </si>
+  <si>
+    <t>汗顔（かんがん）／汗腺（かんせん）／冷汗（れいかん）</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>漢音（かんおん）／漢学（かんかく）／門外漢（もんがいかん）</t>
+  </si>
+  <si>
+    <t>憾</t>
+  </si>
+  <si>
+    <t>遺憾（いかん）</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>いく／おこなう／ゆく</t>
+  </si>
+  <si>
+    <t>行く／思い切って改革を行う／納得が行く／行方不明（ゆくかたふめい）</t>
+  </si>
+  <si>
+    <t>アン／ギョウ／コウ</t>
+  </si>
+  <si>
+    <t>行脚（あんぎゃ）／行政区（ぎょうせいく）／飛行機（ひこうき）</t>
+  </si>
+  <si>
+    <t>航</t>
+  </si>
+  <si>
+    <t>航海（こうかい）／航跡（こうせき）／航路（こうろ）</t>
+  </si>
+  <si>
+    <t>豪</t>
+  </si>
+  <si>
+    <t>豪雨（ごうう）／豪華（ごうか）／豪傑（ごうけつ）</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>スポーツを好む／好きなのをとる／好く</t>
+  </si>
+  <si>
+    <t>このむ／すき／すく／よい</t>
+  </si>
+  <si>
+    <t>好感（こうかん）／好運（こううん）</t>
+  </si>
+  <si>
+    <t>号</t>
+  </si>
+  <si>
+    <t>号外（ごうがい）／号令（ごうれい）／番号（ばんごう）</t>
+  </si>
+  <si>
+    <t>耗</t>
+  </si>
+  <si>
+    <t>コウ／モウ</t>
+  </si>
+  <si>
+    <t>耗散（こうさん）／消耗品（しょうもうひん）／損耗（そんもう）</t>
+  </si>
+  <si>
+    <t>喝</t>
+  </si>
+  <si>
+    <t>大喝（だいかつ）／喝采（かっさい）</t>
+  </si>
+  <si>
+    <t>合</t>
+  </si>
+  <si>
+    <t>あう／あわす／あわせる</t>
+  </si>
+  <si>
+    <t>気が合う（きがあう）／合わす／心を一つにして力を合わせる</t>
+  </si>
+  <si>
+    <t>カッ／ガッ／ゴウ</t>
+  </si>
+  <si>
+    <t>合切（がっさい）／合唱（がっしょう）／合計（ごうけい）</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>なに／なん</t>
+  </si>
+  <si>
+    <t>何事（なにごと）／何月（なんげつ）</t>
+  </si>
+  <si>
+    <t>幾何（きか）</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>あえる／なごむ／なごやか／やわらぐ／やわらげる</t>
+  </si>
+  <si>
+    <t>みそで和える／和むんだ目を投げる／風和やかに／態度が和らぐ／和らげる</t>
+  </si>
+  <si>
+    <t>オ／ワ</t>
+  </si>
+  <si>
+    <t>和英辞典（わえいじてん）／和菓子（わがし）／和風（わふう）</t>
+  </si>
+  <si>
+    <t>劾</t>
+  </si>
+  <si>
+    <t>弾劾（だんがい）</t>
+  </si>
+  <si>
+    <t>河</t>
+  </si>
+  <si>
+    <t>河辺（かわべ）</t>
+  </si>
+  <si>
+    <t>河口（かこう）／河床（かし）／山河（さんが）</t>
+  </si>
+  <si>
+    <t>荷</t>
+  </si>
+  <si>
+    <t>に</t>
+  </si>
+  <si>
+    <t>荷揚げ（にあげ）／荷扱い（にあつかい）／荷造り（にづくり）</t>
+  </si>
+  <si>
+    <t>荷重（かじゅう）／荷電（かでん）</t>
+  </si>
+  <si>
+    <t>核</t>
+  </si>
+  <si>
+    <t>核家族（かくかぞく）／核兵器（かくへいき）／地核（ちかく）</t>
+  </si>
+  <si>
+    <t>賀</t>
+  </si>
+  <si>
+    <t>賀宴（がえん）／祝賀会（しゅくがかい）</t>
+  </si>
+  <si>
+    <t>褐</t>
+  </si>
+  <si>
+    <t>褐色（かっしょく）／褐炭（かったん）</t>
+  </si>
+  <si>
+    <t>鶴</t>
+  </si>
+  <si>
+    <t>鶴亀（つるかめ）／鶴嘴（つるはし）／折り鶴（おりづる）</t>
+  </si>
+  <si>
+    <t>鶴首（かくしゅ）</t>
+  </si>
+  <si>
+    <t>黒</t>
+  </si>
+  <si>
+    <t>くろ／くろい</t>
+  </si>
+  <si>
+    <t>黒髪（くろかみ）／黒雲（くろくも）／腹が黒い（はらがくろい）</t>
+  </si>
+  <si>
+    <t>黒煙（こくえん）／黒竜江（こくりゅうこう）</t>
+  </si>
+  <si>
+    <t>痕</t>
+  </si>
+  <si>
+    <t>あと</t>
+  </si>
+  <si>
+    <t>爪痕（つめあと）</t>
+  </si>
+  <si>
+    <t>痕跡（こんせき）／傷痕（しょうこん）</t>
+  </si>
+  <si>
+    <t>恨</t>
+  </si>
+  <si>
+    <t>うらむ／うらめしい</t>
+  </si>
+  <si>
+    <t>恨む／恨めしい</t>
+  </si>
+  <si>
+    <t>怨恨（えんこん）／悔恨（かいこん）</t>
+  </si>
+  <si>
+    <t>恒</t>
+  </si>
+  <si>
+    <t>恒温（こうおん）／恒心（こうしん）／恒星（こうせい）</t>
+  </si>
+  <si>
+    <t>桁</t>
+  </si>
+  <si>
+    <t>けた</t>
+  </si>
+  <si>
+    <t>桁違い（けたちがい）／桁外れ（けたはずれ）</t>
+  </si>
+  <si>
+    <t>横</t>
+  </si>
+  <si>
+    <t>よこ</t>
+  </si>
+  <si>
+    <t>横雨（よこあめ）／横切る（よこぎる）／横倒し（よこだおし）</t>
+  </si>
+  <si>
+    <t>横断歩道（おうだんほどう）／横道（おうどう）／縦横（じゅうおう）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5941,6 +6364,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6271,20 +6700,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F527"/>
+  <dimension ref="A1:F571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A529" sqref="A529"/>
+    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
+      <selection activeCell="F572" sqref="F572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -6350,7 +6779,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -6370,7 +6799,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -6390,7 +6819,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -6410,7 +6839,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -6430,7 +6859,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -6450,7 +6879,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
@@ -6470,7 +6899,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -6490,7 +6919,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>37</v>
@@ -6510,7 +6939,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
@@ -6530,7 +6959,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>46</v>
@@ -6550,7 +6979,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>48</v>
@@ -6570,7 +6999,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
@@ -6590,7 +7019,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -6610,7 +7039,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
@@ -6630,7 +7059,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>66</v>
@@ -6650,7 +7079,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>69</v>
@@ -6670,7 +7099,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>71</v>
@@ -6690,7 +7119,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>76</v>
@@ -6710,7 +7139,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>79</v>
@@ -6730,7 +7159,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>84</v>
@@ -6750,7 +7179,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>89</v>
@@ -6770,7 +7199,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>93</v>
@@ -6790,7 +7219,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>96</v>
@@ -6810,7 +7239,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>98</v>
@@ -6830,7 +7259,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>102</v>
@@ -6850,7 +7279,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>104</v>
@@ -6870,7 +7299,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>106</v>
@@ -6890,7 +7319,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>110</v>
@@ -14733,19 +15162,19 @@
         <v>1588</v>
       </c>
       <c r="B423" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C423" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="C423" s="1" t="s">
+      <c r="D423" s="1" t="s">
         <v>1593</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>1594</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -14753,19 +15182,19 @@
         <v>1588</v>
       </c>
       <c r="B424" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C424" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C424" s="1" t="s">
+      <c r="D424" s="1" t="s">
         <v>1597</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>1598</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -14773,19 +15202,19 @@
         <v>1588</v>
       </c>
       <c r="B425" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="C425" s="1" t="s">
+      <c r="D425" s="1" t="s">
         <v>1601</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>1602</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>1506</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -14793,19 +15222,19 @@
         <v>1588</v>
       </c>
       <c r="B426" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="C426" s="1" t="s">
+      <c r="D426" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="D426" s="1" t="s">
+      <c r="E426" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="E426" s="1" t="s">
+      <c r="F426" s="1" t="s">
         <v>1607</v>
-      </c>
-      <c r="F426" s="1" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -14813,7 +15242,7 @@
         <v>1588</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>12</v>
@@ -14825,7 +15254,7 @@
         <v>408</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -14833,19 +15262,19 @@
         <v>1588</v>
       </c>
       <c r="B428" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F428" s="1" t="s">
         <v>1611</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E428" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F428" s="1" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -14853,19 +15282,19 @@
         <v>1588</v>
       </c>
       <c r="B429" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="C429" s="1" t="s">
+      <c r="D429" s="1" t="s">
         <v>1614</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>1615</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -14873,7 +15302,7 @@
         <v>1588</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>12</v>
@@ -14885,7 +15314,7 @@
         <v>408</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -14893,19 +15322,19 @@
         <v>1588</v>
       </c>
       <c r="B431" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="D431" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="D431" s="1" t="s">
+      <c r="E431" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F431" s="1" t="s">
         <v>1621</v>
-      </c>
-      <c r="E431" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F431" s="1" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -14913,19 +15342,19 @@
         <v>1588</v>
       </c>
       <c r="B432" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F432" s="1" t="s">
         <v>1623</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -14933,7 +15362,7 @@
         <v>1588</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>12</v>
@@ -14945,7 +15374,7 @@
         <v>408</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -14953,13 +15382,13 @@
         <v>1588</v>
       </c>
       <c r="B434" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="C434" s="1" t="s">
+      <c r="D434" s="1" t="s">
         <v>1628</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>1629</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>408</v>
@@ -14973,19 +15402,19 @@
         <v>1588</v>
       </c>
       <c r="B435" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="D435" s="1" t="s">
         <v>1631</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>1632</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -14993,67 +15422,67 @@
         <v>1588</v>
       </c>
       <c r="B436" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="D436" s="1" t="s">
         <v>1635</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>1636</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="C437" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="D437" s="1" t="s">
         <v>1639</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>1640</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B438" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C438" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="C438" s="1" t="s">
+      <c r="D438" s="1" t="s">
         <v>1644</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>1645</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>12</v>
@@ -15065,75 +15494,75 @@
         <v>408</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B440" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="C440" s="1" t="s">
-        <v>1650</v>
-      </c>
       <c r="D440" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B441" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="D441" s="1" t="s">
         <v>1654</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>1655</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B442" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="C442" s="1" t="s">
+      <c r="D442" s="1" t="s">
         <v>1658</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>1659</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>12</v>
@@ -15145,115 +15574,115 @@
         <v>408</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B444" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F444" s="1" t="s">
         <v>1663</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E444" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F444" s="1" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B445" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F445" s="1" t="s">
         <v>1665</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E445" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F445" s="1" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B446" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="C446" s="1" t="s">
+      <c r="D446" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="D446" s="1" t="s">
+      <c r="E446" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="E446" s="1" t="s">
+      <c r="F446" s="1" t="s">
         <v>1670</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B447" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="C447" s="1" t="s">
+      <c r="D447" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="D447" s="1" t="s">
+      <c r="E447" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F447" s="1" t="s">
         <v>1674</v>
-      </c>
-      <c r="E447" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B448" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F448" s="1" t="s">
         <v>1676</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F448" s="1" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>12</v>
@@ -15265,295 +15694,295 @@
         <v>408</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B450" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="C450" s="1" t="s">
+      <c r="D450" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="D450" s="1" t="s">
+      <c r="E450" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F450" s="1" t="s">
         <v>1682</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B451" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E451" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="C451" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E451" s="1" t="s">
+      <c r="F451" s="1" t="s">
         <v>1685</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="C452" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="C452" s="1" t="s">
+      <c r="D452" s="1" t="s">
         <v>1689</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>1690</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B453" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C453" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="C453" s="1" t="s">
+      <c r="D453" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F453" s="1" t="s">
         <v>1693</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E453" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B454" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="C454" s="1" t="s">
+      <c r="D454" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="D454" s="1" t="s">
+      <c r="E454" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F454" s="1" t="s">
         <v>1702</v>
-      </c>
-      <c r="E454" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="F454" s="1" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B455" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C455" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="C455" s="1" t="s">
+      <c r="D455" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="D455" s="1" t="s">
+      <c r="E455" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="E455" s="1" t="s">
-        <v>1707</v>
-      </c>
       <c r="F455" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B456" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="C456" s="1" t="s">
+      <c r="D456" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="D456" s="1" t="s">
-        <v>1710</v>
-      </c>
       <c r="E456" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B457" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="C457" s="1" t="s">
+      <c r="D457" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="D457" s="1" t="s">
+      <c r="E457" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F457" s="1" t="s">
         <v>1715</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F457" s="1" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B458" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="C458" s="1" t="s">
+      <c r="D458" s="1" t="s">
         <v>1718</v>
       </c>
-      <c r="D458" s="1" t="s">
+      <c r="E458" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="E458" s="1" t="s">
+      <c r="F458" s="1" t="s">
         <v>1720</v>
-      </c>
-      <c r="F458" s="1" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B459" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E459" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="C459" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E459" s="1" t="s">
+      <c r="F459" s="1" t="s">
         <v>1723</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B460" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="C460" s="1" t="s">
+      <c r="D460" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="D460" s="1" t="s">
+      <c r="E460" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F460" s="1" t="s">
         <v>1727</v>
-      </c>
-      <c r="E460" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F460" s="1" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B461" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F461" s="1" t="s">
         <v>1729</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E461" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B462" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="C462" s="1" t="s">
+      <c r="D462" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="D462" s="1" t="s">
+      <c r="E462" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F462" s="1" t="s">
         <v>1733</v>
-      </c>
-      <c r="E462" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F462" s="1" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B463" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D463" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="C463" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D463" s="1" t="s">
+      <c r="E463" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="E463" s="1" t="s">
-        <v>1737</v>
-      </c>
       <c r="F463" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>12</v>
@@ -15565,981 +15994,981 @@
         <v>51</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B465" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="C465" s="1" t="s">
+      <c r="D465" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="D465" s="1" t="s">
+      <c r="E465" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F465" s="1" t="s">
         <v>1743</v>
-      </c>
-      <c r="E465" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F465" s="1" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B466" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="D466" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="D466" s="1" t="s">
+      <c r="E466" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F466" s="1" t="s">
         <v>1747</v>
-      </c>
-      <c r="E466" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B467" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="C467" s="1" t="s">
+      <c r="D467" s="1" t="s">
         <v>1750</v>
       </c>
-      <c r="D467" s="1" t="s">
+      <c r="E467" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F467" s="1" t="s">
         <v>1751</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B468" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="C468" s="1" t="s">
+      <c r="D468" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="D468" s="1" t="s">
+      <c r="E468" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F468" s="1" t="s">
         <v>1755</v>
-      </c>
-      <c r="E468" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F468" s="1" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B469" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F469" s="1" t="s">
         <v>1757</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D469" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E469" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F469" s="1" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B470" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="C470" s="1" t="s">
+      <c r="D470" s="1" t="s">
         <v>1760</v>
       </c>
-      <c r="D470" s="1" t="s">
+      <c r="E470" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="E470" s="1" t="s">
+      <c r="F470" s="1" t="s">
         <v>1762</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B471" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="C471" s="1" t="s">
+      <c r="D471" s="1" t="s">
         <v>1765</v>
       </c>
-      <c r="D471" s="1" t="s">
+      <c r="E471" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="E471" s="1" t="s">
+      <c r="F471" s="1" t="s">
         <v>1767</v>
-      </c>
-      <c r="F471" s="1" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D472" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E472" s="1" t="s">
         <v>1770</v>
       </c>
-      <c r="E472" s="1" t="s">
+      <c r="F472" s="1" t="s">
         <v>1771</v>
-      </c>
-      <c r="F472" s="1" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>785</v>
       </c>
       <c r="D473" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F473" s="1" t="s">
         <v>1775</v>
-      </c>
-      <c r="E473" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F473" s="1" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B474" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E474" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="C474" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E474" s="1" t="s">
-        <v>1778</v>
-      </c>
       <c r="F474" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C475" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D475" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="D475" s="1" t="s">
+      <c r="E475" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F475" s="1" t="s">
         <v>1782</v>
-      </c>
-      <c r="E475" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B476" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="C476" s="1" t="s">
+      <c r="D476" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="D476" s="1" t="s">
+      <c r="E476" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F476" s="1" t="s">
         <v>1786</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F476" s="1" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B477" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F477" s="1" t="s">
         <v>1788</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D477" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B478" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="C478" s="1" t="s">
+      <c r="D478" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="D478" s="1" t="s">
+      <c r="E478" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F478" s="1" t="s">
         <v>1792</v>
-      </c>
-      <c r="E478" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B479" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E479" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="C479" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E479" s="1" t="s">
+      <c r="F479" s="1" t="s">
         <v>1795</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B480" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F480" s="1" t="s">
         <v>1797</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D480" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E480" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F480" s="1" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B481" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E481" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="C481" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D481" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E481" s="1" t="s">
+      <c r="F481" s="1" t="s">
         <v>1800</v>
-      </c>
-      <c r="F481" s="1" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B482" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C482" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="C482" s="1" t="s">
+      <c r="D482" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="D482" s="1" t="s">
+      <c r="E482" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F482" s="1" t="s">
         <v>1804</v>
-      </c>
-      <c r="E482" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F482" s="1" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B483" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="C483" s="1" t="s">
+      <c r="D483" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="D483" s="1" t="s">
+      <c r="E483" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F483" s="1" t="s">
         <v>1808</v>
-      </c>
-      <c r="E483" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F483" s="1" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B484" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E484" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="C484" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D484" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E484" s="1" t="s">
+      <c r="F484" s="1" t="s">
         <v>1811</v>
-      </c>
-      <c r="F484" s="1" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B485" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C485" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="C485" s="1" t="s">
+      <c r="D485" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="D485" s="1" t="s">
+      <c r="E485" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F485" s="1" t="s">
         <v>1815</v>
-      </c>
-      <c r="E485" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F485" s="1" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B486" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E486" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="C486" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D486" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E486" s="1" t="s">
+      <c r="F486" s="1" t="s">
         <v>1818</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B487" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C487" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="C487" s="1" t="s">
+      <c r="D487" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="D487" s="1" t="s">
+      <c r="E487" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F487" s="1" t="s">
         <v>1822</v>
-      </c>
-      <c r="E487" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F487" s="1" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B488" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C488" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="C488" s="1" t="s">
+      <c r="D488" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="D488" s="1" t="s">
+      <c r="E488" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F488" s="1" t="s">
         <v>1826</v>
-      </c>
-      <c r="E488" s="1" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B489" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F489" s="1" t="s">
         <v>1828</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D489" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E489" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B490" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C490" s="1" t="s">
         <v>1830</v>
       </c>
-      <c r="C490" s="1" t="s">
+      <c r="D490" s="1" t="s">
         <v>1831</v>
       </c>
-      <c r="D490" s="1" t="s">
+      <c r="E490" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F490" s="1" t="s">
         <v>1832</v>
-      </c>
-      <c r="E490" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F490" s="1" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B491" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C491" s="1" t="s">
         <v>1834</v>
       </c>
-      <c r="C491" s="1" t="s">
+      <c r="D491" s="1" t="s">
         <v>1835</v>
       </c>
-      <c r="D491" s="1" t="s">
+      <c r="E491" s="1" t="s">
         <v>1836</v>
       </c>
-      <c r="E491" s="1" t="s">
+      <c r="F491" s="1" t="s">
         <v>1837</v>
-      </c>
-      <c r="F491" s="1" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B492" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C492" s="1" t="s">
         <v>1839</v>
       </c>
-      <c r="C492" s="1" t="s">
+      <c r="D492" s="1" t="s">
         <v>1840</v>
       </c>
-      <c r="D492" s="1" t="s">
+      <c r="E492" s="1" t="s">
         <v>1841</v>
       </c>
-      <c r="E492" s="1" t="s">
+      <c r="F492" s="1" t="s">
         <v>1842</v>
-      </c>
-      <c r="F492" s="1" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B493" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C493" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="C493" s="1" t="s">
+      <c r="D493" s="1" t="s">
         <v>1845</v>
       </c>
-      <c r="D493" s="1" t="s">
+      <c r="E493" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="E493" s="1" t="s">
+      <c r="F493" s="1" t="s">
         <v>1847</v>
-      </c>
-      <c r="F493" s="1" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B494" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C494" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="C494" s="1" t="s">
+      <c r="D494" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="D494" s="1" t="s">
+      <c r="E494" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F494" s="1" t="s">
         <v>1851</v>
-      </c>
-      <c r="E494" s="1" t="s">
-        <v>1842</v>
-      </c>
-      <c r="F494" s="1" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B495" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="D495" s="1" t="s">
         <v>1854</v>
       </c>
-      <c r="D495" s="1" t="s">
+      <c r="E495" s="1" t="s">
         <v>1855</v>
       </c>
-      <c r="E495" s="1" t="s">
+      <c r="F495" s="1" t="s">
         <v>1856</v>
-      </c>
-      <c r="F495" s="1" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B496" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C496" s="1" t="s">
         <v>1858</v>
       </c>
-      <c r="C496" s="1" t="s">
+      <c r="D496" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="D496" s="1" t="s">
+      <c r="E496" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F496" s="1" t="s">
         <v>1860</v>
-      </c>
-      <c r="E496" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F496" s="1" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B497" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C497" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="C497" s="1" t="s">
+      <c r="D497" s="1" t="s">
         <v>1863</v>
       </c>
-      <c r="D497" s="1" t="s">
+      <c r="E497" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F497" s="1" t="s">
         <v>1864</v>
-      </c>
-      <c r="E497" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F497" s="1" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B498" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C498" s="1" t="s">
         <v>1866</v>
       </c>
-      <c r="C498" s="1" t="s">
+      <c r="D498" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F498" s="1" t="s">
         <v>1867</v>
-      </c>
-      <c r="D498" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E498" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F498" s="1" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B499" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F499" s="1" t="s">
         <v>1870</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D499" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E499" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F499" s="1" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B500" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F500" s="1" t="s">
         <v>1872</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D500" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E500" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F500" s="1" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B501" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C501" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="C501" s="1" t="s">
+      <c r="D501" s="1" t="s">
         <v>1875</v>
       </c>
-      <c r="D501" s="1" t="s">
+      <c r="E501" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F501" s="1" t="s">
         <v>1876</v>
-      </c>
-      <c r="E501" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F501" s="1" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B502" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C502" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="C502" s="1" t="s">
+      <c r="D502" s="1" t="s">
         <v>1879</v>
       </c>
-      <c r="D502" s="1" t="s">
+      <c r="E502" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F502" s="1" t="s">
         <v>1880</v>
-      </c>
-      <c r="E502" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F502" s="1" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B503" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C503" s="1" t="s">
         <v>1882</v>
       </c>
-      <c r="C503" s="1" t="s">
+      <c r="D503" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="D503" s="1" t="s">
+      <c r="E503" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F503" s="1" t="s">
         <v>1884</v>
-      </c>
-      <c r="E503" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F503" s="1" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B504" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C504" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="C504" s="1" t="s">
+      <c r="D504" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="D504" s="1" t="s">
+      <c r="E504" s="1" t="s">
         <v>1888</v>
       </c>
-      <c r="E504" s="1" t="s">
+      <c r="F504" s="1" t="s">
         <v>1889</v>
-      </c>
-      <c r="F504" s="1" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B505" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C505" s="1" t="s">
         <v>1891</v>
       </c>
-      <c r="C505" s="1" t="s">
+      <c r="D505" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="D505" s="1" t="s">
+      <c r="E505" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F505" s="1" t="s">
         <v>1893</v>
-      </c>
-      <c r="E505" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F505" s="1" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B506" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F506" s="1" t="s">
         <v>1895</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D506" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E506" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F506" s="1" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B507" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C507" s="1" t="s">
         <v>1897</v>
       </c>
-      <c r="C507" s="1" t="s">
+      <c r="D507" s="1" t="s">
         <v>1898</v>
       </c>
-      <c r="D507" s="1" t="s">
+      <c r="E507" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F507" s="1" t="s">
         <v>1899</v>
-      </c>
-      <c r="E507" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F507" s="1" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B508" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C508" s="1" t="s">
         <v>1901</v>
       </c>
-      <c r="C508" s="1" t="s">
+      <c r="D508" s="1" t="s">
         <v>1902</v>
       </c>
-      <c r="D508" s="1" t="s">
+      <c r="E508" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F508" s="1" t="s">
         <v>1903</v>
-      </c>
-      <c r="E508" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F508" s="1" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B509" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C509" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="C509" s="1" t="s">
+      <c r="D509" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="D509" s="1" t="s">
+      <c r="E509" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F509" s="1" t="s">
         <v>1907</v>
-      </c>
-      <c r="E509" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F509" s="1" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B510" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F510" s="1" t="s">
         <v>1909</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D510" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E510" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F510" s="1" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B511" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C511" s="1" t="s">
         <v>1911</v>
       </c>
-      <c r="C511" s="1" t="s">
+      <c r="D511" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="D511" s="1" t="s">
+      <c r="E511" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F511" s="1" t="s">
         <v>1913</v>
-      </c>
-      <c r="E511" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F511" s="1" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B512" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F512" s="1" t="s">
         <v>1915</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D512" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F512" s="1" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B513" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C513" s="1" t="s">
         <v>1917</v>
       </c>
-      <c r="C513" s="1" t="s">
+      <c r="D513" s="1" t="s">
         <v>1918</v>
-      </c>
-      <c r="D513" s="1" t="s">
-        <v>1919</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>12</v>
@@ -16550,10 +16979,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>12</v>
@@ -16565,270 +16994,1151 @@
         <v>213</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B515" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C515" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="C515" s="1" t="s">
+      <c r="D515" s="1" t="s">
         <v>1923</v>
-      </c>
-      <c r="D515" s="1" t="s">
-        <v>1924</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B516" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F516" s="1" t="s">
         <v>1926</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D516" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E516" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F516" s="1" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B517" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C517" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="C517" s="1" t="s">
+      <c r="D517" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="D517" s="1" t="s">
+      <c r="E517" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F517" s="1" t="s">
         <v>1930</v>
-      </c>
-      <c r="E517" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F517" s="1" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B518" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C518" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="C518" s="1" t="s">
+      <c r="D518" s="1" t="s">
         <v>1933</v>
       </c>
-      <c r="D518" s="1" t="s">
+      <c r="E518" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F518" s="1" t="s">
         <v>1934</v>
-      </c>
-      <c r="E518" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F518" s="1" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B519" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C519" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="C519" s="1" t="s">
+      <c r="D519" s="1" t="s">
         <v>1937</v>
       </c>
-      <c r="D519" s="1" t="s">
+      <c r="E519" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F519" s="1" t="s">
         <v>1938</v>
-      </c>
-      <c r="E519" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F519" s="1" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B520" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F520" s="1" t="s">
         <v>1940</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D520" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E520" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F520" s="1" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B521" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C521" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="C521" s="1" t="s">
+      <c r="D521" s="1" t="s">
         <v>1943</v>
       </c>
-      <c r="D521" s="1" t="s">
+      <c r="E521" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F521" s="1" t="s">
         <v>1944</v>
-      </c>
-      <c r="E521" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F521" s="1" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B522" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C522" s="1" t="s">
         <v>1946</v>
       </c>
-      <c r="C522" s="1" t="s">
+      <c r="D522" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="D522" s="1" t="s">
+      <c r="E522" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F522" s="1" t="s">
         <v>1948</v>
-      </c>
-      <c r="E522" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F522" s="1" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B523" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F523" s="1" t="s">
         <v>1950</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D523" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E523" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F523" s="1" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B524" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C524" s="1" t="s">
         <v>1952</v>
       </c>
-      <c r="C524" s="1" t="s">
+      <c r="D524" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="D524" s="1" t="s">
+      <c r="E524" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F524" s="1" t="s">
         <v>1954</v>
-      </c>
-      <c r="E524" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F524" s="1" t="s">
-        <v>1955</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B525" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C525" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="C525" s="1" t="s">
+      <c r="D525" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="D525" s="1" t="s">
+      <c r="E525" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F525" s="1" t="s">
         <v>1958</v>
-      </c>
-      <c r="E525" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F525" s="1" t="s">
-        <v>1959</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B526" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C526" s="1" t="s">
         <v>1960</v>
       </c>
-      <c r="C526" s="1" t="s">
+      <c r="D526" s="1" t="s">
         <v>1961</v>
       </c>
-      <c r="D526" s="1" t="s">
+      <c r="E526" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F526" s="1" t="s">
         <v>1962</v>
-      </c>
-      <c r="E526" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F526" s="1" t="s">
-        <v>1963</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
-        <v>1699</v>
+        <v>1967</v>
       </c>
       <c r="B527" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C527" s="1" t="s">
         <v>1964</v>
       </c>
-      <c r="C527" s="1" t="s">
+      <c r="D527" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="D527" s="1" t="s">
+      <c r="E527" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F527" s="1" t="s">
         <v>1966</v>
       </c>
-      <c r="E527" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F527" s="1" t="s">
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
         <v>1967</v>
       </c>
+      <c r="B528" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A548" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A550" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A551" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A552" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A563" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A566" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A568" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A569" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A571" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>2108</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF90280-2C54-4D7F-A22F-E29F412BBDD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35B64D-3B6B-4719-871B-D2C264B2B8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="2109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="2219">
   <si>
     <t>List No.</t>
   </si>
@@ -6347,6 +6347,336 @@
   </si>
   <si>
     <t>横断歩道（おうだんほどう）／横道（おうどう）／縦横（じゅうおう）</t>
+  </si>
+  <si>
+    <t>No.39</t>
+  </si>
+  <si>
+    <t>No.40</t>
+  </si>
+  <si>
+    <t>衡</t>
+  </si>
+  <si>
+    <t>均衡（きんこう）／平衡（へいこう）／度量衡（どりょうこう）</t>
+  </si>
+  <si>
+    <t>虹</t>
+  </si>
+  <si>
+    <t>にじ</t>
+  </si>
+  <si>
+    <t>虹（にじ）</t>
+  </si>
+  <si>
+    <t>虹彩（こうさい）</t>
+  </si>
+  <si>
+    <t>洪</t>
+  </si>
+  <si>
+    <t>洪水（こうずい）</t>
+  </si>
+  <si>
+    <t>紅</t>
+  </si>
+  <si>
+    <t>くれない／べに</t>
+  </si>
+  <si>
+    <t>紅（くれない）／紅花（べにばな）</t>
+  </si>
+  <si>
+    <t>紅茶（こうちゃ）／紅葉（こうよう／もみじ）</t>
+  </si>
+  <si>
+    <t>侯</t>
+  </si>
+  <si>
+    <t>侯爵（こうしゃく）／諸侯（しょこう）</t>
+  </si>
+  <si>
+    <t>喉</t>
+  </si>
+  <si>
+    <t>のど</t>
+  </si>
+  <si>
+    <t>喉（のど）／喉越し（のどごし）／喉笛（のどぶえ）</t>
+  </si>
+  <si>
+    <t>喉頭（こうとう）</t>
+  </si>
+  <si>
+    <t>后</t>
+  </si>
+  <si>
+    <t>后妃（こうひ）／皇太后（こうたいごう）</t>
+  </si>
+  <si>
+    <t>厚</t>
+  </si>
+  <si>
+    <t>厚い／厚着（あつぎ）／厚化粧（あつげしょう）</t>
+  </si>
+  <si>
+    <t>厚生（こうせい）／厚薄（こうはく）／濃厚（のうこう）</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>あと／うしろ／おくれる／のち</t>
+  </si>
+  <si>
+    <t>後味（あとあじ）／後ろ／情勢に後れる／後に（のちに／後で（あとで）</t>
+  </si>
+  <si>
+    <t>後顧の憂い（こうこのうれい）／後嗣（こうし）／後世（ごせ）</t>
+  </si>
+  <si>
+    <t>候</t>
+  </si>
+  <si>
+    <t>候補（こうほ）／気候（きこう）／時候（じこう）</t>
+  </si>
+  <si>
+    <t>呼</t>
+  </si>
+  <si>
+    <t>よぶ</t>
+  </si>
+  <si>
+    <t>人気を呼ぶ（にんきをよぶ）／呼び起こす（よびおこす）</t>
+  </si>
+  <si>
+    <t>呼吸（こきゅう）／歓呼（かんこ）／称呼（しょうこ）</t>
+  </si>
+  <si>
+    <t>弧</t>
+  </si>
+  <si>
+    <t>弧線（こせん）／弧度（こど）／括弧（かっこ）</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>みずうみ</t>
+  </si>
+  <si>
+    <t>湖（みずうみ）</t>
+  </si>
+  <si>
+    <t>湖沼（こしょう）／湖水（こすい）／湖面（こめん）</t>
+  </si>
+  <si>
+    <t>虎</t>
+  </si>
+  <si>
+    <t>とら</t>
+  </si>
+  <si>
+    <t>虎の子（とらのこ）</t>
+  </si>
+  <si>
+    <t>虎視眈々（こしたんたん）／虎穴（こけつ）</t>
+  </si>
+  <si>
+    <t>戸</t>
+  </si>
+  <si>
+    <t>と</t>
+  </si>
+  <si>
+    <t>戸締り（とじまり）／戸棚（とだな）</t>
+  </si>
+  <si>
+    <t>戸外（こがい）／戸別（こべつ）／門戸（もんこ）</t>
+  </si>
+  <si>
+    <t>互</t>
+  </si>
+  <si>
+    <t>たがい</t>
+  </si>
+  <si>
+    <t>お互い様（おたがいさま）</t>
+  </si>
+  <si>
+    <t>ゴ</t>
+  </si>
+  <si>
+    <t>互角の勝負（ごかくのしょうぶ）／互恵（ごけい）／交互（こうご）</t>
+  </si>
+  <si>
+    <t>護</t>
+  </si>
+  <si>
+    <t>護衛（ごえい）／護送（ごそう）／守護神（しゅごしん）</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>両手に花（りょうてにはな）／花形役者（はながたやくしゃ）</t>
+  </si>
+  <si>
+    <t>花押（かおう）／花崗岩（かこうがん）／献花（けんか）</t>
+  </si>
+  <si>
+    <t>華</t>
+  </si>
+  <si>
+    <t>はなやか</t>
+  </si>
+  <si>
+    <t>カ／ケ</t>
+  </si>
+  <si>
+    <t>華やかな雰囲気（はなやかなふんいき）</t>
+  </si>
+  <si>
+    <t>華氏温度（かしおんど）／蓮華（れんげ）</t>
+  </si>
+  <si>
+    <t>滑</t>
+  </si>
+  <si>
+    <t>すべらす／すべる／なめらか</t>
+  </si>
+  <si>
+    <t>口を滑らす／入学試験に滑った／交渉が滑らかに進む</t>
+  </si>
+  <si>
+    <t>カツ／コツ</t>
+  </si>
+  <si>
+    <t>滑車（かっしゃ）／潤滑（じゅんかつ）／滑稽（こっけい）</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>ばかす／ばける</t>
+  </si>
+  <si>
+    <t>私はすっかり化かすされた／学生に化ける／化物（ばけもの）</t>
+  </si>
+  <si>
+    <t>化学（かがく）／化合物（かごうぶつ）／化粧箱（けしょうばこ）</t>
+  </si>
+  <si>
+    <t>画</t>
+  </si>
+  <si>
+    <t>カク／ガ</t>
+  </si>
+  <si>
+    <t>一線を画する（いっせんをかくする）／画家（がか）</t>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>はなし／はなす</t>
+  </si>
+  <si>
+    <t>話に花が咲く（はなしにはながさく）／話す</t>
+  </si>
+  <si>
+    <t>ワ</t>
+  </si>
+  <si>
+    <t>話芸（わげい）／話術（わじゅつ）／神話（しんわ）</t>
+  </si>
+  <si>
+    <t>懐</t>
+  </si>
+  <si>
+    <t>なつかしい／なつかしむ／なつく／なつける／ふところ</t>
+  </si>
+  <si>
+    <t>懐かしい／故郷を懐かしむ／懐く／猛獣を懐ける／懐（ふところ）</t>
+  </si>
+  <si>
+    <t>懐疑（かいぎ）／懐旧（かいきゅう）／懐中（かいちゅう）</t>
+  </si>
+  <si>
+    <t>壊</t>
+  </si>
+  <si>
+    <t>こわす／こわれる</t>
+  </si>
+  <si>
+    <t>縁談を壊す（えんだんをこわす）／椅子が壊れた（いすがこわれた）</t>
+  </si>
+  <si>
+    <t>壊血病（かいけつびょう）／壊滅（かいめつ）</t>
+  </si>
+  <si>
+    <t>還</t>
+  </si>
+  <si>
+    <t>還元（かんげん）／帰還（きかん）／償還（しょうかん）</t>
+  </si>
+  <si>
+    <t>緩</t>
+  </si>
+  <si>
+    <t>ゆるい／ゆるむ／ゆるめる／ゆるやか</t>
+  </si>
+  <si>
+    <t>緩い／気が緩む（きがゆるむ）／制限を緩める／風が緩やかに吹く</t>
+  </si>
+  <si>
+    <t>緩衝（かんしょう）／緩和（かんわ）</t>
+  </si>
+  <si>
+    <t>幻</t>
+  </si>
+  <si>
+    <t>まぼろし</t>
+  </si>
+  <si>
+    <t>母の幻が目に浮かぶ（ははのまぼろしがめにうかぶ）</t>
+  </si>
+  <si>
+    <t>ゲン</t>
+  </si>
+  <si>
+    <t>幻影（げんえい）／幻覚（げんかく）／変幻（へんげん）</t>
+  </si>
+  <si>
+    <t>患</t>
+  </si>
+  <si>
+    <t>わずらう</t>
+  </si>
+  <si>
+    <t>関節を患う（かんせつをわずらう）</t>
+  </si>
+  <si>
+    <t>患者（かんじゃ）／憂患（ゆうかん）</t>
+  </si>
+  <si>
+    <t>No.41</t>
+  </si>
+  <si>
+    <t>喚</t>
+  </si>
+  <si>
+    <t>喚起（かんき）／召喚（しょうかん）</t>
+  </si>
+  <si>
+    <t>換</t>
+  </si>
+  <si>
+    <t>命には変えられない／土地が大金に換わる</t>
+  </si>
+  <si>
+    <t>換気扇（かんきせん）／交換（こうかん）／変換（へんかん）</t>
   </si>
 </sst>
 </file>
@@ -6700,17 +7030,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F571"/>
+  <dimension ref="A1:F602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
-      <selection activeCell="F572" sqref="F572"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="C604" sqref="C604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72.36328125" style="1" bestFit="1" customWidth="1"/>
@@ -18137,6 +18467,626 @@
         <v>2108</v>
       </c>
     </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A572" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A573" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A574" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A575" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A576" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A577" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A578" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A580" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A581" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A583" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A584" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A585" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A586" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A587" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A588" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A589" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A590" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A591" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A592" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A593" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A594" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A595" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A596" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A597" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A598" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A599" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A600" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A601" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A602" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>2218</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35B64D-3B6B-4719-871B-D2C264B2B8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B36B27-9E7D-4E56-B402-0A683A45D9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLContents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="2219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="2757">
   <si>
     <t>List No.</t>
   </si>
@@ -6677,6 +6687,1620 @@
   </si>
   <si>
     <t>換気扇（かんきせん）／交換（こうかん）／変換（へんかん）</t>
+  </si>
+  <si>
+    <t>No.42</t>
+  </si>
+  <si>
+    <t>荒</t>
+  </si>
+  <si>
+    <t>あらい／あらす／あれる</t>
+  </si>
+  <si>
+    <t>気性が荒い／食べ物を荒らす／会議が荒れる</t>
+  </si>
+  <si>
+    <t>荒原（こうげん）／荒涼（こうりょう）</t>
+  </si>
+  <si>
+    <t>慌</t>
+  </si>
+  <si>
+    <t>あわただしい／あわてる</t>
+  </si>
+  <si>
+    <t>慌ただしく駆け込み（あわただしくかけこむ）／慌てないで、</t>
+  </si>
+  <si>
+    <t>恐慌（きょうこう）</t>
+  </si>
+  <si>
+    <t>皇</t>
+  </si>
+  <si>
+    <t>オウ／コウ／ノウ</t>
+  </si>
+  <si>
+    <t>法皇（ほうおう）／皇族（こうぞく）／天皇（てんのう）</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>オウ／コウ</t>
+  </si>
+  <si>
+    <t>き／こ</t>
+  </si>
+  <si>
+    <t>黄色（きいろ）／黄金（こがね）</t>
+  </si>
+  <si>
+    <t>黄金（おうごん）／黄銅（おうどう）／黄河（こうが）</t>
+  </si>
+  <si>
+    <t>灰</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>灰色（はいいろ）／灰皿（はいざら）</t>
+  </si>
+  <si>
+    <t>灰塵（かいじん）／石灰（せっかい）</t>
+  </si>
+  <si>
+    <t>揮</t>
+  </si>
+  <si>
+    <t>揮発性（きはつせい）／発揮（はっき）</t>
+  </si>
+  <si>
+    <t>輝</t>
+  </si>
+  <si>
+    <t>かがやく／かがやかしい</t>
+  </si>
+  <si>
+    <t>輝く／輝かしい手本を打ち立てる（かがやかしいてほんをうちたてる）</t>
+  </si>
+  <si>
+    <t>輝度（きど）／光輝（こうき）</t>
+  </si>
+  <si>
+    <t>回</t>
+  </si>
+  <si>
+    <t>まわす／まわる</t>
+  </si>
+  <si>
+    <t>回す／回り道（まわりみち）／あいさつにまわる</t>
+  </si>
+  <si>
+    <t>エ／カイ</t>
+  </si>
+  <si>
+    <t>回顧（かいこ）／回想（かいそう）／回路（かいろ）</t>
+  </si>
+  <si>
+    <t>悔</t>
+  </si>
+  <si>
+    <t>くいる／くやしい／くやむ</t>
+  </si>
+  <si>
+    <t>悔いる／悔しい／悔やむ</t>
+  </si>
+  <si>
+    <t>悔恨（かいこん）／後悔（こうかい）</t>
+  </si>
+  <si>
+    <t>毀</t>
+  </si>
+  <si>
+    <t>こぼれる</t>
+  </si>
+  <si>
+    <t>毀れる（こぼれる）</t>
+  </si>
+  <si>
+    <t>毀損（きそん）</t>
+  </si>
+  <si>
+    <t>賄</t>
+  </si>
+  <si>
+    <t>まかなう</t>
+  </si>
+  <si>
+    <t>１００人前の昼食を賄う（１００にんまえのちゅうしょくをまかなう）</t>
+  </si>
+  <si>
+    <t>ワイ</t>
+  </si>
+  <si>
+    <t>賄賂（わいろ）／収賄（しゅうわい）</t>
+  </si>
+  <si>
+    <t>会</t>
+  </si>
+  <si>
+    <t>あう</t>
+  </si>
+  <si>
+    <t>駅で会うことになっている</t>
+  </si>
+  <si>
+    <t>会釈（えしゃく）／会得（えとく）／会員（かいいん）</t>
+  </si>
+  <si>
+    <t>恵</t>
+  </si>
+  <si>
+    <t>めぐむ</t>
+  </si>
+  <si>
+    <t>資源に恵まれる（しげんにめぐまれる）／食べ物を少し恵んでください</t>
+  </si>
+  <si>
+    <t>エ／ケイ</t>
+  </si>
+  <si>
+    <t>知恵（ちえ）／恵贈（けいぞう）／恩恵（おんけい）</t>
+  </si>
+  <si>
+    <t>絵</t>
+  </si>
+  <si>
+    <t>絵柄（えがら）／絵葉書（えはがき）／絵画（かいが）</t>
+  </si>
+  <si>
+    <t>彙</t>
+  </si>
+  <si>
+    <t>イ</t>
+  </si>
+  <si>
+    <t>語彙（ごい）</t>
+  </si>
+  <si>
+    <t>婚</t>
+  </si>
+  <si>
+    <t>婚姻（こんいん）／婚礼（こんれい）</t>
+  </si>
+  <si>
+    <t>混</t>
+  </si>
+  <si>
+    <t>まざる／まじる／まぜる</t>
+  </si>
+  <si>
+    <t>混ざる／混じる／混ぜる</t>
+  </si>
+  <si>
+    <t>混血（こんけつ）／混乱（こんらん）</t>
+  </si>
+  <si>
+    <t>魂</t>
+  </si>
+  <si>
+    <t>たましい</t>
+  </si>
+  <si>
+    <t>魂をこめる（たましいをこめる）</t>
+  </si>
+  <si>
+    <t>魂胆（こんたん）／英魂（えいこん）／闘魂（とうこん）</t>
+  </si>
+  <si>
+    <t>活</t>
+  </si>
+  <si>
+    <t>いかす</t>
+  </si>
+  <si>
+    <t>金を活かして使う（かねをいかしてつかう）</t>
+  </si>
+  <si>
+    <t>活魚（かつぎょ）／活性（かっせい）</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>火加減（ひかげん）／火消し（ひけし）</t>
+  </si>
+  <si>
+    <t>火山灰（かざんばい）／火力（かりょく）</t>
+  </si>
+  <si>
+    <t>貨</t>
+  </si>
+  <si>
+    <t>貨車（かしゃ）／貨物（かもつ）</t>
+  </si>
+  <si>
+    <t>惑</t>
+  </si>
+  <si>
+    <t>まどう／まどわす</t>
+  </si>
+  <si>
+    <t>行くべきがどうか惑う／デマで人を惑わす</t>
+  </si>
+  <si>
+    <t>ワク</t>
+  </si>
+  <si>
+    <t>惑乱（わくらん）／困惑（こんわく）</t>
+  </si>
+  <si>
+    <t>禍</t>
+  </si>
+  <si>
+    <t>禍根（かこん）／災禍（さいか）</t>
+  </si>
+  <si>
+    <t>獲</t>
+  </si>
+  <si>
+    <t>える</t>
+  </si>
+  <si>
+    <t>獲る／獲物（えもの）</t>
+  </si>
+  <si>
+    <t>獲得（かくとく）</t>
+  </si>
+  <si>
+    <t>穫</t>
+  </si>
+  <si>
+    <t>収穫祭（しゅうかくさい）</t>
+  </si>
+  <si>
+    <t>机</t>
+  </si>
+  <si>
+    <t>つくえ</t>
+  </si>
+  <si>
+    <t>机（つくえ）</t>
+  </si>
+  <si>
+    <t>机上の空論（きじょうのくうろん）</t>
+  </si>
+  <si>
+    <t>肌</t>
+  </si>
+  <si>
+    <t>肌合い（はだあい）／肌着（はだぎ）／肌触り（はだざわり）</t>
+  </si>
+  <si>
+    <t>姫</t>
+  </si>
+  <si>
+    <t>ひめ</t>
+  </si>
+  <si>
+    <t>姫鏡台（ひめきょうだい）／寵姫（ちょうき）</t>
+  </si>
+  <si>
+    <t>飢</t>
+  </si>
+  <si>
+    <t>うえる</t>
+  </si>
+  <si>
+    <t>知識に飢える（ちしきにうえる）</t>
+  </si>
+  <si>
+    <t>飢餓（きが）／飢渇（きかつ）</t>
+  </si>
+  <si>
+    <t>No.43</t>
+  </si>
+  <si>
+    <t>基</t>
+  </si>
+  <si>
+    <t>もと／もとい／もとづく</t>
+  </si>
+  <si>
+    <t>基（もと）／基（もとい）／事実に基づいて真理を求める</t>
+  </si>
+  <si>
+    <t>基因（きいん）／基本（きほん）</t>
+  </si>
+  <si>
+    <t>跡</t>
+  </si>
+  <si>
+    <t>跡形（あとかた）／跡継ぎ（あとつぎ）</t>
+  </si>
+  <si>
+    <t>軌跡（きせき）／痕跡（こんせき）</t>
+  </si>
+  <si>
+    <t>撃</t>
+  </si>
+  <si>
+    <t>鳥を撃う（とりをうつ）／撃ち取る（うちとる）</t>
+  </si>
+  <si>
+    <t>ゲキ</t>
+  </si>
+  <si>
+    <t>撃退（げきたい）／衝撃（しょうげき）</t>
+  </si>
+  <si>
+    <t>稽</t>
+  </si>
+  <si>
+    <t>ケイ</t>
+  </si>
+  <si>
+    <t>稽古（けいこ）／滑稽（こっけい）</t>
+  </si>
+  <si>
+    <t>畿</t>
+  </si>
+  <si>
+    <t>畿内（きない）／近畿（きんき）</t>
+  </si>
+  <si>
+    <t>機</t>
+  </si>
+  <si>
+    <t>はた</t>
+  </si>
+  <si>
+    <t>機織り（はたおり）</t>
+  </si>
+  <si>
+    <t>機甲（きこう）／時機（じき）</t>
+  </si>
+  <si>
+    <t>積</t>
+  </si>
+  <si>
+    <t>つむ／つもる</t>
+  </si>
+  <si>
+    <t>年月を積む（ねんげつをつむ）／ちりも積もれば山となる</t>
+  </si>
+  <si>
+    <t>積雪（せきせつ）／体積（たいせき）</t>
+  </si>
+  <si>
+    <t>激</t>
+  </si>
+  <si>
+    <t>はげしい</t>
+  </si>
+  <si>
+    <t>気性の激しい人（きしょうのはげしいひと）</t>
+  </si>
+  <si>
+    <t>激励（げきれい）</t>
+  </si>
+  <si>
+    <t>鶏</t>
+  </si>
+  <si>
+    <t>にわとり</t>
+  </si>
+  <si>
+    <t>鶏（にわとり）</t>
+  </si>
+  <si>
+    <t>鶏肉（けいにく）／鶏卵（けいらん）</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>および／およぶ／およぼす</t>
+  </si>
+  <si>
+    <t>及び／及び腰／及ぶ／影響を及ぼす（えいきょうをおよぶす）</t>
+  </si>
+  <si>
+    <t>普及（ふきゅう）／波及（はきゅう）</t>
+  </si>
+  <si>
+    <t>吉</t>
+  </si>
+  <si>
+    <t>キチ／キツ</t>
+  </si>
+  <si>
+    <t>吉日（きちじつ）／吉報（きっぽう）</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>すなわち</t>
+  </si>
+  <si>
+    <t>即ち（すなわち）</t>
+  </si>
+  <si>
+    <t>即応（そくおう）／即金（そっこう）</t>
+  </si>
+  <si>
+    <t>急</t>
+  </si>
+  <si>
+    <t>いそぐ／せかす／せく</t>
+  </si>
+  <si>
+    <t>急ぐ／急かす／息が急く（いきがせく）</t>
+  </si>
+  <si>
+    <t>急所（きゅうしょ）／緊急（きんきゅう）</t>
+  </si>
+  <si>
+    <t>級</t>
+  </si>
+  <si>
+    <t>級数（きゅうすう）／同級（どうきゅう）</t>
+  </si>
+  <si>
+    <t>疾</t>
+  </si>
+  <si>
+    <t>疾患（しっかん）／悪疾（あくしつ）</t>
+  </si>
+  <si>
+    <t>極</t>
+  </si>
+  <si>
+    <t>No.44</t>
+  </si>
+  <si>
+    <t>No.45</t>
+  </si>
+  <si>
+    <t>きわまる／きわみ／きわめる</t>
+  </si>
+  <si>
+    <t>失礼極まる／喜びの極み／口を極める</t>
+  </si>
+  <si>
+    <t>キョク／ゴク</t>
+  </si>
+  <si>
+    <t>極限（きょくげん）／極道（ごくどう）</t>
+  </si>
+  <si>
+    <t>集</t>
+  </si>
+  <si>
+    <t>あつまる／あつめる／つどう</t>
+  </si>
+  <si>
+    <t>花びらが集まる／注目を集める／多くの人が集う</t>
+  </si>
+  <si>
+    <t>集荷（しゅうか）／詩集（ししゅう）</t>
+  </si>
+  <si>
+    <t>嫉</t>
+  </si>
+  <si>
+    <t>そねみ／そねむ</t>
+  </si>
+  <si>
+    <t>嫉み／嫉む</t>
+  </si>
+  <si>
+    <t>籍</t>
+  </si>
+  <si>
+    <t>国籍（こくせき）／版籍（はんせき）</t>
+  </si>
+  <si>
+    <t>己</t>
+  </si>
+  <si>
+    <t>おのれ</t>
+  </si>
+  <si>
+    <t>己（おのれ）</t>
+  </si>
+  <si>
+    <t>キ／コ</t>
+  </si>
+  <si>
+    <t>知己（ちき）／自己（じこ）／利己（りこ）</t>
+  </si>
+  <si>
+    <t>脊</t>
+  </si>
+  <si>
+    <t>せ</t>
+  </si>
+  <si>
+    <t>脊髄（せきずい）／脊柱（せきちゅう）／脊椎（せきつい）</t>
+  </si>
+  <si>
+    <t>幾</t>
+  </si>
+  <si>
+    <t>いく</t>
+  </si>
+  <si>
+    <t>幾多（いくた）／幾ら（いくら）</t>
+  </si>
+  <si>
+    <t>伎</t>
+  </si>
+  <si>
+    <t>キ／ギ</t>
+  </si>
+  <si>
+    <t>歌舞伎（かぶき）</t>
+  </si>
+  <si>
+    <t>技</t>
+  </si>
+  <si>
+    <t>わざ</t>
+  </si>
+  <si>
+    <t>技を磨く（わざをみがく）</t>
+  </si>
+  <si>
+    <t>ギ</t>
+  </si>
+  <si>
+    <t>技能（ぎのう）</t>
+  </si>
+  <si>
+    <t>忌</t>
+  </si>
+  <si>
+    <t>いまわしい／いむ</t>
+  </si>
+  <si>
+    <t>忌まわしい予感（いまわしいよかん）／肉食を忌む（にくしょくをいむ）</t>
+  </si>
+  <si>
+    <t>忌諱（きい）／禁忌（きんき）</t>
+  </si>
+  <si>
+    <t>季</t>
+  </si>
+  <si>
+    <t>季節（きせつ）／雨季（うき）</t>
+  </si>
+  <si>
+    <t>計</t>
+  </si>
+  <si>
+    <t>はからう／はかる</t>
+  </si>
+  <si>
+    <t>計らう／時間を計る</t>
+  </si>
+  <si>
+    <t>計数（けいすう）／温度計（おんどけい）</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>すでに</t>
+  </si>
+  <si>
+    <t>会議は既に始まっている（かいぎはすでにはじまっている）</t>
+  </si>
+  <si>
+    <t>既得権益（きとくけんえき）</t>
+  </si>
+  <si>
+    <t>紀</t>
+  </si>
+  <si>
+    <t>紀元（きげん）／風紀（ふうき）</t>
+  </si>
+  <si>
+    <t>記</t>
+  </si>
+  <si>
+    <t>しるす</t>
+  </si>
+  <si>
+    <t>心に記す（こころにしるす）</t>
+  </si>
+  <si>
+    <t>記憶（きおく）／戦記（せんき）</t>
+  </si>
+  <si>
+    <t>剤</t>
+  </si>
+  <si>
+    <t>薬剤（やくざい）</t>
+  </si>
+  <si>
+    <t>祭</t>
+  </si>
+  <si>
+    <t>まつり／まつる</t>
+  </si>
+  <si>
+    <t>お祭り騒ぎ／祖先を祭る</t>
+  </si>
+  <si>
+    <t>祭祀（さいし）／文化祭（ぶんかさい）</t>
+  </si>
+  <si>
+    <t>済</t>
+  </si>
+  <si>
+    <t>仕事を済ます／金で済む問題ではない</t>
+  </si>
+  <si>
+    <t>救済（きゅうさい）／経済（けいざい）</t>
+  </si>
+  <si>
+    <t>寄</t>
+  </si>
+  <si>
+    <t>よせる／よる</t>
+  </si>
+  <si>
+    <t>車を道のそばに寄せておく／学校の帰りに本屋へ寄る</t>
+  </si>
+  <si>
+    <t>寄金（ききん）／寄港（きこう）／寄託（きたく）</t>
+  </si>
+  <si>
+    <t>寂</t>
+  </si>
+  <si>
+    <t>さび／さびしい／さびれる</t>
+  </si>
+  <si>
+    <t>寂（さび）／タバコが切れて口が寂しい／市場が寂れている</t>
+  </si>
+  <si>
+    <t>ジャク／セキ</t>
+  </si>
+  <si>
+    <t>静寂（せいじゃく）／寂然（せきぜん／じゃくねん）</t>
+  </si>
+  <si>
+    <t>際</t>
+  </si>
+  <si>
+    <t>きわ</t>
+  </si>
+  <si>
+    <t>際だつ／際どいところで助かる</t>
+  </si>
+  <si>
+    <t>際会（さいかい）／欲には際限がない／国際（こくさい）</t>
+  </si>
+  <si>
+    <t>継</t>
+  </si>
+  <si>
+    <t>つぐ</t>
+  </si>
+  <si>
+    <t>父の家業を継ぐ／継ぎ足す／継ぎ手</t>
+  </si>
+  <si>
+    <t>継嗣（けいし）／継承（けいしょう）／中継（ちゅうけい）</t>
+  </si>
+  <si>
+    <t>績</t>
+  </si>
+  <si>
+    <t>業績（ぎょうせき）／成績（せいせき）</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>くわえる／くわわる</t>
+  </si>
+  <si>
+    <t>治療を加える（ちりょうをくわえる）／仲間に加わる</t>
+  </si>
+  <si>
+    <t>加圧（かあつ）／加工（かこう）／加味（かみ）</t>
+  </si>
+  <si>
+    <t>佳</t>
+  </si>
+  <si>
+    <t>佳境（かきょう）／佳品（かひん）</t>
+  </si>
+  <si>
+    <t>挟</t>
+  </si>
+  <si>
+    <t>はさまる／はさむ</t>
+  </si>
+  <si>
+    <t>両国の間に挟まる／道を挟むんで歓迎する</t>
+  </si>
+  <si>
+    <t>挟撃（きょうげき）</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>いえ／うち／や</t>
+  </si>
+  <si>
+    <t>家を建てる／家（うち）／家賃（やちん）</t>
+  </si>
+  <si>
+    <t>家族（かぞく）／本家（ほんけ）</t>
+  </si>
+  <si>
+    <t>頬</t>
+  </si>
+  <si>
+    <t>ほお／ほほ</t>
+  </si>
+  <si>
+    <t>頬杖（ほうづえ）／頬被り（ほほかぶり）</t>
+  </si>
+  <si>
+    <t>甲</t>
+  </si>
+  <si>
+    <t>きのえ</t>
+  </si>
+  <si>
+    <t>甲（きのえ）</t>
+  </si>
+  <si>
+    <t>カン／コウ</t>
+  </si>
+  <si>
+    <t>甲高い声で歌う（かんだかいこえでうたう）／甲殻（こうかく）</t>
+  </si>
+  <si>
+    <t>仮</t>
+  </si>
+  <si>
+    <t>かり</t>
+  </si>
+  <si>
+    <t>仮の住まい／仮に僕が君だったら</t>
+  </si>
+  <si>
+    <t>仮構（かこう）／仮装（かそう）／仮病（けびょう）</t>
+  </si>
+  <si>
+    <t>岬</t>
+  </si>
+  <si>
+    <t>みさき</t>
+  </si>
+  <si>
+    <t>岬（みさき）</t>
+  </si>
+  <si>
+    <t>No.46</t>
+  </si>
+  <si>
+    <t>No.47</t>
+  </si>
+  <si>
+    <t>価</t>
+  </si>
+  <si>
+    <t>あたい</t>
+  </si>
+  <si>
+    <t>価（あたい）</t>
+  </si>
+  <si>
+    <t>価格（かかく）／半価（はんか）</t>
+  </si>
+  <si>
+    <t>架</t>
+  </si>
+  <si>
+    <t>かかる／かける</t>
+  </si>
+  <si>
+    <t>この川には橋が二つ架かっている／橋を架ける</t>
+  </si>
+  <si>
+    <t>架空（かくう）／十字架（じゅうじか）</t>
+  </si>
+  <si>
+    <t>嫁</t>
+  </si>
+  <si>
+    <t>とつぐ／よめ</t>
+  </si>
+  <si>
+    <t>娘を嫁ぐ／息子に嫁をもらう／嫁入り（よめいり）</t>
+  </si>
+  <si>
+    <t>転嫁（てんか）</t>
+  </si>
+  <si>
+    <t>稼</t>
+  </si>
+  <si>
+    <t>かせぐ</t>
+  </si>
+  <si>
+    <t>生活費を稼ぐ（せいかつひをかせぐ）</t>
+  </si>
+  <si>
+    <t>稼働（かどう）</t>
+  </si>
+  <si>
+    <t>肩</t>
+  </si>
+  <si>
+    <t>肩（かた）／肩書き（かたがき）</t>
+  </si>
+  <si>
+    <t>ケン</t>
+  </si>
+  <si>
+    <t>肩章（けんしょう）／双肩（そうけん）</t>
+  </si>
+  <si>
+    <t>兼</t>
+  </si>
+  <si>
+    <t>かれる</t>
+  </si>
+  <si>
+    <t>兼ねる</t>
+  </si>
+  <si>
+    <t>兼営（けんえい）／兼職（けんしょく）</t>
+  </si>
+  <si>
+    <t>堅</t>
+  </si>
+  <si>
+    <t>かたい</t>
+  </si>
+  <si>
+    <t>堅い／堅苦しい（かたくるしい）</t>
+  </si>
+  <si>
+    <t>堅固（けんご）／中堅（ちゅうけん）</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>あいだ／ま</t>
+  </si>
+  <si>
+    <t>間柄（あいだがら）／間合い（まあい）／間際（まぎわ）</t>
+  </si>
+  <si>
+    <t>間隔（かんかく）／世間（せけん）</t>
+  </si>
+  <si>
+    <t>煎</t>
+  </si>
+  <si>
+    <t>いる</t>
+  </si>
+  <si>
+    <t>煎る</t>
+  </si>
+  <si>
+    <t>煎じ薬（せんじぐすり）／煎茶（せんちゃ）</t>
+  </si>
+  <si>
+    <t>監</t>
+  </si>
+  <si>
+    <t>監禁（かんきん）／監督（かんとく）</t>
+  </si>
+  <si>
+    <t>箋</t>
+  </si>
+  <si>
+    <t>便箋（びんせん）／付箋（ふせん）</t>
+  </si>
+  <si>
+    <t>倹</t>
+  </si>
+  <si>
+    <t>つましい</t>
+  </si>
+  <si>
+    <t>倹しく暮らす</t>
+  </si>
+  <si>
+    <t>倹約（けんやく）／節倹（せっけん）</t>
+  </si>
+  <si>
+    <t>検</t>
+  </si>
+  <si>
+    <t>検案（けんあん）／検疫（けんえき）</t>
+  </si>
+  <si>
+    <t>減</t>
+  </si>
+  <si>
+    <t>へらす／へる</t>
+  </si>
+  <si>
+    <t>人員を減らす／体重が減った</t>
+  </si>
+  <si>
+    <t>減却（げんきゃく）／節減（せつげん）</t>
+  </si>
+  <si>
+    <t>簡</t>
+  </si>
+  <si>
+    <t>簡潔（かんけつ）／簡単（かんたん）</t>
+  </si>
+  <si>
+    <t>繭</t>
+  </si>
+  <si>
+    <t>まゆ</t>
+  </si>
+  <si>
+    <t>繭玉（まゆだま）</t>
+  </si>
+  <si>
+    <t>繭糸（けんし）</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>件数（けんすう）／条件（じょうけん）</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>みえる／みせる／みる</t>
+  </si>
+  <si>
+    <t>見合い結婚／ここから海が見える／きっと成功して見せる／映画を見る</t>
+  </si>
+  <si>
+    <t>見識（けんしき）</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>たつ／たてる</t>
+  </si>
+  <si>
+    <t>ビルが建つ／工場を建てる</t>
+  </si>
+  <si>
+    <t>ケン／コン</t>
+  </si>
+  <si>
+    <t>建議（けんぎ）／建立（こんりゅう）</t>
+  </si>
+  <si>
+    <t>健</t>
+  </si>
+  <si>
+    <t>すこやか</t>
+  </si>
+  <si>
+    <t>子供が健やかに育つ（こどもがすこやかにそだつ）</t>
+  </si>
+  <si>
+    <t>健康（けんこう）／穏健（おんけん）</t>
+  </si>
+  <si>
+    <t>剣</t>
+  </si>
+  <si>
+    <t>つるぎ</t>
+  </si>
+  <si>
+    <t>剣（つるぎ）</t>
+  </si>
+  <si>
+    <t>剣術（けんじゅつ）</t>
+  </si>
+  <si>
+    <t>践</t>
+  </si>
+  <si>
+    <t>実践（じっせん）</t>
+  </si>
+  <si>
+    <t>漸</t>
+  </si>
+  <si>
+    <t>ようやく</t>
+  </si>
+  <si>
+    <t>天気は漸く暖かくなってきた</t>
+  </si>
+  <si>
+    <t>漸次（ぜんじ）／漸進（ぜんしん）</t>
+  </si>
+  <si>
+    <t>薦</t>
+  </si>
+  <si>
+    <t>すすめる</t>
+  </si>
+  <si>
+    <t>彼を委員に薦める</t>
+  </si>
+  <si>
+    <t>自薦（じせん）／推薦（すいせん）</t>
+  </si>
+  <si>
+    <t>鍵</t>
+  </si>
+  <si>
+    <t>かぎ</t>
+  </si>
+  <si>
+    <t>鍵（かぎ）</t>
+  </si>
+  <si>
+    <t>鍵盤（けんばん）</t>
+  </si>
+  <si>
+    <t>艦</t>
+  </si>
+  <si>
+    <t>艦隊（かんたい）／軍艦（ぐんかん）</t>
+  </si>
+  <si>
+    <t>鑑</t>
+  </si>
+  <si>
+    <t>かんがみる</t>
+  </si>
+  <si>
+    <t>事の重大性に鑑みる</t>
+  </si>
+  <si>
+    <t>鑑査（かんさ）／鑑定（かんてい）</t>
+  </si>
+  <si>
+    <t>江</t>
+  </si>
+  <si>
+    <t>え</t>
+  </si>
+  <si>
+    <t>江戸川（えどかわ）</t>
+  </si>
+  <si>
+    <t>江南（こうなん）</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>将軍（しょうぐん）／主将（しゅしょう）</t>
+  </si>
+  <si>
+    <t>No.48</t>
+  </si>
+  <si>
+    <t>奨</t>
+  </si>
+  <si>
+    <t>奨励（しょうれい）</t>
+  </si>
+  <si>
+    <t>No.49</t>
+  </si>
+  <si>
+    <t>No.50</t>
+  </si>
+  <si>
+    <t>講</t>
+  </si>
+  <si>
+    <t>講演（こうえん）／講談社（こうだんしゃ）</t>
+  </si>
+  <si>
+    <t>匠</t>
+  </si>
+  <si>
+    <t>たくみ</t>
+  </si>
+  <si>
+    <t>匠（たくみ）</t>
+  </si>
+  <si>
+    <t>名匠（めいしょう）</t>
+  </si>
+  <si>
+    <t>降</t>
+  </si>
+  <si>
+    <t>おりる／おろす／ふる</t>
+  </si>
+  <si>
+    <t>階段を降りる／腰を降ろす／雨に降るられた</t>
+  </si>
+  <si>
+    <t>降伏（こうふく）／降臨（こうりん）</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>かう／かわす／まざる／まじえる／まじる／まじわる</t>
+  </si>
+  <si>
+    <t>交う／交わす／交ざる／交える／交わる</t>
+  </si>
+  <si>
+    <t>交易（こうえき）／交接（こうせつ）</t>
+  </si>
+  <si>
+    <t>郊</t>
+  </si>
+  <si>
+    <t>郊外（こうがい）／近郊（きんこう）</t>
+  </si>
+  <si>
+    <t>教</t>
+  </si>
+  <si>
+    <t>おしえる／おそわる</t>
+  </si>
+  <si>
+    <t>教え子（おしえご）／英語を教わる</t>
+  </si>
+  <si>
+    <t>教育（きょういく）</t>
+  </si>
+  <si>
+    <t>焦</t>
+  </si>
+  <si>
+    <t>あせる／こがす／こがれる／こげる</t>
+  </si>
+  <si>
+    <t>焦る／焦がす／焦がれる／焦げる</t>
+  </si>
+  <si>
+    <t>焦慮（しょうりょ）</t>
+  </si>
+  <si>
+    <t>礁</t>
+  </si>
+  <si>
+    <t>暗礁（あんしょう）／珊瑚礁（さんごしょう）</t>
+  </si>
+  <si>
+    <t>角</t>
+  </si>
+  <si>
+    <t>かど／つの</t>
+  </si>
+  <si>
+    <t>角川書店（かどかわしょてん）／角隠し（つのかくし）</t>
+  </si>
+  <si>
+    <t>角型（かくがた）／直角（ちょっかく）</t>
+  </si>
+  <si>
+    <t>脚</t>
+  </si>
+  <si>
+    <t>あし</t>
+  </si>
+  <si>
+    <t>脚（あし）</t>
+  </si>
+  <si>
+    <t>キャ／キャク</t>
+  </si>
+  <si>
+    <t>脚光を浴びる（きゃっこう）／脚本（きゃくほん）</t>
+  </si>
+  <si>
+    <t>絞</t>
+  </si>
+  <si>
+    <t>しぼる／しまる／しめる</t>
+  </si>
+  <si>
+    <t>知恵を絞る／絞まる／菜種を絞めて油を取る</t>
+  </si>
+  <si>
+    <t>絞殺（こうさつ）</t>
+  </si>
+  <si>
+    <t>較</t>
+  </si>
+  <si>
+    <t>かく</t>
+  </si>
+  <si>
+    <t>較差（かくさ）／比較（ひかく）</t>
+  </si>
+  <si>
+    <t>矯</t>
+  </si>
+  <si>
+    <t>ためる</t>
+  </si>
+  <si>
+    <t>悪い癖を矯める（わるいくせをためる）</t>
+  </si>
+  <si>
+    <t>矯正（きょうせい）</t>
+  </si>
+  <si>
+    <t>叫</t>
+  </si>
+  <si>
+    <t>さけぶ</t>
+  </si>
+  <si>
+    <t>叫び声（さけびごえ）／助けてくれと叫ぶ</t>
+  </si>
+  <si>
+    <t>叫喚（きょうかん）</t>
+  </si>
+  <si>
+    <t>校</t>
+  </si>
+  <si>
+    <t>校閲（こうえつ）／学校（がっこう）</t>
+  </si>
+  <si>
+    <t>酵</t>
+  </si>
+  <si>
+    <t>酵素（こうそ）／発酵（はっこう）</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>みな</t>
+  </si>
+  <si>
+    <t>皆さん（みなさん）</t>
+  </si>
+  <si>
+    <t>皆勤（かいきん）／皆目わからない（かいもく）</t>
+  </si>
+  <si>
+    <t>接</t>
+  </si>
+  <si>
+    <t>骨を接ぐ（ほねをつぐ）／接ぎ手（つぎて）</t>
+  </si>
+  <si>
+    <t>セツ</t>
+  </si>
+  <si>
+    <t>接岸（せつがん）／接続（せつぞく）</t>
+  </si>
+  <si>
+    <t>階</t>
+  </si>
+  <si>
+    <t>階層（かいそう）／階梯（かいてい）</t>
+  </si>
+  <si>
+    <t>街</t>
+  </si>
+  <si>
+    <t>街角（まちかど）</t>
+  </si>
+  <si>
+    <t>カイ／ガイ</t>
+  </si>
+  <si>
+    <t>街道（かいどう）／街路樹（がいろじゅ）</t>
+  </si>
+  <si>
+    <t>結</t>
+  </si>
+  <si>
+    <t>むすぶ／ゆう／ゆわえる</t>
+  </si>
+  <si>
+    <t>契約を結ぶ／髪を結う／髪にリボンを結わえる</t>
+  </si>
+  <si>
+    <t>ケツ</t>
+  </si>
+  <si>
+    <t>結盟（けつめい）／結構（けっこう）</t>
+  </si>
+  <si>
+    <t>潔</t>
+  </si>
+  <si>
+    <t>いさぎよい</t>
+  </si>
+  <si>
+    <t>潔い心（いさぎよいこころ）</t>
+  </si>
+  <si>
+    <t>簡潔（かんけつ）／潔白（けっぱく）</t>
+  </si>
+  <si>
+    <t>掲</t>
+  </si>
+  <si>
+    <t>かかげる</t>
+  </si>
+  <si>
+    <t>国旗を掲げる（こっきをかかげる）</t>
+  </si>
+  <si>
+    <t>新聞に掲載する／国旗を掲揚する</t>
+  </si>
+  <si>
+    <t>傑</t>
+  </si>
+  <si>
+    <t>英傑（えいけつ）／傑出（けっしゅつ）</t>
+  </si>
+  <si>
+    <t>ふし</t>
+  </si>
+  <si>
+    <t>節</t>
+  </si>
+  <si>
+    <t>怪しい節がある／節回し</t>
+  </si>
+  <si>
+    <t>セチ／セツ</t>
+  </si>
+  <si>
+    <t>節句（せっく）／礼節（れいせつ）</t>
+  </si>
+  <si>
+    <t>詰</t>
+  </si>
+  <si>
+    <t>つまる／つむ／つめる</t>
+  </si>
+  <si>
+    <t>詰まる／詰む／息を詰める</t>
+  </si>
+  <si>
+    <t>詰問（きつもん）／詰責（きっせき）</t>
+  </si>
+  <si>
+    <t>解</t>
+  </si>
+  <si>
+    <t>とかす／とく／とける</t>
+  </si>
+  <si>
+    <t>氷を解かす／謎を解く／靴の紐が解けている</t>
+  </si>
+  <si>
+    <t>カイ／ゲ</t>
+  </si>
+  <si>
+    <t>解釈（かいしゃく）／解毒（げどく）</t>
+  </si>
+  <si>
+    <t>介</t>
+  </si>
+  <si>
+    <t>介添え（かいぞえ）／媒介（ばいかい）</t>
+  </si>
+  <si>
+    <t>戒</t>
+  </si>
+  <si>
+    <t>いましめる</t>
+  </si>
+  <si>
+    <t>子供の悪戯を戒める（こどものいたずらをいましめる）</t>
+  </si>
+  <si>
+    <t>戒厳令（かいげんれい）／警戒（けいかい）</t>
+  </si>
+  <si>
+    <t>届</t>
+  </si>
+  <si>
+    <t>とどく／とどける</t>
+  </si>
+  <si>
+    <t>手紙が届いた／届け先（とどけさき）／届ける</t>
+  </si>
+  <si>
+    <t>界</t>
+  </si>
+  <si>
+    <t>界隈（かいわい）／界面活性剤（かいめん）</t>
+  </si>
+  <si>
+    <t>借</t>
+  </si>
+  <si>
+    <t>かりる</t>
+  </si>
+  <si>
+    <t>借り入れる（かりいれる）</t>
+  </si>
+  <si>
+    <t>租借（そしゃく）</t>
+  </si>
+  <si>
+    <t>巾</t>
+  </si>
+  <si>
+    <t>巾木（はばき）</t>
+  </si>
+  <si>
+    <t>キン</t>
+  </si>
+  <si>
+    <t>巾着（きんちゃく）／茶巾（ちゃきん）</t>
+  </si>
+  <si>
+    <t>斤</t>
+  </si>
+  <si>
+    <t>斤目（きんめ）／斤量（きんりょう）</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>いま</t>
+  </si>
+  <si>
+    <t>今頃（いまごろ）</t>
+  </si>
+  <si>
+    <t>キン／コン</t>
+  </si>
+  <si>
+    <t>今上（きんじょう）／今回（こんかい）</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>かな／かね</t>
+  </si>
+  <si>
+    <t>金網（かなあみ）／金持ち（かねもち）</t>
+  </si>
+  <si>
+    <t>金額（きんがく）／金剛石（こんごうせき）</t>
+  </si>
+  <si>
+    <t>津</t>
+  </si>
+  <si>
+    <t>つ</t>
+  </si>
+  <si>
+    <t>津々浦々（つつうらうら）／津波（つなみ）</t>
+  </si>
+  <si>
+    <t>興味津々（きょうみしんしん）</t>
+  </si>
+  <si>
+    <t>筋</t>
+  </si>
+  <si>
+    <t>すじ</t>
+  </si>
+  <si>
+    <t>筋合い（すじあい）／筋書き（すじがき）</t>
+  </si>
+  <si>
+    <t>筋肉（きんにく）／筋骨（きんこつ）</t>
+  </si>
+  <si>
+    <t>僅</t>
+  </si>
+  <si>
+    <t>わずか</t>
+  </si>
+  <si>
+    <t>僅か（わずか）</t>
+  </si>
+  <si>
+    <t>僅差（きんさ）／僅少（きんしょう）</t>
+  </si>
+  <si>
+    <t>緊</t>
+  </si>
+  <si>
+    <t>緊急（きんきゅう）／緊要（きんよう）</t>
+  </si>
+  <si>
+    <t>錦</t>
+  </si>
+  <si>
+    <t>にしき</t>
+  </si>
+  <si>
+    <t>錦絵（にしきえ）／錦鯉（にしきごい）</t>
+  </si>
+  <si>
+    <t>謹</t>
+  </si>
+  <si>
+    <t>つつしむ</t>
+  </si>
+  <si>
+    <t>謹んで敬意を表す</t>
+  </si>
+  <si>
+    <t>謹賀新年（きんがしんねん）／謹厳（きんげん）</t>
+  </si>
+  <si>
+    <t>尽</t>
+  </si>
+  <si>
+    <t>つかす／つきる／つくす</t>
+  </si>
+  <si>
+    <t>愛想を尽かす／道が尽きて林となる／手段を尽くす</t>
+  </si>
+  <si>
+    <t>ジン</t>
+  </si>
+  <si>
+    <t>尽力（じんりょく）</t>
+  </si>
+  <si>
+    <t>近</t>
+  </si>
+  <si>
+    <t>ゼロに近い</t>
+  </si>
+  <si>
+    <t>ちかい</t>
+  </si>
+  <si>
+    <t>最近（さいきん）</t>
+  </si>
+  <si>
+    <t>浸</t>
+  </si>
+  <si>
+    <t>No.51</t>
+  </si>
+  <si>
+    <t>ひたす／ひたる</t>
+  </si>
+  <si>
+    <t>足を水に浸す／作物が水に浸っている</t>
+  </si>
+  <si>
+    <t>浸潤（しんじゅん）</t>
   </si>
 </sst>
 </file>
@@ -7030,10 +8654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F602"/>
+  <dimension ref="A1:F752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="C604" sqref="C604"/>
+    <sheetView tabSelected="1" topLeftCell="A720" workbookViewId="0">
+      <selection activeCell="F752" sqref="F752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -19087,6 +20711,3006 @@
         <v>2218</v>
       </c>
     </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A603" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A604" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A605" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A606" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A607" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A608" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A609" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A610" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A611" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A612" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A613" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A614" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A615" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A616" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A617" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A618" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A619" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A620" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A621" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A622" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A623" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A624" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A625" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A626" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A627" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A628" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A629" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A630" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A631" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A632" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A633" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A634" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A635" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A636" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A637" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A638" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A639" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A640" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A641" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A642" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A643" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A644" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A645" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A646" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A647" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A648" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A649" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A650" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A651" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A652" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A653" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A654" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A655" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A656" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A657" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A658" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A659" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A660" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A661" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A662" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A663" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A664" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A665" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A666" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A667" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A668" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A669" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A670" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A671" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A672" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A673" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A674" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A675" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A676" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A677" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A678" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A679" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A680" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A681" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A682" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A683" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A684" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A685" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A686" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A687" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A688" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A689" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A690" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A691" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A692" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A693" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A694" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A695" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A696" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A697" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A698" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A699" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A700" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A701" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A702" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A703" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A704" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A705" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A706" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A707" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A708" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A709" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A710" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A711" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A712" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A713" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A714" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A715" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A716" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A717" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A718" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A719" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A720" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A721" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A722" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A723" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A724" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A725" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A726" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A727" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A728" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A729" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A730" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A731" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A732" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A733" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A734" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A735" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A736" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A737" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F737" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A738" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F738" s="1" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A739" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F739" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A740" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F740" s="1" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A741" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F741" s="1" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A742" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F742" s="1" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A743" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F743" s="1" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A744" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F744" s="1" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A745" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F745" s="1" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A746" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A747" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A748" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A749" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A750" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A751" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F751" s="1" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A752" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F752" s="1" t="s">
+        <v>2756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B36B27-9E7D-4E56-B402-0A683A45D9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B860C-78BB-496B-A53C-4B8F700C1084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="2757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="3004">
   <si>
     <t>List No.</t>
   </si>
@@ -8301,6 +8301,747 @@
   </si>
   <si>
     <t>浸潤（しんじゅん）</t>
+  </si>
+  <si>
+    <t>進</t>
+  </si>
+  <si>
+    <t>すすむ／すすめる</t>
+  </si>
+  <si>
+    <t>気が進まない（きがすすまない）／時計を5分進める</t>
+  </si>
+  <si>
+    <t>進化（しんか）／促進（そくしん）</t>
+  </si>
+  <si>
+    <t>禁</t>
+  </si>
+  <si>
+    <t>禁忌（きんき）／解禁（かいきん）</t>
+  </si>
+  <si>
+    <t>襟</t>
+  </si>
+  <si>
+    <t>えり</t>
+  </si>
+  <si>
+    <t>襟につく／襟巻き（襟巻き）</t>
+  </si>
+  <si>
+    <t>襟度が狭い（きんどがせまい）</t>
+  </si>
+  <si>
+    <t>茎</t>
+  </si>
+  <si>
+    <t>くき</t>
+  </si>
+  <si>
+    <t>茎（くき）</t>
+  </si>
+  <si>
+    <t>地下茎（ちかけい）</t>
+  </si>
+  <si>
+    <t>京</t>
+  </si>
+  <si>
+    <t>キョウ／ケイ</t>
+  </si>
+  <si>
+    <t>京劇（きょうげき）／京浜（けいひん）</t>
+  </si>
+  <si>
+    <t>経</t>
+  </si>
+  <si>
+    <t>たつ／へる</t>
+  </si>
+  <si>
+    <t>時間が経につれた／東京を経てアメリカへ帰る</t>
+  </si>
+  <si>
+    <t>経典（きょうてん）／経験（けいけん）</t>
+  </si>
+  <si>
+    <t>晶</t>
+  </si>
+  <si>
+    <t>液晶（えきしょう）／水晶（すいしょう）</t>
+  </si>
+  <si>
+    <t>精</t>
+  </si>
+  <si>
+    <t>ショウ／セイ</t>
+  </si>
+  <si>
+    <t>精進（しょうじん）／精鋭（せいえい）／妖精（ようせい）</t>
+  </si>
+  <si>
+    <t>鯨</t>
+  </si>
+  <si>
+    <t>くじら</t>
+  </si>
+  <si>
+    <t>鯨井様（くじらいさま）</t>
+  </si>
+  <si>
+    <t>ゲイ</t>
+  </si>
+  <si>
+    <t>鯨肉（げいにく）／捕鯨（ほげい）</t>
+  </si>
+  <si>
+    <t>驚</t>
+  </si>
+  <si>
+    <t>おどろかす／おどろく</t>
+  </si>
+  <si>
+    <t>人を驚かす（ひとをおどろかす）／これは驚いた（これはおどろいた）</t>
+  </si>
+  <si>
+    <t>驚喜（きょうき）／驚嘆（きょうたん）</t>
+  </si>
+  <si>
+    <t>井</t>
+  </si>
+  <si>
+    <t>い</t>
+  </si>
+  <si>
+    <t>井の中の蛙（いのなかのかえる）</t>
+  </si>
+  <si>
+    <t>セイ／ショウ</t>
+  </si>
+  <si>
+    <t>井然（せいぜん）／天井（てんじょう）</t>
+  </si>
+  <si>
+    <t>丼</t>
+  </si>
+  <si>
+    <t>どん／どんぶり</t>
+  </si>
+  <si>
+    <t>鰻丼（うなどん）／牛丼（ぎゅうどん）／丼（どんぶり）</t>
+  </si>
+  <si>
+    <t>景</t>
+  </si>
+  <si>
+    <t>景観（けいかん）／背景（はいけい）</t>
+  </si>
+  <si>
+    <t>憬</t>
+  </si>
+  <si>
+    <t>警</t>
+  </si>
+  <si>
+    <t>警戒（けいかい）／警抜（けいばつ）</t>
+  </si>
+  <si>
+    <t>No.52</t>
+  </si>
+  <si>
+    <t>径</t>
+  </si>
+  <si>
+    <t>径庭（けいてい）／直径（ちょっけい）</t>
+  </si>
+  <si>
+    <t>浄</t>
+  </si>
+  <si>
+    <t>浄化（じょうか）／洗浄（せんじょう）</t>
+  </si>
+  <si>
+    <t>敬</t>
+  </si>
+  <si>
+    <t>うやまう</t>
+  </si>
+  <si>
+    <t>人に敬われる（ひとにうやまわれる）</t>
+  </si>
+  <si>
+    <t>敬愛（けいあい）／尊敬（そんけい）</t>
+  </si>
+  <si>
+    <t>静</t>
+  </si>
+  <si>
+    <t>しずか／しずまる／しずめる</t>
+  </si>
+  <si>
+    <t>静かな人／心が静まる／父の怒り（いかり）を静める</t>
+  </si>
+  <si>
+    <t>静脈（じょうみゃく）／静態（せいたい）／安静（あんせい）</t>
+  </si>
+  <si>
+    <t>境</t>
+  </si>
+  <si>
+    <t>さかい</t>
+  </si>
+  <si>
+    <t>生死の境目（せいしのさかいめ）</t>
+  </si>
+  <si>
+    <t>境界（きょうかい）／境内（けいだい）</t>
+  </si>
+  <si>
+    <t>鏡</t>
+  </si>
+  <si>
+    <t>かがみ</t>
+  </si>
+  <si>
+    <t>鏡餅（かがみもち）</t>
+  </si>
+  <si>
+    <t>眼鏡（がんきょう／めがね）／望遠鏡（ぼうえんきょう）</t>
+  </si>
+  <si>
+    <t>競</t>
+  </si>
+  <si>
+    <t>きそう／せる</t>
+  </si>
+  <si>
+    <t>先を競う（さきをきそう）／激しく競る（はげしくせる）</t>
+  </si>
+  <si>
+    <t>競泳大会を開く（きょうえいたいかいをひらく）／競馬（けいば）</t>
+  </si>
+  <si>
+    <t>究</t>
+  </si>
+  <si>
+    <t>きわめる</t>
+  </si>
+  <si>
+    <t>真相を究める（しんそうをきわめる）</t>
+  </si>
+  <si>
+    <t>究極（きゅうきょく）／研究（けんきゅう）</t>
+  </si>
+  <si>
+    <t>糾</t>
+  </si>
+  <si>
+    <t>あざなう</t>
+  </si>
+  <si>
+    <t>縄を糾う（なわをあざなう）</t>
+  </si>
+  <si>
+    <t>糾弾（きゅうだん）／糾明（きゅうめい）</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>ここのつ</t>
+  </si>
+  <si>
+    <t>九重町（ここのえまち）／九日（ここのか）</t>
+  </si>
+  <si>
+    <t>キュウ／ク</t>
+  </si>
+  <si>
+    <t>九州（きゅうしゅう）／九月（くがつ）</t>
+  </si>
+  <si>
+    <t>久</t>
+  </si>
+  <si>
+    <t>ひさしい</t>
+  </si>
+  <si>
+    <t>姉とは久しく会っていない（あねとはひさしくあっていない）</t>
+  </si>
+  <si>
+    <t>耐久（たいきゅう）／久遠（くおん／きゅうえん）</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>さか／さけ</t>
+  </si>
+  <si>
+    <t>酒屋（さかや）／酒好き（さけずき）</t>
+  </si>
+  <si>
+    <t>シュ</t>
+  </si>
+  <si>
+    <t>酒類（しゅるい）／葡萄酒（ぶどうしゅ）</t>
+  </si>
+  <si>
+    <t>旧</t>
+  </si>
+  <si>
+    <t>ふるい</t>
+  </si>
+  <si>
+    <t>旧いやり方（ふるいやりかた）</t>
+  </si>
+  <si>
+    <t>旧年中は（きゅうねんちゅうは）／旧暦（きゅうれき）</t>
+  </si>
+  <si>
+    <t>臼</t>
+  </si>
+  <si>
+    <t>うす</t>
+  </si>
+  <si>
+    <t>臼歯（きゅうし）／脱臼（だっきゅう）</t>
+  </si>
+  <si>
+    <t>臼井（うすい）／茶臼山（ちゃうすやま）／碾き臼（ひきうす）</t>
+  </si>
+  <si>
+    <t>就</t>
+  </si>
+  <si>
+    <t>会長の任に就く／校長の地位に就ける</t>
+  </si>
+  <si>
+    <t>シュウ／ジュ</t>
+  </si>
+  <si>
+    <t>就任（しゅうにん）／成就（じょうじゅ）</t>
+  </si>
+  <si>
+    <t>拘</t>
+  </si>
+  <si>
+    <t>こだわる</t>
+  </si>
+  <si>
+    <t>細かいことに拘る（こまかいことにこだわる）</t>
+  </si>
+  <si>
+    <t>拘束（こうそく）／拘留（こうりゅう）</t>
+  </si>
+  <si>
+    <t>No.53</t>
+  </si>
+  <si>
+    <t>狙</t>
+  </si>
+  <si>
+    <t>ねらう</t>
+  </si>
+  <si>
+    <t>狙う／狙い撃ち（ねらいうち）</t>
+  </si>
+  <si>
+    <t>居</t>
+  </si>
+  <si>
+    <t>居合い／何人が居る／居直る（いなおる）</t>
+  </si>
+  <si>
+    <t>キョ</t>
+  </si>
+  <si>
+    <t>居室（きょしつ）</t>
+  </si>
+  <si>
+    <t>裾</t>
+  </si>
+  <si>
+    <t>すそ</t>
+  </si>
+  <si>
+    <t>裾野（すその）／裳裾（もすそ）／山裾（やますそ）</t>
+  </si>
+  <si>
+    <t>駒</t>
+  </si>
+  <si>
+    <t>こま</t>
+  </si>
+  <si>
+    <t>駒（こま）／手駒（てごま）／持ち駒（もちごま）</t>
+  </si>
+  <si>
+    <t>局</t>
+  </si>
+  <si>
+    <t>キョク</t>
+  </si>
+  <si>
+    <t>局員（きょくいん）／局外（きょくがい）</t>
+  </si>
+  <si>
+    <t>菊</t>
+  </si>
+  <si>
+    <t>キク</t>
+  </si>
+  <si>
+    <t>菊（きく）／残菊（ざんぎく）／野菊（のぎく）</t>
+  </si>
+  <si>
+    <t>挙</t>
+  </si>
+  <si>
+    <t>あがる／あげる</t>
+  </si>
+  <si>
+    <t>槍玉に挙がる（やりだまにあがる）／いい成績を挙げる</t>
+  </si>
+  <si>
+    <t>挙措（きょそ）／選挙（せんきょ）</t>
+  </si>
+  <si>
+    <t>巨</t>
+  </si>
+  <si>
+    <t>キョ／コ</t>
+  </si>
+  <si>
+    <t>巨額（きょがく）／巨細胞（きょさい／こさい）</t>
+  </si>
+  <si>
+    <t>句</t>
+  </si>
+  <si>
+    <t>ク</t>
+  </si>
+  <si>
+    <t>句読点（くとうてん）／句法（くほう）</t>
+  </si>
+  <si>
+    <t>拒</t>
+  </si>
+  <si>
+    <t>こばむ</t>
+  </si>
+  <si>
+    <t>敵の侵入を拒む（てんのしんにゅうをこばむ）</t>
+  </si>
+  <si>
+    <t>拒絶（きょぜつ）／拒否（きょひ）</t>
+  </si>
+  <si>
+    <t>拠</t>
+  </si>
+  <si>
+    <t>拠点（きょてん）／根拠（こんきょ）／論拠（ろんきょ）</t>
+  </si>
+  <si>
+    <t>具</t>
+  </si>
+  <si>
+    <t>グ</t>
+  </si>
+  <si>
+    <t>具現（ぐげん）／具足（ぐそく）／道具（どうぐ）</t>
+  </si>
+  <si>
+    <t>据</t>
+  </si>
+  <si>
+    <t>すえる／すわる</t>
+  </si>
+  <si>
+    <t>心を据えてよく見ろ（こころをすえてよくみろ）／心を据わる</t>
+  </si>
+  <si>
+    <t>距</t>
+  </si>
+  <si>
+    <t>距離（きょり）</t>
+  </si>
+  <si>
+    <t>惧</t>
+  </si>
+  <si>
+    <t>危惧（きぐ）</t>
+  </si>
+  <si>
+    <t>劇</t>
+  </si>
+  <si>
+    <t>劇場（げきじょう）／劇映画（げきえいが）</t>
+  </si>
+  <si>
+    <t>No.54</t>
+  </si>
+  <si>
+    <t>No.55</t>
+  </si>
+  <si>
+    <t>巻</t>
+  </si>
+  <si>
+    <t>まき／まく</t>
+  </si>
+  <si>
+    <t>巻（まき）／巻き上げる（まきあげる）／巻き込む／城を巻く</t>
+  </si>
+  <si>
+    <t>全巻（ぜんかん）</t>
+  </si>
+  <si>
+    <t>絹</t>
+  </si>
+  <si>
+    <t>きぬ</t>
+  </si>
+  <si>
+    <t>絹糸（きぬいと）／絹物（きぬもの）</t>
+  </si>
+  <si>
+    <t>絹布（けんぶ）</t>
+  </si>
+  <si>
+    <t>決</t>
+  </si>
+  <si>
+    <t>きまる／きめる</t>
+  </si>
+  <si>
+    <t>新しい方針が決まるった／帰ってくるものと決めている／決めて</t>
+  </si>
+  <si>
+    <t>決意（けつい）／決戦（けっせん）</t>
+  </si>
+  <si>
+    <t>掘</t>
+  </si>
+  <si>
+    <t>才能を掘り起こす／里芋を掘る／問題を掘り下げる</t>
+  </si>
+  <si>
+    <t>クツ</t>
+  </si>
+  <si>
+    <t>掘削（くっさく）／採掘（さいくつ）</t>
+  </si>
+  <si>
+    <t>覚</t>
+  </si>
+  <si>
+    <t>おぼえる／さます／さめる</t>
+  </si>
+  <si>
+    <t>よく覚えていない／人に呼び覚まされた／夢から覚める</t>
+  </si>
+  <si>
+    <t>覚悟（かくご）／覚醒（かくせい）</t>
+  </si>
+  <si>
+    <t>絶</t>
+  </si>
+  <si>
+    <t>たえる／たつ／たやす</t>
+  </si>
+  <si>
+    <t>絶え果てる／水が絶える／命を絶つ／火を絶やさないように</t>
+  </si>
+  <si>
+    <t>ゼツ</t>
+  </si>
+  <si>
+    <t>絶縁（ぜつえん）／絶頂（ぜっちょう）</t>
+  </si>
+  <si>
+    <t>爵</t>
+  </si>
+  <si>
+    <t>爵位（しゃくい）／公爵（こうしゃく）</t>
+  </si>
+  <si>
+    <t>均</t>
+  </si>
+  <si>
+    <t>均一（きんいつ）／均衡（きんこう）</t>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>きみ</t>
+  </si>
+  <si>
+    <t>君（きみ）</t>
+  </si>
+  <si>
+    <t>クン</t>
+  </si>
+  <si>
+    <t>君主（くんしゅ）／諸君（しょくん）</t>
+  </si>
+  <si>
+    <t>軍</t>
+  </si>
+  <si>
+    <t>グン</t>
+  </si>
+  <si>
+    <t>軍営（ぐんえい）／十字軍（じゅうじぐん）</t>
+  </si>
+  <si>
+    <t>俊</t>
+  </si>
+  <si>
+    <t>俊秀（しゅんしゅう）／俊足（しゅんそく）</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>郡部（ぐんぶ）</t>
+  </si>
+  <si>
+    <t>菌</t>
+  </si>
+  <si>
+    <t>菌類（きんるい）／細菌（さいきん）／殺菌剤（さっきんざい）</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>あく／あける／ひらく／ひらける</t>
+  </si>
+  <si>
+    <t>幕が開く／目を開ける／蕾が開く（つぼみがひらく）／鉄道が開けた</t>
+  </si>
+  <si>
+    <t>開運（かいうん）／開拓（かいたく）</t>
+  </si>
+  <si>
+    <t>慨</t>
+  </si>
+  <si>
+    <t>慨然（がいぜん）／憤慨（ふんがい）</t>
+  </si>
+  <si>
+    <t>楷</t>
+  </si>
+  <si>
+    <t>楷書（かいしょ）</t>
+  </si>
+  <si>
+    <t>刊</t>
+  </si>
+  <si>
+    <t>刊行（かんこう）／休刊（きゅうかん）／週刊（しゅうかん）</t>
+  </si>
+  <si>
+    <t>勘</t>
+  </si>
+  <si>
+    <t>諸種の事情を勘案する／君は僕に何か勘違いをしていたのだ</t>
+  </si>
+  <si>
+    <t>堪</t>
+  </si>
+  <si>
+    <t>たえる</t>
+  </si>
+  <si>
+    <t>高温に堪える壁（こうおんにたえるかべ）</t>
+  </si>
+  <si>
+    <t>堪忍（かんにん）／音楽に堪能な人（おんがくにかんのうなひと）</t>
+  </si>
+  <si>
+    <t>看</t>
+  </si>
+  <si>
+    <t>過失を看過する／看護婦（かんごふ）／心をこめて看病する</t>
+  </si>
+  <si>
+    <t>康</t>
+  </si>
+  <si>
+    <t>健康（けんこう）</t>
+  </si>
+  <si>
+    <t>抗</t>
+  </si>
+  <si>
+    <t>抗議（こうぎ）／抗菌（こうきん）／敵に抗する（てきにこうする）</t>
+  </si>
+  <si>
+    <t>尻</t>
+  </si>
+  <si>
+    <t>けつ／しり</t>
+  </si>
+  <si>
+    <t>尻（けつ）／尻尾（しっぽ）／尻込み／尻込抜け</t>
+  </si>
+  <si>
+    <t>考</t>
+  </si>
+  <si>
+    <t>かんがえる</t>
+  </si>
+  <si>
+    <t>自分のやったことを考えてみよう</t>
+  </si>
+  <si>
+    <t>考案（こうあん）／考古学（こうこがく）</t>
+  </si>
+  <si>
+    <t>拷</t>
+  </si>
+  <si>
+    <t>拷問（ごうもん）</t>
+  </si>
+  <si>
+    <t>苛</t>
+  </si>
+  <si>
+    <t>いじめ／いらだたしい／いらだつ／さいなむ</t>
+  </si>
+  <si>
+    <t>苛め／苛立たしい／苛立つ／苛む</t>
+  </si>
+  <si>
+    <t>苛政（かせい）／苛烈（かれつ）</t>
+  </si>
+  <si>
+    <t>科</t>
+  </si>
+  <si>
+    <t>科学（かがく）／罰金を科する（ばっきんをかする）</t>
+  </si>
+  <si>
+    <t>殻</t>
+  </si>
+  <si>
+    <t>から</t>
+  </si>
+  <si>
+    <t>殻（から）</t>
+  </si>
+  <si>
+    <t>外殻（がいかく）／甲殻類（こうかくるい）／地殻（ちかく）</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>可逆（かぎゃく）／可溶性（かようせい）／認可（にんか）</t>
   </si>
 </sst>
 </file>
@@ -8654,10 +9395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F752"/>
+  <dimension ref="A1:F828"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A720" workbookViewId="0">
-      <selection activeCell="F752" sqref="F752"/>
+    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
+      <selection activeCell="F829" sqref="F829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -23711,6 +24452,1526 @@
         <v>2756</v>
       </c>
     </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A753" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A754" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F754" s="1" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A755" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A756" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F756" s="1" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A757" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F757" s="1" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A758" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F758" s="1" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A759" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F759" s="1" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A760" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F760" s="1" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A761" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F761" s="1" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A762" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F762" s="1" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A763" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F763" s="1" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A764" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F764" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A765" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F765" s="1" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A766" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F766" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A767" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A768" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F768" s="1" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A769" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A770" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F770" s="1" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A771" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F771" s="1" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A772" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F772" s="1" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A773" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F773" s="1" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A774" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A775" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F775" s="1" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A776" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F776" s="1" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A777" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F777" s="1" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A778" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F778" s="1" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A779" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F779" s="1" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A780" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F780" s="1" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A781" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F781" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A782" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F782" s="1" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A783" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A784" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F784" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A785" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F785" s="1" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A786" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F786" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A787" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F787" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A788" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="F788" s="1" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A789" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F789" s="1" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A790" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F790" s="1" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A791" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F791" s="1" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A792" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F792" s="1" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A793" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F793" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A794" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F794" s="1" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A795" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F795" s="1" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A796" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F796" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A797" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F797" s="1" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A798" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F798" s="1" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A799" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F799" s="1" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A800" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F800" s="1" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A801" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F801" s="1" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A802" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F802" s="1" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A803" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F803" s="1" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A804" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F804" s="1" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A805" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F805" s="1" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A806" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F806" s="1" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A807" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F807" s="1" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A808" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A809" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F809" s="1" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A810" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F810" s="1" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A811" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F811" s="1" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A812" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F812" s="1" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A813" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F813" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A814" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F814" s="1" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A815" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F815" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A816" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F816" s="1" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A817" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F817" s="1" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A818" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F818" s="1" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A819" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F819" s="1" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A820" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F820" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A821" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F821" s="1" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A822" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F822" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A823" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F823" s="1" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A824" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F824" s="1" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A825" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F825" s="1" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A826" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F826" s="1" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A827" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F827" s="1" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A828" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>3003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B860C-78BB-496B-A53C-4B8F700C1084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AAD7B6-9B98-411E-8303-6AA14C6440C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="3004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="3263">
   <si>
     <t>List No.</t>
   </si>
@@ -9042,6 +9042,783 @@
   </si>
   <si>
     <t>可逆（かぎゃく）／可溶性（かようせい）／認可（にんか）</t>
+  </si>
+  <si>
+    <t>No.56</t>
+  </si>
+  <si>
+    <t>渇</t>
+  </si>
+  <si>
+    <t>かわく</t>
+  </si>
+  <si>
+    <t>喉が渇く（のどがかわく）</t>
+  </si>
+  <si>
+    <t>渇水（かっすい）／渇する／飢渇（きかつ）</t>
+  </si>
+  <si>
+    <t>克</t>
+  </si>
+  <si>
+    <t>克服（こくふく）／克明に調べる（こくめいにしらべる）</t>
+  </si>
+  <si>
+    <t>刻</t>
+  </si>
+  <si>
+    <t>きざむ</t>
+  </si>
+  <si>
+    <t>刻む／別れの時の先生の言葉は今でも心に刻まれる</t>
+  </si>
+  <si>
+    <t>刻印（こくいん）／復刻（ふっこく）</t>
+  </si>
+  <si>
+    <t>客</t>
+  </si>
+  <si>
+    <t>カク／キャク</t>
+  </si>
+  <si>
+    <t>刺客（しかく）／食客（しょっきゃく）</t>
+  </si>
+  <si>
+    <t>課</t>
+  </si>
+  <si>
+    <t>宿題を課する（しゅくだいをかする）／総務課（そうむか）</t>
+  </si>
+  <si>
+    <t>肯</t>
+  </si>
+  <si>
+    <t>肯定（こうてい）</t>
+  </si>
+  <si>
+    <t>墾</t>
+  </si>
+  <si>
+    <t>墾田（こんでん）／開墾（かいこん）</t>
+  </si>
+  <si>
+    <t>懇</t>
+  </si>
+  <si>
+    <t>ねんごろ</t>
+  </si>
+  <si>
+    <t>懇ろ（ねんごろ）</t>
+  </si>
+  <si>
+    <t>懇請（こんせい）／懇親会（こんしんかい）</t>
+  </si>
+  <si>
+    <t>坑</t>
+  </si>
+  <si>
+    <t>坑道（こうどう）</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>あく／あける／から／そら</t>
+  </si>
+  <si>
+    <t>手が空く／部屋を空ける／空手（からて）／空の軌跡</t>
+  </si>
+  <si>
+    <t>クウ</t>
+  </si>
+  <si>
+    <t>空母（くうぼ）</t>
+  </si>
+  <si>
+    <t>孔</t>
+  </si>
+  <si>
+    <t>コウ／ク</t>
+  </si>
+  <si>
+    <t>孔子（こうし）／孔雀（くじゃく）</t>
+  </si>
+  <si>
+    <t>恐</t>
+  </si>
+  <si>
+    <t>おそれる／おそろしい</t>
+  </si>
+  <si>
+    <t>何も恐れない／恐ろしく速い</t>
+  </si>
+  <si>
+    <t>恐怖（きょうふ）／恐竜（きょうりゅう）</t>
+  </si>
+  <si>
+    <t>控</t>
+  </si>
+  <si>
+    <t>ひかえる</t>
+  </si>
+  <si>
+    <t>控え室（ひかえしつ）／控え帳（ひかえちょう）／手紙を出すのを控える</t>
+  </si>
+  <si>
+    <t>控除（こうじょ）／控訴（こうそ）</t>
+  </si>
+  <si>
+    <t>口</t>
+  </si>
+  <si>
+    <t>くち</t>
+  </si>
+  <si>
+    <t>口に合う／口絵（くちえ）</t>
+  </si>
+  <si>
+    <t>口伝（くでん）／口径（こうけい）</t>
+  </si>
+  <si>
+    <t>No.57</t>
+  </si>
+  <si>
+    <t>No.58</t>
+  </si>
+  <si>
+    <t>No.59</t>
+  </si>
+  <si>
+    <t>No.60</t>
+  </si>
+  <si>
+    <t>枯</t>
+  </si>
+  <si>
+    <t>からす／かれる</t>
+  </si>
+  <si>
+    <t>植木を枯らす／なかなか枯れた字だ</t>
+  </si>
+  <si>
+    <t>枯渇（こかつ）／枯淡（こたん）</t>
+  </si>
+  <si>
+    <t>堀</t>
+  </si>
+  <si>
+    <t>ほり</t>
+  </si>
+  <si>
+    <t>堀川町（ほりかわまち）</t>
+  </si>
+  <si>
+    <t>窟</t>
+  </si>
+  <si>
+    <t>岩窟（がんくつ）／魔窟（まくつ）</t>
+  </si>
+  <si>
+    <t>苦</t>
+  </si>
+  <si>
+    <t>くるしい／くるしむ／くるしめる／にがい</t>
+  </si>
+  <si>
+    <t>生活が苦しい／理解に苦しむ／病気に苦しめられる／苦くてとても飲めない</t>
+  </si>
+  <si>
+    <t>苦肉の策（くにくのさく）</t>
+  </si>
+  <si>
+    <t>庫</t>
+  </si>
+  <si>
+    <t>ク／コ</t>
+  </si>
+  <si>
+    <t>庫裏（くり）／文庫（ぶんこ）</t>
+  </si>
+  <si>
+    <t>酷</t>
+  </si>
+  <si>
+    <t>ひどい</t>
+  </si>
+  <si>
+    <t>酷い目にあう（ひどいめにあう）</t>
+  </si>
+  <si>
+    <t>酷寒（こっかん）／厳酷（げんこく）</t>
+  </si>
+  <si>
+    <t>誇</t>
+  </si>
+  <si>
+    <t>ほこる</t>
+  </si>
+  <si>
+    <t>自分の功を誇る（じぶんのこうをほこる）</t>
+  </si>
+  <si>
+    <t>誇張（こちょう）</t>
+  </si>
+  <si>
+    <t>快</t>
+  </si>
+  <si>
+    <t>こころよい</t>
+  </si>
+  <si>
+    <t>病も日増しに快くなってきた（やまいもひましにこころよくなってきた）</t>
+  </si>
+  <si>
+    <t>快事（かいじ）／快適な船旅（かいてきなふなたび）</t>
+  </si>
+  <si>
+    <t>塊</t>
+  </si>
+  <si>
+    <t>かたまり</t>
+  </si>
+  <si>
+    <t>乗客の塊が改札を待つ（じょうきゃくのかたまりがかいさつをまつ）</t>
+  </si>
+  <si>
+    <t>塊茎（かいけい）／金塊（きんかい）</t>
+  </si>
+  <si>
+    <t>くつろぐ</t>
+  </si>
+  <si>
+    <t>寛</t>
+  </si>
+  <si>
+    <t>ゆっくり寛い音楽を聞く（ゆっくりくつろいおんがくをきく）</t>
+  </si>
+  <si>
+    <t>寛恕（かんじょ）</t>
+  </si>
+  <si>
+    <t>款</t>
+  </si>
+  <si>
+    <t>借款（しゃっかん）／落款（らっかん）</t>
+  </si>
+  <si>
+    <t>狂</t>
+  </si>
+  <si>
+    <t>くるう／くるおしい</t>
+  </si>
+  <si>
+    <t>彼はスポーツに狂っている／狂おしく叫ぶ（くるおしくさけぶ）</t>
+  </si>
+  <si>
+    <t>狂言（きょうげん）</t>
+  </si>
+  <si>
+    <t>況</t>
+  </si>
+  <si>
+    <t>まして</t>
+  </si>
+  <si>
+    <t>若者でも大変なのに、況して老人に耐えられるはずがない</t>
+  </si>
+  <si>
+    <t>概況（がいきょう）／盛況（せいきょう）</t>
+  </si>
+  <si>
+    <t>鉱</t>
+  </si>
+  <si>
+    <t>鉱山（こうざん）／鉱物（こうぶつ）</t>
+  </si>
+  <si>
+    <t>潰</t>
+  </si>
+  <si>
+    <t>ついえる／つぶす／つぶれる</t>
+  </si>
+  <si>
+    <t>潰える／潰す／潰れる</t>
+  </si>
+  <si>
+    <t>潰瘍（かいよう）</t>
+  </si>
+  <si>
+    <t>昆</t>
+  </si>
+  <si>
+    <t>昆虫（こんちゅう）／昆布（こんぶ）</t>
+  </si>
+  <si>
+    <t>困</t>
+  </si>
+  <si>
+    <t>こまる</t>
+  </si>
+  <si>
+    <t>生活に困る</t>
+  </si>
+  <si>
+    <t>困難（こんなん）</t>
+  </si>
+  <si>
+    <t>拡</t>
+  </si>
+  <si>
+    <t>拡散（かくさん）／拡張（かくちょう）</t>
+  </si>
+  <si>
+    <t>括</t>
+  </si>
+  <si>
+    <t>くくる</t>
+  </si>
+  <si>
+    <t>括弧で括る</t>
+  </si>
+  <si>
+    <t>概括（がいかつ）／総括（そうかつ）</t>
+  </si>
+  <si>
+    <t>拉</t>
+  </si>
+  <si>
+    <t>ひしぐ</t>
+  </si>
+  <si>
+    <t>拉ぐ</t>
+  </si>
+  <si>
+    <t>ラ</t>
+  </si>
+  <si>
+    <t>拉致（らち）</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
+    <t>ラツ</t>
+  </si>
+  <si>
+    <t>辣腕（らつわん）／辛辣（しんらつ）</t>
+  </si>
+  <si>
+    <t>来</t>
+  </si>
+  <si>
+    <t>きたす／きたる／くる</t>
+  </si>
+  <si>
+    <t>災いを来す／冬すぎて春来る／学校に来る</t>
+  </si>
+  <si>
+    <t>ライ</t>
+  </si>
+  <si>
+    <t>来襲（らいしゅう）／来月（らいげつ）</t>
+  </si>
+  <si>
+    <t>頼</t>
+  </si>
+  <si>
+    <t>たのむ／たのもしい／たよる</t>
+  </si>
+  <si>
+    <t>医者を頼む（いしゃをたのむ）／頼もしい青年／友人を頼って渡日する</t>
+  </si>
+  <si>
+    <t>依頼（いらい）／信頼（しんらい）</t>
+  </si>
+  <si>
+    <t>瀬</t>
+  </si>
+  <si>
+    <t>セ</t>
+  </si>
+  <si>
+    <t>瀬戸際（せとぎわ）／瀬戸物（せともの）</t>
+  </si>
+  <si>
+    <t>嵐</t>
+  </si>
+  <si>
+    <t>あらし</t>
+  </si>
+  <si>
+    <t>砂嵐（すなあらし）</t>
+  </si>
+  <si>
+    <t>ラン</t>
+  </si>
+  <si>
+    <t>嵐気（らんき）</t>
+  </si>
+  <si>
+    <t>覧</t>
+  </si>
+  <si>
+    <t>閲覧（えつらん）／総覧（そうらん）</t>
+  </si>
+  <si>
+    <t>藍</t>
+  </si>
+  <si>
+    <t>あい</t>
+  </si>
+  <si>
+    <t>藍（あい）</t>
+  </si>
+  <si>
+    <t>伽藍（がらん）</t>
+  </si>
+  <si>
+    <t>欄</t>
+  </si>
+  <si>
+    <t>欄外（らんがい）／広告欄（こうこくらん）</t>
+  </si>
+  <si>
+    <t>濫</t>
+  </si>
+  <si>
+    <t>濫觴（らんしょう）／濫用（らんよう）</t>
+  </si>
+  <si>
+    <t>廊</t>
+  </si>
+  <si>
+    <t>ロウ</t>
+  </si>
+  <si>
+    <t>廊下のはずれにトイレがある（ろうかのはずれにといれがある）</t>
+  </si>
+  <si>
+    <t>郎</t>
+  </si>
+  <si>
+    <t>太郎（たろう）</t>
+  </si>
+  <si>
+    <t>朗</t>
+  </si>
+  <si>
+    <t>ほがらか</t>
+  </si>
+  <si>
+    <t>朗らかな人（ほがらかなひと）</t>
+  </si>
+  <si>
+    <t>朗読（ろうどく）／晴朗（せいろう）</t>
+  </si>
+  <si>
+    <t>浪</t>
+  </si>
+  <si>
+    <t>浪人（ろうにん）／浪漫（ろうまん）／波浪（はろう）</t>
+  </si>
+  <si>
+    <t>労</t>
+  </si>
+  <si>
+    <t>ねぎらう</t>
+  </si>
+  <si>
+    <t>戦士を労う</t>
+  </si>
+  <si>
+    <t>労役（ろうえき）／労賃（ろうちん）</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>おいる／ふける</t>
+  </si>
+  <si>
+    <t>老いる／老けた米（ふけたこめ）</t>
+  </si>
+  <si>
+    <t>老境に入る／長老（ちょうろう）</t>
+  </si>
+  <si>
+    <t>酪</t>
+  </si>
+  <si>
+    <t>ラク</t>
+  </si>
+  <si>
+    <t>酪農（らくのう）／乳酪（にゅうらく）</t>
+  </si>
+  <si>
+    <t>楽</t>
+  </si>
+  <si>
+    <t>たのしい／たのしむ</t>
+  </si>
+  <si>
+    <t>旅行は楽しいものですね／映画を楽しむ</t>
+  </si>
+  <si>
+    <t>ガク／ラク</t>
+  </si>
+  <si>
+    <t>楽章（がくしょう）／極楽（ごくらく）</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>かみなり</t>
+  </si>
+  <si>
+    <t>雷（かみなり）</t>
+  </si>
+  <si>
+    <t>雷雨（らいう）／避雷針（ひらいしん）</t>
+  </si>
+  <si>
+    <t>累</t>
+  </si>
+  <si>
+    <t>ルイ</t>
+  </si>
+  <si>
+    <t>累加（るいか）／連累（れんるい）</t>
+  </si>
+  <si>
+    <t>塁</t>
+  </si>
+  <si>
+    <t>塁壁（るいへき）／本塁（ほんるい）</t>
+  </si>
+  <si>
+    <t>涙</t>
+  </si>
+  <si>
+    <t>なみだ</t>
+  </si>
+  <si>
+    <t>涙雨（なみだあめ）／涙声（なみだごえ）</t>
+  </si>
+  <si>
+    <t>涙腺（るいせん）／熱涙（ねつるい）</t>
+  </si>
+  <si>
+    <t>類</t>
+  </si>
+  <si>
+    <t>たぐい</t>
+  </si>
+  <si>
+    <t>パンダは類稀な動物だ</t>
+  </si>
+  <si>
+    <t>類比（るいひ）／類別（るいべつ）／哺乳類（ほにゅうるい）</t>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
+    <t>さます／さめる／つめたい／ひえる／ひや／ひやかす／ひやす</t>
+  </si>
+  <si>
+    <t>冷ます／冷める／冷たい／冷える／冷やで飲む／冷やかす／冷やす</t>
+  </si>
+  <si>
+    <t>レイ</t>
+  </si>
+  <si>
+    <t>冷気（れいき）／寒冷（かんれい）</t>
+  </si>
+  <si>
+    <t>厘</t>
+  </si>
+  <si>
+    <t>リン</t>
+  </si>
+  <si>
+    <t>厘毛（りんもう）</t>
+  </si>
+  <si>
+    <t>梨</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>梨（なし）</t>
+  </si>
+  <si>
+    <t>リ</t>
+  </si>
+  <si>
+    <t>梨園（りえん）</t>
+  </si>
+  <si>
+    <t>璃</t>
+  </si>
+  <si>
+    <t>瑠璃（るり）</t>
+  </si>
+  <si>
+    <t>離</t>
+  </si>
+  <si>
+    <t>はなす／はなれる</t>
+  </si>
+  <si>
+    <t>離す／話が本筋から離れた（はなしがほんすじからはなれた）</t>
+  </si>
+  <si>
+    <t>離隔（りかく）／遊離（ゆうり）</t>
+  </si>
+  <si>
+    <t>礼</t>
+  </si>
+  <si>
+    <t>ライ／レイ</t>
+  </si>
+  <si>
+    <t>礼賛（らいさん）／礼儀（れいぎ）</t>
+  </si>
+  <si>
+    <t>里</t>
+  </si>
+  <si>
+    <t>さと</t>
+  </si>
+  <si>
+    <t>里の習い（さとのならい）／里帰り（さとがえり）</t>
+  </si>
+  <si>
+    <t>里程（りてい）／郷里（きょうり）</t>
+  </si>
+  <si>
+    <t>理</t>
+  </si>
+  <si>
+    <t>理解（りかい）／原理（げんり）</t>
+  </si>
+  <si>
+    <t>裏</t>
+  </si>
+  <si>
+    <t>うら</t>
+  </si>
+  <si>
+    <t>言葉の裏を読み取る／裏切る（うらぎる）</t>
+  </si>
+  <si>
+    <t>裏面（りめん）／表裏（ひょうり）</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>ちから</t>
+  </si>
+  <si>
+    <t>力を入れる（ちからをいれる）</t>
+  </si>
+  <si>
+    <t>リキ／リョク</t>
+  </si>
+  <si>
+    <t>力学（りきがく）／力量（りきりょう）／魅力（みりょく）</t>
+  </si>
+  <si>
+    <t>立</t>
+  </si>
+  <si>
+    <t>名が立つ／彼を証人に立てる</t>
+  </si>
+  <si>
+    <t>リツ</t>
+  </si>
+  <si>
+    <t>立案（りつあん）／国立（こくりつ）</t>
+  </si>
+  <si>
+    <t>吏</t>
+  </si>
+  <si>
+    <t>吏員（りいん）／官吏（かんり）</t>
+  </si>
+  <si>
+    <t>励</t>
+  </si>
+  <si>
+    <t>はげます／はげむ</t>
+  </si>
+  <si>
+    <t>人の心を励ます／勉強に励む</t>
+  </si>
+  <si>
+    <t>励行（れいこう）／激励（げきれい）</t>
+  </si>
+  <si>
+    <t>利</t>
+  </si>
+  <si>
+    <t>きく</t>
+  </si>
+  <si>
+    <t>腕が利く（うでがきく）</t>
+  </si>
+  <si>
+    <t>利益（りえき）／利率（りりつ）</t>
+  </si>
+  <si>
+    <t>戻</t>
+  </si>
+  <si>
+    <t>もどす／もどる</t>
+  </si>
+  <si>
+    <t>借りた本を戻す／今夜は戻らない</t>
+  </si>
+  <si>
+    <t>暴戻（ぼうれい）</t>
+  </si>
+  <si>
+    <t>例</t>
+  </si>
+  <si>
+    <t>たとえる</t>
+  </si>
+  <si>
+    <t>美人を花に例える／例えば</t>
+  </si>
+  <si>
+    <t>例会（れいかい）／特例（とくれい）</t>
+  </si>
+  <si>
+    <t>粒</t>
+  </si>
+  <si>
+    <t>つぶ</t>
+  </si>
+  <si>
+    <t>粒揃いの選手（つぶぞろいのせんしゅ）</t>
+  </si>
+  <si>
+    <t>リュウ</t>
+  </si>
+  <si>
+    <t>粒子（りゅうし）／顆粒（かりゅう）</t>
+  </si>
+  <si>
+    <t>痢</t>
+  </si>
+  <si>
+    <t>疫痢（えきり）／赤痢（せきり）</t>
   </si>
 </sst>
 </file>
@@ -9395,17 +10172,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F828"/>
+  <dimension ref="A1:F902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
-      <selection activeCell="F829" sqref="F829"/>
+    <sheetView tabSelected="1" topLeftCell="A867" workbookViewId="0">
+      <selection activeCell="F901" sqref="F901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72.36328125" style="1" bestFit="1" customWidth="1"/>
@@ -25934,7 +26711,7 @@
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
-        <v>2917</v>
+        <v>3004</v>
       </c>
       <c r="B827" s="1" t="s">
         <v>2998</v>
@@ -25954,7 +26731,7 @@
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
-        <v>2917</v>
+        <v>3004</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>3002</v>
@@ -25970,6 +26747,1486 @@
       </c>
       <c r="F828" s="1" t="s">
         <v>3003</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A829" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A830" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F830" s="1" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A831" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A832" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="F832" s="1" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A833" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A834" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F834" s="1" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A835" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F835" s="1" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A836" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A837" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F837" s="1" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A838" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A839" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A840" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A841" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A842" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A843" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F843" s="1" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A844" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A845" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A846" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A847" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="F847" s="1" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A848" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A849" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A850" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A851" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F851" s="1" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A852" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A853" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A854" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A855" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A856" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A857" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F857" s="1" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A858" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F858" s="1" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A859" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F859" s="1" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A860" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F860" s="1" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A861" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A862" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="F862" s="1" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A863" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A864" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F864" s="1" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A865" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A866" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A867" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F867" s="1" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A868" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F868" s="1" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A869" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F869" s="1" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A870" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F870" s="1" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A871" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F871" s="1" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A872" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F872" s="1" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A873" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F873" s="1" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A874" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F874" s="1" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A875" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A876" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F876" s="1" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A877" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F877" s="1" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A878" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F878" s="1" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A879" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A880" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F880" s="1" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A881" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A882" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A883" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A884" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="F884" s="1" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A885" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F885" s="1" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A886" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="F886" s="1" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A887" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F887" s="1" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A888" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A889" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F889" s="1" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A890" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A891" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A892" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A893" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F893" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A894" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="F894" s="1" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A895" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F895" s="1" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A896" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F896" s="1" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A897" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F897" s="1" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A898" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F898" s="1" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A899" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F899" s="1" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A900" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F900" s="1" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A901" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E901" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F901" s="1" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A902" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E902" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F902" s="1" t="s">
+        <v>3262</v>
       </c>
     </row>
   </sheetData>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Python_works\JLR_Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53BE279-3387-47FE-9B87-819083321A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D10BCD-0927-4CF0-84CB-DA15B3E4DFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6312" uniqueCount="3805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6852" uniqueCount="4166">
   <si>
     <t>List No.</t>
   </si>
@@ -11673,6 +11673,1450 @@
   </si>
   <si>
     <t>明2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末っ子（すえっこ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バツ／マツ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末裔（まつえい／ばつえい）／末日（まつじつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漠然たる印象（ばくぜんたるいんしょう）／砂漠（さばく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なぜ今まで私に黙っていたのだ（なぜいままでわたしにだまっていたのだ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>モク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黙読（もくどく）／沈黙（ちんもく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨をたっぷり含ませた筆／墨色（すみいろ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨汁（ぼくじゅう）／墨痕（ぼっこん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺害を謀る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はかる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボウ／ム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謀略（ぼうりゃく）／謀叛（むほん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なにがし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木村某という人（きむらなにがしというひと）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某氏（ぼうし）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母親（ははおや）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母艦（ぼかん）／母国語（ぼこくご）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うね／せ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畝（うね）／畝（せ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>き／こ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木屑（きくず）／木隠れ（こがくれ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボク／モ／モク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古木（こぼく）／木綿（もめん）／木製（もくせい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ま／め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目蔭を差す（まかげをさす）／有名大学を目指して（めざして）頑張る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボク／モク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目測（もくそく）／題目（だいもく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧場（まきば／ぼくじょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧畜（ぼくちく）／遊牧（ゆうぼく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つのる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会員を募る（かいいんをつのる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募金（ぼきん）／召募（しょうぼ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓場（はかば）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓誌（ぼし）／墳墓（ふんぼ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バク／マク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幕府（ばくふ）／幕開き（まくあき）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むつまじい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睦言（むつごと）／睦まじい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親睦（しんぼく）／和睦（わぼく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>したう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼は生徒から深く慕われたいる（かれはせいとからふかくしたわれている）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕情（ぼじょう）／思慕（しぼ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くらす／くれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贅沢な暮らし（ぜいたくなくらし）／途方に暮れる（とほうにくれる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮色（ぼしょく）／暮夜（ぼや）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刹那（せつな）／檀那（だんな）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>納</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おさまる／おさめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会費は全部納まった／税金を納める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ノウ／ナッ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>納期（のうき）／納得のいく説明（なっとくのいくせつめい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈落（ならく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘惑に耐える（ゆうわくにたえる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐寒（たいかん）／忍耐（にんたい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おとこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男（おとこ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダン／ナン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男子寮（だんしりょう）／長男（ちょうなん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みなみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南（みなみ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南洋（なんよう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたい／むずかしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想像に難くない（そうぞうにかたくない）／難しい文章（むずかしいぶんしょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難易（なんい）／難所（なんしょ）／災難（さいなん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なやます／なやむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼らは紅海で炎熱に悩ますされた／赤字に悩む（あかじになやむ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ノウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悩乱（のうらん）／煩悩（ぼんのう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脳溢血（のういっけつ）／脳味噌を絞る（のうみそをしぼる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内側（うちがわ）／内訳書（うちわけしょ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダイ／ナイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入内（じゅだい）／内陸（ないりく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能楽(のうがく）／本能寺（ほんのうじ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼（あま）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼僧（にそう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥臭い服装（どろくさいふくそう）／泥棒（どろぼう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拘泥（こうでい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ギ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擬音（ぎおん）／模擬（もぎ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さからう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歴史の流れに逆らう（れきしのながれにさからう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ギャク／ゲキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆襲（ぎゃくしゅう）／逆鱗（げきりん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名（とくめい）／隠匿（いんとく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おぼれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溺れる（おぼれる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溺愛（できあい）／耽溺（たんでき）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年越し蕎麦（としこしそば）／年寄り（としより）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年鑑（ねんかん）／年季を入れる（ねんきをいれる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねばる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後まで粘ってついに逆転した（さいごまでねばってついにぎゃくてんした）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘膜（ねんまく）／粘着（ねんちゃく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひねくる／ひねる／ねじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捻くり回す／捻り出す／捻じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捻挫（ねんざ）／捻出（ねんしゅつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>念入りに準備する（ねんいりにじゅんびする）／念頭に浮かぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むすめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘心（むすめごころ）／娘盛り（むすめざかり）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジョウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交換嬢（こうかんじょう）／嬢ちゃん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かもす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物議を醸す（ぶつぎをかもす）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醸造（じょうぞう）／吟醸（ぎんじょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳥居（とりい）／鳥肌が立つ（とりはだがたつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チョウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳥瞰（ちょうかん）／保護鳥（ほごちょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニョウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿酸（にょうさん）／検尿（けんにょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むしろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名よりも寧ろ実を選ぶ（なよりもむしろみをえらぶ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寧日（ねいじつ）／丁寧（ていねい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こらす／こる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目を凝らす（めをこらす）／競馬に凝っている（けいばにこっている）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ギョウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝結（ぎょうけつ）／凝滞（ぎょうたい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛飼い（うしかい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ギュウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛耳る（ぎゅうじる）／牛乳（ぎゅうにゅう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農作物（のうさくぶつ）／重農主義（じゅうのうしゅぎ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濃い化粧（こいけしょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濃厚（のうこう）／濃縮（のうしゅく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いじくる／いじる／まさぐる／もてあそぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄くる／弄る（いじる）／弄る（まさぐる）／弄ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩弄（がんろう）／嘲弄（ちょうろう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おんな／め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジョ／ニョ／ニョウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女盛り（おんなざかり）／女神（めがみ／じょしん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子大（じょしだい）／女体（じょたい／にょたい）／天女（てんにょ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんな奴は大嫌いだ（あんなやつはだいきらいだ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ド／ヌ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴隷（どれい）／奴婢（ぬひ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つとめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技術の向上に努める（ぎじゅつのこうじょうにつとめる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力家（どりょくか）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いかる／おこる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈火のごとく怒る（れっかのごとくいかる）／怒る（おこる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒気（どき）／怒鳴る（どなる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたたか／あたたかい／あたたまる／あたためる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖かな病室／暖かい歓迎／体の温まる飲み物／スープを暖める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖気（だんき）／暖房（だんぼう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しいたげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐げられた人々（しいたげられたひとびと）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ギャク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐殺（ぎゃくさつ）／暴虐（ぼうぎゃく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諾意（だくい）／諾する（だくする）／承諾（しょうだく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧亜（おうあ）／欧米（おうべい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なぐる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼は痣ができるほど殴られた／殴り倒す（なぐりたおす）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殴打（おうだ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>グウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶然（ぐうぜん）／木偶（もくぐう／でく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハク／ヒョウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍車をかける／滑った拍子に足をくじいた（すべったひょうしに。。。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俳句（はいく）／俳優（はいゆう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排煙（はいえん）／戸を排して入る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣（はけん）／宗派（しゅうは）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盤台（ばんだい）／鍵盤（けんばん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハン／バン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判決（はんけつ）／裁判（さいばん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あぜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畦（あぜ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖畔（こはん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡立てるてたクリーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫（ほうまつ）／発泡（はっぽう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砲火（ほうか）／砲弾（ほうだん）／鉄砲（てっぽう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪審員（ばいしんいん）／陪席（ばいせき）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つちかう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豊かな心を培う（ゆたかなこころをつちかう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培養（ばいよう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賠償（ばいしょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くばる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聞を配る（しんぶんをくばる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご配意、ありがとう／配信（はいしん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火を噴く（火を噴く）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噴気（ふんき）／噴泉（ふんせん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆暮れ（ぼんくれ）／盆踊り（ぼんおどり）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棚上げ（たなあげ）／戸棚（とだな）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふくらむ／ふくれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パンはなかなか膨らまない／予算はなかなか膨れあがった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨大（ぼうだい）／膨脹（ぼうちょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准（ひじゅん）／批判（ひはん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手紙を披見する／披露（ひろう）／披瀝（ひれき）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮切り（かわきり）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮脂（ひし）／漫画で世相を皮肉る（まんがでせそうをひにくる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地が疲れる（とちがつかれる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲弊（ひへい）／疲労（ひろう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚み３匹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒツ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬匹（ばひつ）／匹夫（ひっぷ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くせ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癖のある文章（くせのあるぶんしょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヘキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪癖（あくへき）／潔癖（けっぺき）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたよる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏った処置（かたよったしょち）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヘン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏狭（へんきょう）／偏頗（へんぱ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片田舎（かたいなか）／片意地（かたいじ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片時（へんじ）／薄片（はくへん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和やかな雰囲気が漂う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒョウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂白（ひょうはく）／漂流（ひょうりゅう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票決（ひょうけつ）／投票（とうひょう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まずしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒン／ビン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容はきわめて貧しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貧寒（ひんかん）／貧乏（びんぼう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しきり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頻りに手紙をよこす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頻度（ひんど）／頻発（ひんぱつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この生地は品薄です／品切れ（しなぎれ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品位（ひんい）／品質を高める（ひんしつをたかめる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいら／ひら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道を平らにする（みちをたいらにする）／平泳ぎで泳ぐ（ひらおよぎでおよぐ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ビョウ／ヘイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平等（びょうどう）／平安（へいあん）／平癒（へいゆ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12027,10 +13471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1052"/>
+  <dimension ref="A1:F1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1030" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1051" sqref="C1051"/>
+    <sheetView tabSelected="1" topLeftCell="A1120" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F1142" sqref="F1142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -33066,7 +34510,7 @@
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1052" s="1" t="s">
-        <v>3692</v>
+        <v>3805</v>
       </c>
       <c r="B1052" s="1" t="s">
         <v>3801</v>
@@ -33082,6 +34526,1806 @@
       </c>
       <c r="F1052" s="1" t="s">
         <v>3802</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1053" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="F1053" s="1" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1054" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>3813</v>
+      </c>
+      <c r="F1054" s="1" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1055" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F1055" s="1" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1056" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C1056" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>3822</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="F1056" s="1" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1057" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C1057" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>3828</v>
+      </c>
+      <c r="F1057" s="1" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1058" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="D1058" s="1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>3582</v>
+      </c>
+      <c r="F1058" s="1" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1059" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C1059" s="1" t="s">
+        <v>3835</v>
+      </c>
+      <c r="D1059" s="1" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="F1059" s="1" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1060" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>3839</v>
+      </c>
+      <c r="C1060" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1060" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E1060" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="F1060" s="1" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1061" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D1061" s="1" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E1061" s="1" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F1061" s="1" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1062" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>3848</v>
+      </c>
+      <c r="D1062" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="E1062" s="1" t="s">
+        <v>3850</v>
+      </c>
+      <c r="F1062" s="1" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1063" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C1063" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D1063" s="1" t="s">
+        <v>3854</v>
+      </c>
+      <c r="E1063" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="F1063" s="1" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1064" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>3857</v>
+      </c>
+      <c r="D1064" s="1" t="s">
+        <v>3858</v>
+      </c>
+      <c r="E1064" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="F1064" s="1" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1065" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D1065" s="1" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="F1065" s="1" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1066" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1066" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1066" s="1" t="s">
+        <v>3865</v>
+      </c>
+      <c r="F1066" s="1" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1067" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D1067" s="1" t="s">
+        <v>3869</v>
+      </c>
+      <c r="E1067" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="F1067" s="1" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1068" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D1068" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="E1068" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="F1068" s="1" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1069" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D1069" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E1069" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="F1069" s="1" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1070" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1070" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1070" s="1" t="s">
+        <v>3880</v>
+      </c>
+      <c r="F1070" s="1" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1071" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>3883</v>
+      </c>
+      <c r="D1071" s="1" t="s">
+        <v>3884</v>
+      </c>
+      <c r="E1071" s="1" t="s">
+        <v>3885</v>
+      </c>
+      <c r="F1071" s="1" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1072" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>3887</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1072" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1072" s="1" t="s">
+        <v>3880</v>
+      </c>
+      <c r="F1072" s="1" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1073" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>3889</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D1073" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="E1073" s="1" t="s">
+        <v>3892</v>
+      </c>
+      <c r="F1073" s="1" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1074" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D1074" s="1" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E1074" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="F1074" s="1" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1075" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D1075" s="1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="E1075" s="1" t="s">
+        <v>3902</v>
+      </c>
+      <c r="F1075" s="1" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1076" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>3905</v>
+      </c>
+      <c r="D1076" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="E1076" s="1" t="s">
+        <v>3902</v>
+      </c>
+      <c r="F1076" s="1" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1077" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D1077" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="E1077" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F1077" s="1" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1078" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1078" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1078" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F1078" s="1" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1079" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D1079" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="E1079" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="F1079" s="1" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1080" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1080" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1080" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F1080" s="1" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1081" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="D1081" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="E1081" s="1" t="s">
+        <v>3925</v>
+      </c>
+      <c r="F1081" s="1" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1082" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D1082" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="E1082" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="F1082" s="1" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1083" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1083" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1083" s="1" t="s">
+        <v>3934</v>
+      </c>
+      <c r="F1083" s="1" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1084" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D1084" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E1084" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="F1084" s="1" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1085" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1085" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1085" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="F1085" s="1" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1086" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D1086" s="1" t="s">
+        <v>3946</v>
+      </c>
+      <c r="E1086" s="1" t="s">
+        <v>3947</v>
+      </c>
+      <c r="F1086" s="1" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1087" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D1087" s="1" t="s">
+        <v>3951</v>
+      </c>
+      <c r="E1087" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F1087" s="1" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1088" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>3955</v>
+      </c>
+      <c r="D1088" s="1" t="s">
+        <v>3956</v>
+      </c>
+      <c r="E1088" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F1088" s="1" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1089" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>3958</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D1089" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="E1089" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F1089" s="1" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1090" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C1090" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1090" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1090" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F1090" s="1" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1091" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>3966</v>
+      </c>
+      <c r="E1091" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="F1091" s="1" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1092" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1092" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1092" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F1092" s="1" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1093" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D1093" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E1093" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F1093" s="1" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1094" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="E1094" s="1" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F1094" s="1" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1095" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1095" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="F1095" s="1" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1096" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="D1096" s="1" t="s">
+        <v>3985</v>
+      </c>
+      <c r="E1096" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="F1096" s="1" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1097" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>3988</v>
+      </c>
+      <c r="D1097" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E1097" s="1" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F1097" s="1" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1098" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>3995</v>
+      </c>
+      <c r="D1098" s="1" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E1098" s="1" t="s">
+        <v>3997</v>
+      </c>
+      <c r="F1098" s="1" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1099" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1099" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1099" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F1099" s="1" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1100" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C1100" s="1" t="s">
+        <v>4002</v>
+      </c>
+      <c r="D1100" s="1" t="s">
+        <v>4003</v>
+      </c>
+      <c r="E1100" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F1100" s="1" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1101" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C1101" s="1" t="s">
+        <v>4006</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>4007</v>
+      </c>
+      <c r="E1101" s="1" t="s">
+        <v>4008</v>
+      </c>
+      <c r="F1101" s="1" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1102" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>4011</v>
+      </c>
+      <c r="D1102" s="1" t="s">
+        <v>4013</v>
+      </c>
+      <c r="E1102" s="1" t="s">
+        <v>4012</v>
+      </c>
+      <c r="F1102" s="1" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1103" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C1103" s="1" t="s">
+        <v>4016</v>
+      </c>
+      <c r="D1103" s="1" t="s">
+        <v>4017</v>
+      </c>
+      <c r="E1103" s="1" t="s">
+        <v>4018</v>
+      </c>
+      <c r="F1103" s="1" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1104" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C1104" s="1" t="s">
+        <v>4021</v>
+      </c>
+      <c r="D1104" s="1" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E1104" s="1" t="s">
+        <v>4023</v>
+      </c>
+      <c r="F1104" s="1" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1105" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C1105" s="1" t="s">
+        <v>4026</v>
+      </c>
+      <c r="D1105" s="1" t="s">
+        <v>4027</v>
+      </c>
+      <c r="E1105" s="1" t="s">
+        <v>4023</v>
+      </c>
+      <c r="F1105" s="1" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1106" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D1106" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="E1106" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="F1106" s="1" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1107" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C1107" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D1107" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="E1107" s="1" t="s">
+        <v>4037</v>
+      </c>
+      <c r="F1107" s="1" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1108" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C1108" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1108" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1108" s="1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="F1108" s="1" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1109" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1109" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1109" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="F1109" s="1" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1110" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C1110" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D1110" s="1" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E1110" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="F1110" s="1" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1111" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C1111" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1111" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="F1111" s="1" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1112" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C1112" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1112" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="F1112" s="1" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1113" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1113" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1113" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F1113" s="1" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1114" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C1114" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1114" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F1114" s="1" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1115" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C1115" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1115" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1115" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="F1115" s="1" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1116" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1116" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="F1116" s="1" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1117" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="C1117" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1117" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1117" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="F1117" s="1" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1118" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C1118" s="1" t="s">
+        <v>4070</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="E1118" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="F1118" s="1" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1119" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C1119" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D1119" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="E1119" s="1" t="s">
+        <v>4077</v>
+      </c>
+      <c r="F1119" s="1" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1120" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C1120" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1120" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1120" s="1" t="s">
+        <v>4077</v>
+      </c>
+      <c r="F1120" s="1" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1121" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C1121" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1121" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1121" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F1121" s="1" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1122" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C1122" s="1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="D1122" s="1" t="s">
+        <v>4085</v>
+      </c>
+      <c r="E1122" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F1122" s="1" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1123" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C1123" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1123" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F1123" s="1" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1124" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C1124" s="1" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D1124" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="E1124" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F1124" s="1" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1125" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C1125" s="1" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D1125" s="1" t="s">
+        <v>4095</v>
+      </c>
+      <c r="E1125" s="1" t="s">
+        <v>4096</v>
+      </c>
+      <c r="F1125" s="1" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1126" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C1126" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1126" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1126" s="1" t="s">
+        <v>4099</v>
+      </c>
+      <c r="F1126" s="1" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1127" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C1127" s="1" t="s">
+        <v>4102</v>
+      </c>
+      <c r="D1127" s="1" t="s">
+        <v>4103</v>
+      </c>
+      <c r="E1127" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="F1127" s="1" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1128" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C1128" s="1" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D1128" s="1" t="s">
+        <v>4107</v>
+      </c>
+      <c r="E1128" s="1" t="s">
+        <v>3582</v>
+      </c>
+      <c r="F1128" s="1" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1129" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C1129" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1129" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F1129" s="1" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1130" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C1130" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1130" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F1130" s="1" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1131" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C1131" s="1" t="s">
+        <v>4114</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E1131" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F1131" s="1" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1132" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C1132" s="1" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>4119</v>
+      </c>
+      <c r="E1132" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F1132" s="1" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1133" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C1133" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D1133" s="1" t="s">
+        <v>4123</v>
+      </c>
+      <c r="E1133" s="1" t="s">
+        <v>4124</v>
+      </c>
+      <c r="F1133" s="1" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1134" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1134" s="1" t="s">
+        <v>4127</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>4128</v>
+      </c>
+      <c r="E1134" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="F1134" s="1" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1135" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C1135" s="1" t="s">
+        <v>4132</v>
+      </c>
+      <c r="D1135" s="1" t="s">
+        <v>4133</v>
+      </c>
+      <c r="E1135" s="1" t="s">
+        <v>4134</v>
+      </c>
+      <c r="F1135" s="1" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1136" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C1136" s="1" t="s">
+        <v>4137</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>4138</v>
+      </c>
+      <c r="E1136" s="1" t="s">
+        <v>4134</v>
+      </c>
+      <c r="F1136" s="1" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1137" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>4140</v>
+      </c>
+      <c r="C1137" s="1" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D1137" s="1" t="s">
+        <v>4142</v>
+      </c>
+      <c r="E1137" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="F1137" s="1" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1138" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C1138" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1138" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1138" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="F1138" s="1" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1139" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1139" s="1" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C1139" s="1" t="s">
+        <v>4148</v>
+      </c>
+      <c r="D1139" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="E1139" s="1" t="s">
+        <v>4149</v>
+      </c>
+      <c r="F1139" s="1" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1140" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1140" s="1" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C1140" s="1" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D1140" s="1" t="s">
+        <v>4154</v>
+      </c>
+      <c r="E1140" s="1" t="s">
+        <v>4155</v>
+      </c>
+      <c r="F1140" s="1" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1141" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1141" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C1141" s="1" t="s">
+        <v>4158</v>
+      </c>
+      <c r="D1141" s="1" t="s">
+        <v>4159</v>
+      </c>
+      <c r="E1141" s="1" t="s">
+        <v>4155</v>
+      </c>
+      <c r="F1141" s="1" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1142" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1142" s="1" t="s">
+        <v>4161</v>
+      </c>
+      <c r="C1142" s="1" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D1142" s="1" t="s">
+        <v>4163</v>
+      </c>
+      <c r="E1142" s="1" t="s">
+        <v>4164</v>
+      </c>
+      <c r="F1142" s="1" t="s">
+        <v>4165</v>
       </c>
     </row>
   </sheetData>
